--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4B1BC-A697-412D-9FB4-442FA098C76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEDE3A-4924-4F22-A150-4FD65F450815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="686">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -34,32 +47,2074 @@
     <t>10254-ARI-I</t>
   </si>
   <si>
-    <t>25465-ARI-I</t>
-  </si>
-  <si>
-    <t>11236-ARI-I</t>
-  </si>
-  <si>
-    <t>FORNO</t>
-  </si>
-  <si>
-    <t>FRITADEIRA</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM</t>
+    <t>10000-ARI-I</t>
+  </si>
+  <si>
+    <t>10000-AZN-I</t>
+  </si>
+  <si>
+    <t>10000-CTV-I</t>
+  </si>
+  <si>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>10001-AZN-I</t>
+  </si>
+  <si>
+    <t>10001-CTV-I</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>10002-CTV-I</t>
+  </si>
+  <si>
+    <t>10002-LDG-I</t>
+  </si>
+  <si>
+    <t>10003-CTV-I</t>
+  </si>
+  <si>
+    <t>10003-LDG-I</t>
+  </si>
+  <si>
+    <t>10004-CTV-I</t>
+  </si>
+  <si>
+    <t>10005-ARI-I</t>
+  </si>
+  <si>
+    <t>10005-CTV-I</t>
+  </si>
+  <si>
+    <t>10006-CTV-I</t>
+  </si>
+  <si>
+    <t>10007-LDG-I</t>
+  </si>
+  <si>
+    <t>10008-LDG-I</t>
+  </si>
+  <si>
+    <t>10010-ARI-I</t>
+  </si>
+  <si>
+    <t>10012-LDG-I</t>
+  </si>
+  <si>
+    <t>10015-ARI-I</t>
+  </si>
+  <si>
+    <t>10016-ATE-I</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>10026-ATE-I</t>
+  </si>
+  <si>
+    <t>10027-ATE-I</t>
+  </si>
+  <si>
+    <t>10028-ATE-I</t>
+  </si>
+  <si>
+    <t>10029-ATE-I</t>
+  </si>
+  <si>
+    <t>10030-ARI-I</t>
+  </si>
+  <si>
+    <t>10035-ARI-I</t>
+  </si>
+  <si>
+    <t>10040-ARI-I</t>
+  </si>
+  <si>
+    <t>10045-ARI-I</t>
+  </si>
+  <si>
+    <t>10050-ARI-I</t>
+  </si>
+  <si>
+    <t>10055-ARI-I</t>
+  </si>
+  <si>
+    <t>10060-ARI-I</t>
+  </si>
+  <si>
+    <t>10065-ARI-I</t>
+  </si>
+  <si>
+    <t>10070-ARI-I</t>
+  </si>
+  <si>
+    <t>10072-BLB-I</t>
+  </si>
+  <si>
+    <t>10073-BLB-I</t>
+  </si>
+  <si>
+    <t>10075-ARI-I</t>
+  </si>
+  <si>
+    <t>10076-BLB-I</t>
+  </si>
+  <si>
+    <t>10077-BLB-I</t>
+  </si>
+  <si>
+    <t>10079-BLB-I</t>
+  </si>
+  <si>
+    <t>10080-ARI-I</t>
+  </si>
+  <si>
+    <t>10080-BLB-I</t>
+  </si>
+  <si>
+    <t>10085-ARI-I</t>
+  </si>
+  <si>
+    <t>10090-ARI-I</t>
+  </si>
+  <si>
+    <t>10115-ARI-I</t>
+  </si>
+  <si>
+    <t>10119-ATE-I</t>
+  </si>
+  <si>
+    <t>10120-ARI-I</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>10130-ARI-I</t>
+  </si>
+  <si>
+    <t>10135-ARI-I</t>
+  </si>
+  <si>
+    <t>10140-ARI-I</t>
+  </si>
+  <si>
+    <t>10145-ARI-I</t>
+  </si>
+  <si>
+    <t>10150-ARI-I</t>
+  </si>
+  <si>
+    <t>10152-DLO-L</t>
+  </si>
+  <si>
+    <t>10155-ARI-I</t>
+  </si>
+  <si>
+    <t>10160-ARI-I</t>
+  </si>
+  <si>
+    <t>10170-ARI-I</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>10180-ARI-I</t>
+  </si>
+  <si>
+    <t>10185-ARI-I</t>
+  </si>
+  <si>
+    <t>10195-ARI-I</t>
+  </si>
+  <si>
+    <t>10200-ARI-I</t>
+  </si>
+  <si>
+    <t>10240-ARI-I</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>10250-ARI-I</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>10257-ARI-I</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>10352-ARI-I</t>
+  </si>
+  <si>
+    <t>10354-ARI-I</t>
+  </si>
+  <si>
+    <t>10355-ARI-I</t>
+  </si>
+  <si>
+    <t>10356-ARI-I</t>
+  </si>
+  <si>
+    <t>10362-ARI-I</t>
+  </si>
+  <si>
+    <t>10364-ARI-I</t>
+  </si>
+  <si>
+    <t>10366-ARI-I</t>
+  </si>
+  <si>
+    <t>10369-ARI-I</t>
+  </si>
+  <si>
+    <t>10371-ARI-I</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>10378-ARI-I</t>
+  </si>
+  <si>
+    <t>10379-ARI-I</t>
+  </si>
+  <si>
+    <t>10380-ARI-I</t>
+  </si>
+  <si>
+    <t>10381-ARI-I</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>10383-ARI-I</t>
+  </si>
+  <si>
+    <t>10384-ARI-I</t>
+  </si>
+  <si>
+    <t>10385-ARI-I</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>10391-ARI-I</t>
+  </si>
+  <si>
+    <t>10392-ARI-I</t>
+  </si>
+  <si>
+    <t>10395-ARI-I</t>
+  </si>
+  <si>
+    <t>10396-ARI-I</t>
+  </si>
+  <si>
+    <t>10478-ARI-I</t>
+  </si>
+  <si>
+    <t>10479-ARI-I</t>
+  </si>
+  <si>
+    <t>10480-ARI-I</t>
+  </si>
+  <si>
+    <t>10481-ARI-I</t>
+  </si>
+  <si>
+    <t>10482-ARI-I</t>
+  </si>
+  <si>
+    <t>10483-ARI-I</t>
+  </si>
+  <si>
+    <t>10484-ARI-I</t>
+  </si>
+  <si>
+    <t>10485-ARI-I</t>
+  </si>
+  <si>
+    <t>10486-ARI-I</t>
+  </si>
+  <si>
+    <t>10487-ARI-I</t>
+  </si>
+  <si>
+    <t>10488-ARI-I</t>
+  </si>
+  <si>
+    <t>10489-ARI-I</t>
+  </si>
+  <si>
+    <t>10492-ARI-I</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
+  </si>
+  <si>
+    <t>10495-ARI-I</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>10498-ARI-I</t>
+  </si>
+  <si>
+    <t>10499-ARI-I</t>
+  </si>
+  <si>
+    <t>10880-DLO-L</t>
+  </si>
+  <si>
+    <t>10896-DLO-L</t>
+  </si>
+  <si>
+    <t>10911-DLO-L</t>
+  </si>
+  <si>
+    <t>11452-DLO-L</t>
+  </si>
+  <si>
+    <t>11773-DLO-L</t>
+  </si>
+  <si>
+    <t>11820-DLO-I</t>
+  </si>
+  <si>
+    <t>11823-KRO-I</t>
+  </si>
+  <si>
+    <t>11831-KRO-L</t>
+  </si>
+  <si>
+    <t>11833-KRO-L</t>
+  </si>
+  <si>
+    <t>11848-DLO-I</t>
+  </si>
+  <si>
+    <t>11848-KRO-L</t>
+  </si>
+  <si>
+    <t>11851-KRO-I</t>
+  </si>
+  <si>
+    <t>11865-KRO-L</t>
+  </si>
+  <si>
+    <t>11900-KRO-I</t>
+  </si>
+  <si>
+    <t>11901-KRO-I</t>
+  </si>
+  <si>
+    <t>11950-KRO-I</t>
+  </si>
+  <si>
+    <t>11956-KRO-I</t>
+  </si>
+  <si>
+    <t>11958-KRO-I</t>
+  </si>
+  <si>
+    <t>11992-KRO-I</t>
+  </si>
+  <si>
+    <t>12001-KRO-I</t>
+  </si>
+  <si>
+    <t>12004-KRO-I</t>
+  </si>
+  <si>
+    <t>12005-KRO-I</t>
+  </si>
+  <si>
+    <t>12101-KRO-I</t>
+  </si>
+  <si>
+    <t>20555-CTY-I</t>
+  </si>
+  <si>
+    <t>20605-CTY-I</t>
+  </si>
+  <si>
+    <t>20610-CTY-I</t>
+  </si>
+  <si>
+    <t>20625-CTY-I</t>
+  </si>
+  <si>
+    <t>20630-CTY-I</t>
+  </si>
+  <si>
+    <t>20640-CTY-I</t>
+  </si>
+  <si>
+    <t>20650-CTY-I</t>
+  </si>
+  <si>
+    <t>20655-CTY-I</t>
+  </si>
+  <si>
+    <t>20660-CTY-I</t>
+  </si>
+  <si>
+    <t>20845-CTY-I</t>
+  </si>
+  <si>
+    <t>20914-CTY-I</t>
+  </si>
+  <si>
+    <t>20933-CTY-I</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
+  </si>
+  <si>
+    <t>20936-CTY-I</t>
+  </si>
+  <si>
+    <t>20938-CTY-I</t>
+  </si>
+  <si>
+    <t>20946-CTY-I</t>
+  </si>
+  <si>
+    <t>20947-CTY-I</t>
+  </si>
+  <si>
+    <t>20955-CTY-I</t>
+  </si>
+  <si>
+    <t>20958-CTY-I</t>
+  </si>
+  <si>
+    <t>20962-CTY-I</t>
+  </si>
+  <si>
+    <t>20963-CTY-I</t>
+  </si>
+  <si>
+    <t>20964-CTY-I</t>
+  </si>
+  <si>
+    <t>20967-CTY-I</t>
+  </si>
+  <si>
+    <t>20968-CTY-I</t>
+  </si>
+  <si>
+    <t>20969-CTY-I</t>
+  </si>
+  <si>
+    <t>20971-CTY-I</t>
+  </si>
+  <si>
+    <t>20977-CTY-I</t>
+  </si>
+  <si>
+    <t>20979-CTY-I</t>
+  </si>
+  <si>
+    <t>20981-CTY-I</t>
+  </si>
+  <si>
+    <t>20983-CTY-I</t>
+  </si>
+  <si>
+    <t>20984-CTY-I</t>
+  </si>
+  <si>
+    <t>20985-CTY-I</t>
+  </si>
+  <si>
+    <t>20986-CTY-I</t>
+  </si>
+  <si>
+    <t>20988-CTY-I</t>
+  </si>
+  <si>
+    <t>20989-CTY-I</t>
+  </si>
+  <si>
+    <t>20990-CTY-I</t>
+  </si>
+  <si>
+    <t>20991-CTY-I</t>
+  </si>
+  <si>
+    <t>20993-CTY-I</t>
+  </si>
+  <si>
+    <t>20997-CTY-I</t>
+  </si>
+  <si>
+    <t>20998-CTY-I</t>
+  </si>
+  <si>
+    <t>20999-CTY-I</t>
+  </si>
+  <si>
+    <t>21000-CTY-I</t>
+  </si>
+  <si>
+    <t>21001-CTY-I</t>
+  </si>
+  <si>
+    <t>21002-CTY-I</t>
+  </si>
+  <si>
+    <t>21003-CTY-I</t>
+  </si>
+  <si>
+    <t>21008-CTY-I</t>
+  </si>
+  <si>
+    <t>21009-CTY-I</t>
+  </si>
+  <si>
+    <t>21010-CTY-I</t>
+  </si>
+  <si>
+    <t>21011-CTY-I</t>
+  </si>
+  <si>
+    <t>21012-CTY-I</t>
+  </si>
+  <si>
+    <t>21013-CTY-I</t>
+  </si>
+  <si>
+    <t>21014-CTY-I</t>
+  </si>
+  <si>
+    <t>21015-CTY-I</t>
+  </si>
+  <si>
+    <t>21016-CTY-I</t>
+  </si>
+  <si>
+    <t>21017-CTY-I</t>
+  </si>
+  <si>
+    <t>21018-CTY-I</t>
+  </si>
+  <si>
+    <t>21019-CTY-I</t>
+  </si>
+  <si>
+    <t>21029-CTY-I</t>
+  </si>
+  <si>
+    <t>21030-NZX-I</t>
+  </si>
+  <si>
+    <t>21031-CTY-I</t>
+  </si>
+  <si>
+    <t>21033-CTY-I</t>
+  </si>
+  <si>
+    <t>21034-CTY-I</t>
+  </si>
+  <si>
+    <t>21041-CTY-I</t>
+  </si>
+  <si>
+    <t>21050-CTY-I</t>
+  </si>
+  <si>
+    <t>21051-CTY-I</t>
+  </si>
+  <si>
+    <t>21053-CTY-I</t>
+  </si>
+  <si>
+    <t>21054-CTY-I</t>
+  </si>
+  <si>
+    <t>21060-CTY-I</t>
+  </si>
+  <si>
+    <t>21062-CTY-I</t>
+  </si>
+  <si>
+    <t>21067-CTY-I</t>
+  </si>
+  <si>
+    <t>21073-CTY-I</t>
+  </si>
+  <si>
+    <t>21075-CTY-I</t>
+  </si>
+  <si>
+    <t>21076-CTY-I</t>
+  </si>
+  <si>
+    <t>21077-CTY-I</t>
+  </si>
+  <si>
+    <t>21078-CTY-I</t>
+  </si>
+  <si>
+    <t>21079-CTY-I</t>
+  </si>
+  <si>
+    <t>21080-CTY-I</t>
+  </si>
+  <si>
+    <t>21081-CTY-I</t>
+  </si>
+  <si>
+    <t>21082-CTY-I</t>
+  </si>
+  <si>
+    <t>21280-NZX-I</t>
+  </si>
+  <si>
+    <t>21305-NZX-I</t>
+  </si>
+  <si>
+    <t>21355-NZX-I</t>
+  </si>
+  <si>
+    <t>21478-NZX-I</t>
+  </si>
+  <si>
+    <t>21494-NZX-I</t>
+  </si>
+  <si>
+    <t>21498-NZX-I</t>
+  </si>
+  <si>
+    <t>21500-NZX-I</t>
+  </si>
+  <si>
+    <t>21501-NZX-I</t>
+  </si>
+  <si>
+    <t>23321-ATE-I</t>
+  </si>
+  <si>
+    <t>23322-ATE-I</t>
+  </si>
+  <si>
+    <t>23326-ATE-I</t>
+  </si>
+  <si>
+    <t>23327-ATE-I</t>
+  </si>
+  <si>
+    <t>23328-ATE-I</t>
+  </si>
+  <si>
+    <t>23329-ATE-I</t>
+  </si>
+  <si>
+    <t>23330-ATE-I</t>
+  </si>
+  <si>
+    <t>23335-ATE-I</t>
+  </si>
+  <si>
+    <t>23354-ATE-I</t>
+  </si>
+  <si>
+    <t>23359-ATE-I</t>
+  </si>
+  <si>
+    <t>23360-ATE-I</t>
+  </si>
+  <si>
+    <t>23364-ATE-I</t>
+  </si>
+  <si>
+    <t>23365-ATE-I</t>
+  </si>
+  <si>
+    <t>23367-ATE-I</t>
+  </si>
+  <si>
+    <t>23376-ATE-I</t>
+  </si>
+  <si>
+    <t>23377-ATE-I</t>
+  </si>
+  <si>
+    <t>23380-ATE-I</t>
+  </si>
+  <si>
+    <t>23400-ATE-I</t>
+  </si>
+  <si>
+    <t>23404-ATE-I</t>
+  </si>
+  <si>
+    <t>23406-ATE-I</t>
+  </si>
+  <si>
+    <t>23407-ATE-I</t>
+  </si>
+  <si>
+    <t>23408-ATE-I</t>
+  </si>
+  <si>
+    <t>23412-ATE-I</t>
+  </si>
+  <si>
+    <t>23413-ATE-I</t>
+  </si>
+  <si>
+    <t>24101-ATE-I</t>
+  </si>
+  <si>
+    <t>24106-ATE-I</t>
+  </si>
+  <si>
+    <t>24108-ATE-I</t>
+  </si>
+  <si>
+    <t>24113-ATE-I</t>
+  </si>
+  <si>
+    <t>24381-ATE-I</t>
+  </si>
+  <si>
+    <t>24382-ATE-I</t>
+  </si>
+  <si>
+    <t>24383-ATE-I</t>
+  </si>
+  <si>
+    <t>24386-ATE-I</t>
+  </si>
+  <si>
+    <t>24400-ATE-I</t>
+  </si>
+  <si>
+    <t>24405-ATE-I</t>
+  </si>
+  <si>
+    <t>24425-ATE-I</t>
+  </si>
+  <si>
+    <t>24430-ATE-I</t>
+  </si>
+  <si>
+    <t>33378-ATE-I</t>
+  </si>
+  <si>
+    <t>33380-ATE-I</t>
+  </si>
+  <si>
+    <t>33381-ATE-I</t>
+  </si>
+  <si>
+    <t>33382-ATE-I</t>
+  </si>
+  <si>
+    <t>33383-ATE-I</t>
+  </si>
+  <si>
+    <t>33384-ATE-I</t>
+  </si>
+  <si>
+    <t>33385-ATE-I</t>
+  </si>
+  <si>
+    <t>33386-ATE-I</t>
+  </si>
+  <si>
+    <t>33389-ATE-I</t>
+  </si>
+  <si>
+    <t>33390-ATE-I</t>
+  </si>
+  <si>
+    <t>33392-ATE-I</t>
+  </si>
+  <si>
+    <t>33394-ATE-I</t>
+  </si>
+  <si>
+    <t>33396-ATE-I</t>
+  </si>
+  <si>
+    <t>33400-ATE-I</t>
+  </si>
+  <si>
+    <t>33404-ATE-I</t>
+  </si>
+  <si>
+    <t>33408-ATE-I</t>
+  </si>
+  <si>
+    <t>33414-ATE-I</t>
+  </si>
+  <si>
+    <t>33416-ATE-I</t>
+  </si>
+  <si>
+    <t>33418-ATE-I</t>
+  </si>
+  <si>
+    <t>33499-ATE-I</t>
+  </si>
+  <si>
+    <t>33501-ATE-I</t>
+  </si>
+  <si>
+    <t>33503-ATE-I</t>
+  </si>
+  <si>
+    <t>33506-ATE-I</t>
+  </si>
+  <si>
+    <t>33507-ATE-I</t>
+  </si>
+  <si>
+    <t>33508-ATE-I</t>
+  </si>
+  <si>
+    <t>33510-ATE-I</t>
+  </si>
+  <si>
+    <t>33511-ATE-I</t>
+  </si>
+  <si>
+    <t>33512-ATE-I</t>
+  </si>
+  <si>
+    <t>33514-ATE-I</t>
+  </si>
+  <si>
+    <t>33515-ATE-I</t>
+  </si>
+  <si>
+    <t>33516-ATE-I</t>
+  </si>
+  <si>
+    <t>33517-ATE-I</t>
+  </si>
+  <si>
+    <t>33525-ATE-I</t>
+  </si>
+  <si>
+    <t>33529-ATE-I</t>
+  </si>
+  <si>
+    <t>33532-ATE-I</t>
+  </si>
+  <si>
+    <t>33533-ATE-I</t>
+  </si>
+  <si>
+    <t>33534-ATE-I</t>
+  </si>
+  <si>
+    <t>33535-ATE-I</t>
+  </si>
+  <si>
+    <t>33536-ATE-I</t>
+  </si>
+  <si>
+    <t>33537-ATE-I</t>
+  </si>
+  <si>
+    <t>33538-ATE-I</t>
+  </si>
+  <si>
+    <t>33543-ATE-I</t>
+  </si>
+  <si>
+    <t>33560-ATE-I</t>
+  </si>
+  <si>
+    <t>33563-ATE-I</t>
+  </si>
+  <si>
+    <t>33567-ATE-I</t>
+  </si>
+  <si>
+    <t>33568-ATE-I</t>
+  </si>
+  <si>
+    <t>33575-ATE-I</t>
+  </si>
+  <si>
+    <t>33590-ATE-I</t>
+  </si>
+  <si>
+    <t>33595-ATE-I</t>
+  </si>
+  <si>
+    <t>33600-ATE-I</t>
+  </si>
+  <si>
+    <t>33615-ATE-I</t>
+  </si>
+  <si>
+    <t>33625-ATE-I</t>
+  </si>
+  <si>
+    <t>33630-ATE-I</t>
+  </si>
+  <si>
+    <t>33640-ATE-I</t>
+  </si>
+  <si>
+    <t>33641-ATE-I</t>
+  </si>
+  <si>
+    <t>33642-ATE-I</t>
+  </si>
+  <si>
+    <t>33652-ATE-I</t>
+  </si>
+  <si>
+    <t>33654-ATE-I</t>
+  </si>
+  <si>
+    <t>33655-ATE-I</t>
+  </si>
+  <si>
+    <t>33656-ATE-I</t>
+  </si>
+  <si>
+    <t>33660-ATE-I</t>
+  </si>
+  <si>
+    <t>33662-ATE-I</t>
+  </si>
+  <si>
+    <t>33665-ATE-I</t>
+  </si>
+  <si>
+    <t>33666-ATE-I</t>
+  </si>
+  <si>
+    <t>33668-ATE-I</t>
+  </si>
+  <si>
+    <t>33676-ATE-I</t>
+  </si>
+  <si>
+    <t>33679-ATE-I</t>
+  </si>
+  <si>
+    <t>33683-ATE-I</t>
+  </si>
+  <si>
+    <t>33684-ATE-I</t>
+  </si>
+  <si>
+    <t>33686-ATE-I</t>
+  </si>
+  <si>
+    <t>33687-ATE-I</t>
+  </si>
+  <si>
+    <t>33689-ATE-I</t>
+  </si>
+  <si>
+    <t>33690-ATE-I</t>
+  </si>
+  <si>
+    <t>33691-ATE-I</t>
+  </si>
+  <si>
+    <t>33717-SYN-I</t>
+  </si>
+  <si>
+    <t>33723-SYN-I</t>
+  </si>
+  <si>
+    <t>33738-SYN-I</t>
+  </si>
+  <si>
+    <t>33758-SYN-I</t>
+  </si>
+  <si>
+    <t>33760-SYN-I</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE BEGE 1000W 127V</t>
+  </si>
+  <si>
+    <t>PROJETOR BOOM3 1080P LED BT PRETO</t>
+  </si>
+  <si>
+    <t>PLACA AUDIO SOUND BLASTER AE-7 + CONTROL</t>
+  </si>
+  <si>
+    <t>CARTEIRA CRIPTO NANO S PLUS USB PRETA</t>
+  </si>
+  <si>
+    <t>PROJETOR BOOM3 1080P LED BT DOURADO</t>
+  </si>
+  <si>
+    <t>PLACA AUDIO SOUND BLASTER Z SE</t>
+  </si>
+  <si>
+    <t>CARTEIRA CRIPTO FLEX USB/BT/NFC GRAFITE</t>
+  </si>
+  <si>
+    <t>CONTROLADOR AUDIO SOUND BLASTER GC7</t>
+  </si>
+  <si>
+    <t>CARTEIRA CRIPTO FLEX USB/BT/NFC LARANJA</t>
+  </si>
+  <si>
+    <t>CONTROLADOR AUDIO SOUND BLASTER G3</t>
+  </si>
+  <si>
+    <t>CARTEIRA CRIPTO STAX USB/BT/NFC GRAFITE</t>
+  </si>
+  <si>
+    <t>CONTROLADOR AUDIO SOUND BLASTER PLAY4</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE BEGE 1000W 220V</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM 8W PEBBLE PLUS</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM 4,4W PEBBLE PRETO</t>
+  </si>
+  <si>
+    <t>CAPA P/ CARTEIRA CRIPTO FLEX CINZA CORP</t>
+  </si>
+  <si>
+    <t>CAPA P/ CARTEIRA CRIPTO FLEX AMETISTA MA</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE AZUL 1000W 127V</t>
+  </si>
+  <si>
+    <t>CAPA P/ CARTEIRA CRIPTO NANO S PLUS PRET</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE AZUL 1000W 220V</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL AT-LPW40WN</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE BEGE 127V 85W</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE BEGE 220V 85W</t>
+  </si>
+  <si>
+    <t>FONE OUVIDO SEM FIO ATH-SR30BTGY CINZA</t>
+  </si>
+  <si>
+    <t>TOCA DISCO C/ ACIONAMENTO DIRETO AT-LP5X</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOIDE CONDENSER – AT2050</t>
+  </si>
+  <si>
+    <t>MICROFONE AT2040</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE AZUL 127V 85W</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE AZUL 220V 85W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE BEGE 127V 1500W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE BEGE 220V 1850W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE AZUL 127V 1500W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE AZUL 220V 1850W</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE BEGE 750W 127V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE BEGE 750W 220V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE AZUL 750W 127V</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM FECHADA X1C C/ AMS</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM FECHADA X1C</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE AZUL 750W 220V</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM FECHADA P1S</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM ABERTA A1 C/ AMS LITE</t>
+  </si>
+  <si>
+    <t>IMP 3D FDM ABERTA A1 MINI C/ AMS LITE</t>
+  </si>
+  <si>
+    <t>MIXER MULTIFUNCIONAL 7 em 1 300W 127V</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM ABERTA A1 MINI</t>
+  </si>
+  <si>
+    <t>MIXER MULTIFUNCIONAL 7 em 1 800W 220V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR MULTIFUNÇÃO 2L 1400W 127V</t>
+  </si>
+  <si>
+    <t>FORNO PIZZA ELETRICO VERMELHO 1200W 127V</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUT BT AT-LP60XBT-BK-C</t>
+  </si>
+  <si>
+    <t>FORNO PIZZA ELETRICO VERMELHO 1200W 220V</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA ELETRICO PRETO 1200W 127V</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA ELETRICO PRETO 1200W 220V</t>
+  </si>
+  <si>
+    <t>SANDUICHEIRA PARTY TIME VERM 700W 127V</t>
+  </si>
+  <si>
+    <t>SANDUICHEIRA PARTY TIME VERM 700W 220V</t>
+  </si>
+  <si>
+    <t>MAQ WAFFLE PARTY TIME VERM 700W 127V</t>
+  </si>
+  <si>
+    <t>MAQ WAFFLE PARTY TIME VERM 700W 220V</t>
+  </si>
+  <si>
+    <t>KIT COPOS LATTE MACCHIATO</t>
+  </si>
+  <si>
+    <t>PIPOQUEIRA PARTY TIME VERM 1100W 127V</t>
+  </si>
+  <si>
+    <t>PIPOQUEIRA PARTY TIME VERM 1100W 220V</t>
+  </si>
+  <si>
+    <t>FRITADEIRA AIRFRYER 4,5Lx2 2100W 220V</t>
+  </si>
+  <si>
+    <t>DESIDRATADOR DE ALIMENTOS 245W 127V</t>
+  </si>
+  <si>
+    <t>DESIDRATADOR DE ALIMENTOS 245W 220V</t>
+  </si>
+  <si>
+    <t>PANELA A VAPOR ELETRICA 9L 800W 127V</t>
+  </si>
+  <si>
+    <t>MOEDOR ELETRICO AÇO INOX 150W 127V</t>
+  </si>
+  <si>
+    <t>MOEDOR ELETRICO AÇO INOX 150W 220V</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL ESPRESSO METAL 127V</t>
+  </si>
+  <si>
+    <t>RALADOR DE QUEIJO ELETRICO GRATI BIVOLT</t>
+  </si>
+  <si>
+    <t>IOGURTEIRA COMPACTA 1L 20W 127V</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MAN ESPRESSO LATTE 220V 1350W</t>
+  </si>
+  <si>
+    <t>MAQ CAFE ESPRESSO MAN LATTE 127V 1350W</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE VERDE 127V 85W</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO VINTAGE VERDE 220V 85W</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE VERDE 1000W 220V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR VINTAGE VERDE 1000W 127V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE VERDE 750W 127V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR VINTAGE VERDE 750W 220V</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE VERDE 127V 1500W</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA DUPLO ELET VRM 2100W 220V</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL MODERNA VERMELHA 220V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR MODERNA VERMEL 1000W 220V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR MODERNA VERME 750W 220V</t>
+  </si>
+  <si>
+    <t>GRILL ELET PARTY TIME VERM 1200W 220V</t>
+  </si>
+  <si>
+    <t>MAQ CREPE PARTY TIME VERM 1000W 220V</t>
+  </si>
+  <si>
+    <t>SORVETEIRA PARTY TIME VERMELHA 12W 220V</t>
+  </si>
+  <si>
+    <t>FOGAO POR INDUÇAO 3500W 220V 2 BOCAS</t>
+  </si>
+  <si>
+    <t>PANELA A VAPOR ELETRICA 9L 800W 220V</t>
+  </si>
+  <si>
+    <t>GRILL ELET PARTY TIME VERM 1200W 127V</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE VERDE 250W 127V</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE BEGE 250W 127V</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE BEGE 400W 220V</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE AZUL 400W 220V</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE AZUL 250W 127V</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA DUPLO ELET VRM 1800W 127V</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA DUPLO ELET PRT 1800W 127V</t>
+  </si>
+  <si>
+    <t>FORNO DE PIZZA DUPLO ELET PRT 2100W 220V</t>
+  </si>
+  <si>
+    <t>SORVETEIRA PARTY TIME VERMELHA 12W 127V</t>
+  </si>
+  <si>
+    <t>BATEDEIRA VINTAGE VERDE 600W 127V</t>
+  </si>
+  <si>
+    <t>BATEDEIRA VINTAGE VERDE 600W 220V</t>
+  </si>
+  <si>
+    <t>FOGAO POR INDUÇAO 1800W 127V 2 BOCAS</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET MODERNA VRM 220V 1850W</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL MODERNA VERMELHA 127V</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL MODERNA PRETA 127V</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL MODERNA PRETA 220V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR MODERNA VERME 750W 127V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR MODERNA PRETA 750W 127V</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR MODERNA PRETA 750W 220V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR MODERNA VERMEL 1000W 127V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR MODERNA PRETO 1000W 220V</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR MODERNA PRETO 1000W 127V</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET MODERNA VRM 127V 1500W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET MODERNA PRETA 220V 1850W</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET MODERNA PRETA 127V 1500W</t>
+  </si>
+  <si>
+    <t>MAQ CREPE PARTY TIME VERM 1000W 127V</t>
+  </si>
+  <si>
+    <t>FORNO AIRFRYER VTG VERDE 16L 1200W 127V</t>
+  </si>
+  <si>
+    <t>FORNO AIRFRYER VTG AZUL 16L 1200W 220V</t>
+  </si>
+  <si>
+    <t>FORNO AIRFRYER VTG AZUL 16L 1200W 127V</t>
+  </si>
+  <si>
+    <t>FRITADEIRA AIRFRYER 4,5Lx2 1700W 127V</t>
+  </si>
+  <si>
+    <t>KIT COPOS CAPPUCCINO</t>
+  </si>
+  <si>
+    <t>SET DLSC301 6GLASSES-CAPPUCCINO 190ML DL</t>
+  </si>
+  <si>
+    <t>SET SUGARCREAMER A1SX005 DL</t>
+  </si>
+  <si>
+    <t>SET DLSC302 6GLASSES-MIX(60/190/220ML)DL</t>
+  </si>
+  <si>
+    <t>KIT COPOS ESPRESSO</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ AUTOMATICA 220V ECAM 22.110 B</t>
+  </si>
+  <si>
+    <t>MOCH KROSS ECONOMY 15.4" KE-BPL01</t>
+  </si>
+  <si>
+    <t>CABO HDMI KROSS 1,8MT KE-CH418</t>
+  </si>
+  <si>
+    <t>CABO HDMI PRO KROSS 3,0M KE-CHM43</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ AUTOMATICA 127V ECAM 22.110 B</t>
+  </si>
+  <si>
+    <t>TECLADO C/FIO USB MULTIM PRETO KE-K106</t>
+  </si>
+  <si>
+    <t>TECLADO GAMER C/FIO MEC KE-KG130 BRANCO</t>
+  </si>
+  <si>
+    <t>MOUSE GAMER C/FIO 6 BOTÕES KE-MG120</t>
+  </si>
+  <si>
+    <t>IMSAO21061808670</t>
+  </si>
+  <si>
+    <t>MOUSE GAMER C/FIO 4 BOTÕES KE-MG105</t>
+  </si>
+  <si>
+    <t>MOUSE GAMER C/FIO 7 BOTÕES KE-MG200</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO GAMER C/MIC KE-HS098</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO GAMER C/MIC KE-HS200</t>
+  </si>
+  <si>
+    <t>MOUSE S/FIO RECARREGÁVEL SILENT KE-M315</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO C/MIC KE-HS050</t>
+  </si>
+  <si>
+    <t>MOUSE S/FIO USB KE-M218 VERMELHO</t>
+  </si>
+  <si>
+    <t>Combo Teclado e Mouse sem fio KE-KM558V1</t>
+  </si>
+  <si>
+    <t>Combo Teclado Mouse s/fio VM  KE-KM553V1</t>
+  </si>
+  <si>
+    <t>CADEIRA GAMER RECLINÁVEL PR/VM KE-GC100</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D SERMOON V1</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR PLA AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR PLA AMARELO FLUOR</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HP ULTRA PLA BRANCO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HP ULTRA PLA PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-ABS PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA BRANCO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HP ULTRA PLA VERM</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM FECHADA K1 MAX</t>
+  </si>
+  <si>
+    <t>GRAVADOR A LASER CR LASER FALCON 40W</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV HIGH PRECISION AZUL</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV HIGH PRECISION SKIN</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV FAST RESIN AZUL</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV FAST RESIN TRANSPARENT</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV FAST CINZA</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM ABERTA ENDER-3 V3 KE</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER ABS PRETO</t>
+  </si>
+  <si>
+    <t>GRAVADOR LASER CR-FALCON2 PRO 40W</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM ABERTA ENDER-3 V3</t>
+  </si>
+  <si>
+    <t>GRAVADOR LASER CR-FALCON2 PRO 60W</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM ABERTA ENDER 3 V3 PLUS</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER PLA PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER PLA CINZA</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER PLA VERMELHO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER PLA AMARELO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER+ PLA BRANCO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER+ PLA CINZA</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D ENDER+ PLA AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D BASF ULTRA PLA PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D BASF ULTRA PLA BRANC</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D BASF ULTRA PLA CINZA</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA BRC+PRT</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D EN-FAST PLA BRC+PRT</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D EN-FAST PLA BRC+BRC</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D EN-FAST PLA PRT+PRT</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA RAINBOW WS</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA RAINBOW</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA PRATA</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA DOU/VERM</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA AZL/VERD</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA DOU/PRAT</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA ROSA/ROX</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-SILK PLA AMR/AZL</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV WASHABLE SKIN</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV WASHABLE PRETO</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD BRANCO</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD VERDE TRANSPA</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD AZUL TRANSPA</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD VERM TRANSPA</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD CINZA</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD PRETO</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD SKIN</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV STANDARD TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>RESINA DE CURA UV HIGH PRECISION CINZA E</t>
+  </si>
+  <si>
+    <t>SECADOR FILAMENTOS SPICE PI DRYER</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PLA RAINBOW</t>
+  </si>
+  <si>
+    <t>GABINETE H510I COMPACT MID-TOWER PRETO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-TPU VERDE</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-TPU VERMELHO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-TPU AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D FAST PLA AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA AZUL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA VERMELHO</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA VIOLETA</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA DOURADO</t>
+  </si>
+  <si>
+    <t>SECADOR FILAMENTOS SPACE PI DRYER PLUS</t>
+  </si>
+  <si>
+    <t>IMPRESSORA 3D FDM FECHADA K2 PLUS C/ CFS</t>
+  </si>
+  <si>
+    <t>SECADOR FILAMENTOS SPACE PI DRYER</t>
+  </si>
+  <si>
+    <t>GRAVADOR LASER CR-FALCON A1 10W</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA VRM+AZL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PLA CNZ+CNZ</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PETG  PRT+BRC</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PETG  TRP+TRP</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D HYPER PETG  VRM+AZL</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PETG  PRT+BRC</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PETG  PRT+PRT</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PETG  BRC+BRC</t>
+  </si>
+  <si>
+    <t>GABINETE H71BW MID-TOWER BRANCO</t>
+  </si>
+  <si>
+    <t>GABINETE H71EW ELITE MID-TOWER BRANCO</t>
+  </si>
+  <si>
+    <t>GABINETE H91EW ELITE MID-TOWER BRANCO</t>
+  </si>
+  <si>
+    <t>GABINETE H61FB FLOW RGB MID-TOWER BRANCO</t>
+  </si>
+  <si>
+    <t>GABINETE H7 FLOW MID-TOWER BRANCO</t>
+  </si>
+  <si>
+    <t>WATER COOLER KR280 280MM C/RGB PRETO</t>
+  </si>
+  <si>
+    <t>WATER COOLER KR28E 280MM C/RGB PRETO</t>
+  </si>
+  <si>
+    <t>WATER COOLER KR28E 280MM C/RGB BRANCO</t>
+  </si>
+  <si>
+    <t>ADAPTADOR USB X P2 3.5MM ATR2USB</t>
+  </si>
+  <si>
+    <t>AGULHA ELIPTICA ATN95E P/ TOCA DISCOS</t>
+  </si>
+  <si>
+    <t>FONE COM MIC IN EAR ATH-SPORT1ISBK</t>
+  </si>
+  <si>
+    <t>FONE COM MIC IN EAR ATH-SPORT1ISRD</t>
+  </si>
+  <si>
+    <t>FONE COM MIC ATH-CLR100ISBK PRETO</t>
+  </si>
+  <si>
+    <t>FONE COM MIC IN EAR BLUE ATH-CLR100ISBL</t>
+  </si>
+  <si>
+    <t>FONE COM MIC IN EAR NA/YE ATH-SPORT1ISNY</t>
+  </si>
+  <si>
+    <t>FONE C/ MIC IN-EAR BRANCO ATH-CLR100ISWH</t>
+  </si>
+  <si>
+    <t>AGULHA CONICA BRANCO PARA TOCA DISCOS</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP60X-BK-C</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP60X-GM-C</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL AT-LP120XUSB-BK-C</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL AT-LP120XUSB-SV-C</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL BT AT-LP1240-USBXP</t>
+  </si>
+  <si>
+    <t>MICROFONE ATR2500X-USB</t>
+  </si>
+  <si>
+    <t>MICROFONE LAPELA ATR3350XIS</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL BT AT-LP120XBT-USB-BK</t>
+  </si>
+  <si>
+    <t>MICROFONE DYNAMIC XLR PRO41</t>
+  </si>
+  <si>
+    <t>MICROFONE CONSUMER DYNAMIC ATR1100X</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO WIRELESS ATH-S220BTBK</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO WIRELESS ATH-S220BTNBG</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO WIRELESS ATH-S220BTWH</t>
+  </si>
+  <si>
+    <t>FONE COM MIC ATH-101USB PRETO</t>
+  </si>
+  <si>
+    <t>FONE COM MIC ATH-102USB PRETO</t>
+  </si>
+  <si>
+    <t>CABEÇOTE UNIVERSAL PARA TOCA DISCOS</t>
+  </si>
+  <si>
+    <t>CABEÇOTE UNIVERSAL TOCA DISCOS AT-HS6SV</t>
+  </si>
+  <si>
+    <t>CAPSULA C/ AGULHA ELIPTICA P/ TOCA DISCO</t>
+  </si>
+  <si>
+    <t>AGULHA DE REPOSIÇÃO VMN20EB</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOIDE CONDENSER AT2005USB</t>
+  </si>
+  <si>
+    <t>CAPSULA IMA MOVIMENTO DUPLO VM530EN</t>
+  </si>
+  <si>
+    <t>CAPSULA IMA MOVIMENTO DUPLO VM510CB</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO GAMER ATH-GDL3BK</t>
+  </si>
+  <si>
+    <t>SUPORTE ANTICHOQUE PARA MICROFONE AT8455</t>
+  </si>
+  <si>
+    <t>MICROFONE CONDENSADOR ATM350D</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO GAMER ATH-GL3WH</t>
+  </si>
+  <si>
+    <t>KIT PODCAST MIC+FONE – AT2005USBPK</t>
+  </si>
+  <si>
+    <t>MICROFONE AT2020</t>
+  </si>
+  <si>
+    <t>FONE ATH-M20X PRETO</t>
+  </si>
+  <si>
+    <t>FONE ATH-M30X PRETO</t>
+  </si>
+  <si>
+    <t>FONE ATH-M40X PRETO</t>
+  </si>
+  <si>
+    <t>FONE ATH-M50X PRETO</t>
+  </si>
+  <si>
+    <t>FONE ATH-M60X PRETO</t>
+  </si>
+  <si>
+    <t>FONE ATH-M70X PRETO</t>
+  </si>
+  <si>
+    <t>MICROFONE LAPELA/BAIXO PERF ATR4650-USB</t>
+  </si>
+  <si>
+    <t>Agulha Toca-Discos cônica ATN-XP3</t>
+  </si>
+  <si>
+    <t>AGULHA ELIPTICA AT-VMN95E P/ TOCA DISCOS</t>
+  </si>
+  <si>
+    <t>FONE ATH-MSR7BBK PRETO</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO AUDIÓFILO ATH-AD700X</t>
+  </si>
+  <si>
+    <t>FONE ATH-AD500X PRETO</t>
+  </si>
+  <si>
+    <t>CABEÇOTE UNIVERSAL AT-HS6BK PRETO</t>
+  </si>
+  <si>
+    <t>AGULHA DE REPOSIÇÃO VMN10CB AZUL</t>
+  </si>
+  <si>
+    <t>BODY-PACK SEM FIO SYSTEM 10 ATW-1101</t>
+  </si>
+  <si>
+    <t>PACK PODCAST MIC+FONE – AT2035PK</t>
+  </si>
+  <si>
+    <t>CAPSULA C/ IMA MOVIMENTO DUPLO AT-VM95EN</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS MANUAL AT-LPW30BKR</t>
+  </si>
+  <si>
+    <t>MICROFONE BP40</t>
+  </si>
+  <si>
+    <t>MICROFONE AT4040</t>
+  </si>
+  <si>
+    <t>FONE ATH-AVC200 PRETO</t>
+  </si>
+  <si>
+    <t>MICROFONE ATR1200X</t>
+  </si>
+  <si>
+    <t>FONE ATH-AVC400 PRETO</t>
+  </si>
+  <si>
+    <t>CAPSULA IMA MOVIMENTO DUPLO VM540ML</t>
+  </si>
+  <si>
+    <t>AGULHA TOCA-DISCOS CÔNICA AMARELA ATN91</t>
+  </si>
+  <si>
+    <t>AGULHA TOCA-DISCOS ELÍPTICA ATN95EX</t>
+  </si>
+  <si>
+    <t>AGULHA TOCA-DISCOS CÔNICA AZUL AT-VMN95C</t>
+  </si>
+  <si>
+    <t>FONE ATH-R70X PRETO</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOIDE CONDENSER – AT4033A</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOID CONDENSER – AT4047/SV</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOIDE CONDENSER – AT4047MP</t>
+  </si>
+  <si>
+    <t>FONE SEM FIO ATH-M20XBT PRETO</t>
+  </si>
+  <si>
+    <t>BODY-PACK SEM FIO SERIE 3000 ATW-3255DF2</t>
+  </si>
+  <si>
+    <t>PACK PODCAST MIC+FONE– AT2020USB+PK</t>
+  </si>
+  <si>
+    <t>CONJUNTO PODCAST FONE+MIC AT2035PK</t>
+  </si>
+  <si>
+    <t>MICROFONE AE6100</t>
+  </si>
+  <si>
+    <t>MICROFONE ATM710</t>
+  </si>
+  <si>
+    <t>MICROFONE ATM510</t>
+  </si>
+  <si>
+    <t>MICROFONE ATM610A</t>
+  </si>
+  <si>
+    <t>MICROFONE ATM650</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE MICROFONES ATM-DRUM4</t>
+  </si>
+  <si>
+    <t>MICROFONE CARDIOIDE DINAMICO – ATM450</t>
+  </si>
+  <si>
+    <t>BODY-PACK SEM FIO SERIE 3000 ATW-3212/C5</t>
+  </si>
+  <si>
+    <t>MICROFONE UNIDIRECAO DINAMICO – ATR1300X</t>
+  </si>
+  <si>
+    <t>MICROFONE UNIDIRECAO DINAMICO – ATR1500X</t>
+  </si>
+  <si>
+    <t>FONE ATH-AD900X PRETO</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP60X-BW-C</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO IN-EAR MONITOR ATH-E40</t>
+  </si>
+  <si>
+    <t>SUPORTE DE CHOQUE P/ MICROFONE AT8458A</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS PORTATIL BT AT-SB727-WH</t>
+  </si>
+  <si>
+    <t>FONE COM MIC ATH-M50XSTS PRETO</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP60XBT-WW</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUT BT AT-LP60XBT-SV-C</t>
+  </si>
+  <si>
+    <t>BODY-PACK SEM FIO SYSTEM 10 ATW-1102</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM BT PORTATIL 12W AT-SP65XBT</t>
+  </si>
+  <si>
+    <t>FONE SEM FIO ATH-M50XBT2 PRETO</t>
+  </si>
+  <si>
+    <t>MICROFONE AE5400</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS PORTATIL BT AT-SB727-BK</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS PORTATIL BT AT-SB727-YL</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUT BT AT-LP60XBT-RD-C</t>
+  </si>
+  <si>
+    <t>MICROFONE AE4100</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP70X-BG-C</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUT BT AT-LP70XBT-BZ-C</t>
+  </si>
+  <si>
+    <t>FONE ATH-S120C-BK  PRETO</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS SEMIAUTOMATICO AT-LP8X</t>
+  </si>
+  <si>
+    <t>KIT CARREGADOR 12VDC 3A 4,9W 2 BAIAS</t>
+  </si>
+  <si>
+    <t>MICROFONE PARA INSTRUMENTOS ATM350UL</t>
+  </si>
+  <si>
+    <t>MICROFONE BP892XCH-TH BEGE</t>
+  </si>
+  <si>
+    <t>MICROFONE CAPSULA ATW-C5400</t>
+  </si>
+  <si>
+    <t>CONJUNTO BODY-PACK SEM FIO ATW-3211DE2</t>
+  </si>
+  <si>
+    <t>CABO DE AUDIO P10 4P AT-GCH</t>
+  </si>
+  <si>
+    <t>CABO DE AUDIO P10 4P AT-GCH PRO</t>
+  </si>
+  <si>
+    <t>NAS DISKSTATION DS423+ 4 BAIAS</t>
+  </si>
+  <si>
+    <t>KIT TRILHOS PARA RACK RKS-02</t>
+  </si>
+  <si>
+    <t>NAS DISKSTATION DS423 4 BAIAS</t>
+  </si>
+  <si>
+    <t>NAS RACKSTATION RS1221RP+ 8 BAIAS</t>
+  </si>
+  <si>
+    <t>NAS RACKSTATION SA3410 12 BAIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +2125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,13 +2133,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,36 +2515,3765 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8003705121690</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6976058150704</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5390660192418</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3760027782101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6976058150865</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4580181853047</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3760027784259</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5390660194450</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3760027784297</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5390660192968</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3760027782606</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5390660194375</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8003705119369</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5390660192456</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5390660192029</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3760027784303</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3760027784310</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8003705121706</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3760027782408</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8003705119383</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4961310146160</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8003705121720</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>8003705118133</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4961310146894</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4961310151522</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6940548419640</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4961310155940</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8003705121737</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8003705118157</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8003705121669</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8003705115163</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8003705121676</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8003705115187</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8003705121645</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3">
+        <v>8003705114906</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>8003705121652</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6975337030980</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6975337030515</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8003705114920</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6975337033134</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6977252425391</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6975337034162</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3">
+        <v>8003705121775</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6975337036173</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8003705120112</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3">
+        <v>8003705121683</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8003705121584</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="3">
+        <v>42005206957</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="3">
+        <v>8003705116702</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8003705121591</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8003705120679</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8003705121744</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3">
+        <v>8003705119741</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3">
+        <v>8003705121751</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3">
+        <v>8003705119024</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3">
+        <v>8004399324794</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8003705121812</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3">
+        <v>8003705119291</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="3">
+        <v>8003705121386</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8003705121768</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="3">
+        <v>8003705117501</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="3">
+        <v>8003705121782</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="3">
+        <v>8003705121805</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="3">
+        <v>8003705115118</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8003705122147</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3">
+        <v>8003705115231</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3">
+        <v>8003705121713</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="3">
+        <v>8003705122369</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3">
+        <v>8003705122352</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="3">
+        <v>8003705123014</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="3">
+        <v>8003705118140</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>7890000000028</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7890000000035</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7890000000011</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="B73" s="3">
+        <v>8003705119376</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3">
+        <v>8243705123021</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="3">
+        <v>8003705123007</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3">
+        <v>8003705114913</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3">
+        <v>8003705122994</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
+        <v>8003705121638</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8003705122284</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3">
+        <v>8003705120716</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3">
+        <v>8003705117976</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="3">
+        <v>8003705121317</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="3">
+        <v>8003705119017</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="3">
+        <v>8003705121287</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8003705122673</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="3">
+        <v>8003705116788</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="3">
+        <v>8003705123359</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="3">
+        <v>8003705123458</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="3">
+        <v>8003705123441</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="3">
+        <v>8003705120082</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8003705120105</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="3">
+        <v>8003705123465</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8003705123366</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="3">
+        <v>8003705123373</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="3">
+        <v>8003705122031</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8003705123472</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="3">
+        <v>8003705123496</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="3">
+        <v>8003705116009</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="3">
+        <v>8003705123434</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="3">
+        <v>8003705117945</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="3">
+        <v>8003705123540</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="3">
+        <v>8003705123618</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="3">
+        <v>8003705122291</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="3">
+        <v>8003705123861</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8003705123878</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="3">
+        <v>8003705118980</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="3">
+        <v>8003705123519</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3">
+        <v>8003705120730</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="3">
+        <v>8003705123625</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="3">
+        <v>8003705123533</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="3">
+        <v>8003705119000</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="3">
+        <v>8003705123601</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="3">
+        <v>8003705123342</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="3">
+        <v>8003705123397</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="3">
+        <v>8003705122451</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="3">
+        <v>8003705123403</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="3">
+        <v>8003705121386</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="3">
+        <v>8003705122017</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="3">
+        <v>8004399324893</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="3">
+        <v>8004399324794</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="3">
+        <v>8004399321847</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="3">
+        <v>8004399321847</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="3">
+        <v>8004399324787</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="3">
+        <v>8004399325050</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="3">
+        <v>7899980101158</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="3">
+        <v>7899980100151</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="3">
+        <v>7899980100175</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="3">
+        <v>8004399331051</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="3">
+        <v>7899980100854</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="3">
+        <v>7899980101066</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="3">
+        <v>7899980100915</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="3">
+        <v>7899980101455</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="3">
+        <v>7899980101776</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="3">
+        <v>7899980101806</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="3">
+        <v>7899980101738</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="3">
+        <v>7899980101769</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="3">
+        <v>7899980101714</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7899980101677</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="3">
+        <v>7899980101684</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="3">
+        <v>7899980101943</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="3">
+        <v>6971636401490</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="3">
+        <v>6971636408017</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="3">
+        <v>6971636408185</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="3">
+        <v>6971636402855</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="3">
+        <v>6971636402671</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="3">
+        <v>6971636408154</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="3">
+        <v>6971636408406</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="3">
+        <v>6971636408161</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="3">
+        <v>6971636402916</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="3">
+        <v>6971636403128</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6971636403425</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="3">
+        <v>6971636403449</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="3">
+        <v>6971636403456</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="3">
+        <v>6971636404637</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6971636404569</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="3">
+        <v>6971636404699</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="3">
+        <v>6971636404170</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="3">
+        <v>6971636403579</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6971636400981</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="3">
+        <v>6971636403296</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="3">
+        <v>6971636402923</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="3">
+        <v>6971636402701</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="3">
+        <v>6971636403142</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="3">
+        <v>6971636403388</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="3">
+        <v>6971636403487</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="3">
+        <v>6971636403418</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="3">
+        <v>6971636403043</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="3">
+        <v>6971636403180</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="3">
+        <v>6971636403241</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="3">
+        <v>6971636405627</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="3">
+        <v>6971636405801</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="3">
+        <v>6971636401797</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="3">
+        <v>6971636402954</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="3">
+        <v>6971636403678</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6971636403111</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6971636403005</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="3">
+        <v>6971636403104</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="3">
+        <v>6971636403654</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="3">
+        <v>6971636405832</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="3">
+        <v>6971636408901</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="3">
+        <v>6971636405733</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="3">
+        <v>6971636405382</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="3">
+        <v>6971636405481</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="3">
+        <v>6971636405559</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="3">
+        <v>6971636405504</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="3">
+        <v>6971636403920</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="3">
+        <v>6971636403210</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="3">
+        <v>6971636402152</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="3">
+        <v>6971636402084</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="3">
+        <v>6971636402060</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="3">
+        <v>6971636402077</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="3">
+        <v>6971636402206</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="3">
+        <v>6971636402114</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="3">
+        <v>6971636402121</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="3">
+        <v>6971636402107</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="3">
+        <v>6971636404590</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="3">
+        <v>6971636401698</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="3">
+        <v>6971636405474</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5060301695010</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="3">
+        <v>6971636408499</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="3">
+        <v>6971636407331</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="3">
+        <v>6971636407621</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" s="3">
+        <v>6971636404293</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="3">
+        <v>6971636402633</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="3">
+        <v>6971636403081</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="3">
+        <v>6971636402527</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" s="3">
+        <v>6971636403166</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="3">
+        <v>6977905740109</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="3">
+        <v>6971636405719</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="3">
+        <v>6977905740093</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="3">
+        <v>6977905740116</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="3">
+        <v>6977905741021</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="3">
+        <v>6977905741014</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="3">
+        <v>6977905741069</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="3">
+        <v>6977905741076</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="3">
+        <v>6977905741083</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="3">
+        <v>6977905741052</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="3">
+        <v>6977905741038</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" s="3">
+        <v>6977905741045</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="3">
+        <v>5056547205519</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5060301697021</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="3">
+        <v>5056547202440</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="3">
+        <v>5056547204062</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="3">
+        <v>5056547205519</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5056547202686</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" s="3">
+        <v>5056547202273</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="3">
+        <v>5056547202266</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="3">
+        <v>42005175604</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4961310157364</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="3">
+        <v>4961310128548</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4961310128579</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="3">
+        <v>4961310133597</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="3">
+        <v>4961310133603</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4961310128555</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4961310133634</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4961310157302</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="3">
+        <v>42005206988</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="3">
+        <v>42005206971</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" s="3">
+        <v>42005207015</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="3">
+        <v>420052070088</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" s="3">
+        <v>4961310143725</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="3">
+        <v>42005204892</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" s="3">
+        <v>42005204922</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" s="3">
+        <v>42005208272</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" s="3">
+        <v>42005134311</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" s="3">
+        <v>42005204823</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="3">
+        <v>4961310156497</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="3">
+        <v>4961310156510</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="3">
+        <v>4961310156527</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="3">
+        <v>4961310156992</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="3">
+        <v>4961310156985</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="3">
+        <v>42005166312</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" s="3">
+        <v>4961310147075</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="3">
+        <v>4961310157319</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="3">
+        <v>4961310137663</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="3">
+        <v>42005175154</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="3">
+        <v>4961310137557</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="3">
+        <v>4961310137533</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4961310158170</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="3">
+        <v>4961310156169</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="3">
+        <v>4961310136765</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="3">
+        <v>4961310156978</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="3">
+        <v>42005197088</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="3">
+        <v>4961310081348</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="3">
+        <v>4961310125400</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="3">
+        <v>4961310125417</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="3">
+        <v>4961310125424</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4961310125431</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="3">
+        <v>4961310144333</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" s="3">
+        <v>4961310125462</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" s="3">
+        <v>42005204953</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="3">
+        <v>4961310145620</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" s="3">
+        <v>4961310157357</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="3">
+        <v>4961310146627</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="3">
+        <v>4961310118617</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="3">
+        <v>4961310118631</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="3">
+        <v>4961310147068</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" s="3">
+        <v>4961310137656</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4961310116323</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="3">
+        <v>42005197118</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" s="3">
+        <v>4961310146009</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="3">
+        <v>4961310158491</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="3">
+        <v>4961310130770</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="3">
+        <v>4961310137793</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="3">
+        <v>4961310132750</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="3">
+        <v>42005204830</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="3">
+        <v>4961310132767</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="3">
+        <v>4961310137564</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="3">
+        <v>4961310157418</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="3">
+        <v>4961310135171</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="3">
+        <v>4961310158095</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="3">
+        <v>4961310130954</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="3">
+        <v>4961310137816</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="3">
+        <v>4961310137854</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" s="3">
+        <v>4961310137830</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" s="3">
+        <v>4961310125400</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" s="3">
+        <v>4961310155858</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="3">
+        <v>42005197101</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" s="3">
+        <v>42005197118</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" s="3">
+        <v>4961310064211</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" s="3">
+        <v>4961310089054</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" s="3">
+        <v>4961310113438</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="3">
+        <v>4961310113445</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" s="3">
+        <v>4961310089023</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="3">
+        <v>42005197057</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="3">
+        <v>4961310089016</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" s="3">
+        <v>4961310143480</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" s="3">
+        <v>42005204847</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" s="3">
+        <v>42005204854</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" s="3">
+        <v>4961310118594</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" s="3">
+        <v>42005211227</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" s="3">
+        <v>240207931713</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" s="3">
+        <v>4961310153250</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" s="3">
+        <v>4961310160012</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" s="3">
+        <v>4961310159658</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" s="3">
+        <v>4961310154981</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" s="3">
+        <v>42005213429</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" s="3">
+        <v>4961310116330</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" s="3">
+        <v>42005210619</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" s="3">
+        <v>4961310156183</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="3">
+        <v>4961310088507</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" s="3">
+        <v>4961310160029</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" s="3">
+        <v>4961310160036</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" s="3">
+        <v>42005208258</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" s="3">
+        <v>4961310064228</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" s="3">
+        <v>4961310163440</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" s="3">
+        <v>4961310163501</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" s="3">
+        <v>4961310161934</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" s="3">
+        <v>4961310162009</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" s="3">
+        <v>4961310162542</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" s="3">
+        <v>42005214969</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" s="3">
+        <v>4961310136734</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" s="3">
+        <v>42005198993</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" s="3">
+        <v>4961310141776</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" s="3">
+        <v>4961310143428</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" s="3">
+        <v>42005196920</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" s="3">
+        <v>42005189830</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" s="3">
+        <v>846504005000</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" s="3">
+        <v>4711174724505</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" s="3">
+        <v>846504004911</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" s="3">
+        <v>846504003693</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" s="5">
+        <v>846504005024</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEDE3A-4924-4F22-A150-4FD65F450815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CA025-96DF-4FD9-A72D-0AD596D3DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2091,13 +2094,133 @@
   </si>
   <si>
     <t>NAS RACKSTATION SA3410 12 BAIAS</t>
+  </si>
+  <si>
+    <t>[C101949613101489663010</t>
+  </si>
+  <si>
+    <t>[C101949613101619373000020</t>
+  </si>
+  <si>
+    <t>[C101949613100642283000010</t>
+  </si>
+  <si>
+    <t>[C101949613101600393000004</t>
+  </si>
+  <si>
+    <t>[C101949613101600223000004</t>
+  </si>
+  <si>
+    <t>[C101949613100885073010</t>
+  </si>
+  <si>
+    <t>[C100000000010021416223</t>
+  </si>
+  <si>
+    <t>[C101949613101600153000004</t>
+  </si>
+  <si>
+    <t>[C101900420052067073000010</t>
+  </si>
+  <si>
+    <t>[C100000000010022348981</t>
+  </si>
+  <si>
+    <t>[C10120042005204858</t>
+  </si>
+  <si>
+    <t>[C10120042005204841</t>
+  </si>
+  <si>
+    <t>[C101949613101434833000005</t>
+  </si>
+  <si>
+    <t>[C10120042005175158</t>
+  </si>
+  <si>
+    <t>[C100000000010022656208</t>
+  </si>
+  <si>
+    <t>[C101949613101569853010</t>
+  </si>
+  <si>
+    <t>[C101949613101569923010</t>
+  </si>
+  <si>
+    <t>[C101949613101565273010</t>
+  </si>
+  <si>
+    <t>[C101949613101565103010</t>
+  </si>
+  <si>
+    <t>[C101949613101564973010</t>
+  </si>
+  <si>
+    <t>[C10110042005204820</t>
+  </si>
+  <si>
+    <t>[C10120042005134315</t>
+  </si>
+  <si>
+    <t>[C10120042005204926</t>
+  </si>
+  <si>
+    <t>[C10120042005204896</t>
+  </si>
+  <si>
+    <t>(01)94961310157305(30)00050</t>
+  </si>
+  <si>
+    <t>[C101900420051904953000020</t>
+  </si>
+  <si>
+    <t>[C117899980101452</t>
+  </si>
+  <si>
+    <t>[C117899980101445</t>
+  </si>
+  <si>
+    <t>[C127899980100858</t>
+  </si>
+  <si>
+    <t>10655-ARI-I</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET VINTAGE VERDE 220V 1850W</t>
+  </si>
+  <si>
+    <t>10259-ARI-I</t>
+  </si>
+  <si>
+    <t>[C100000000010023249249</t>
+  </si>
+  <si>
+    <t>[C102053906601924563702</t>
+  </si>
+  <si>
+    <t>[C102053906601943753710</t>
+  </si>
+  <si>
+    <t>[C102053906601944503705</t>
+  </si>
+  <si>
+    <t>[C102053906601939723710</t>
+  </si>
+  <si>
+    <t>[C102053906601924183705</t>
+  </si>
+  <si>
+    <t>DUM</t>
+  </si>
+  <si>
+    <t>REF. CAIXA QUANT.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,11 +2234,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2125,7 +2243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2134,35 +2252,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2170,22 +2264,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2490,32 +2583,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C343"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C343"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" customWidth="1"/>
+    <col min="1" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
@@ -2524,9 +2624,15 @@
       <c r="C2" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="3">
+        <v>48003705121698</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
@@ -2535,9 +2641,13 @@
       <c r="C3" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -2546,9 +2656,15 @@
       <c r="C4" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -2557,9 +2673,13 @@
       <c r="C5" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
@@ -2568,9 +2688,13 @@
       <c r="C6" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -2579,9 +2703,15 @@
       <c r="C7" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
@@ -2590,9 +2720,13 @@
       <c r="C8" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
@@ -2601,9 +2735,15 @@
       <c r="C9" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
@@ -2612,9 +2752,13 @@
       <c r="C10" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
@@ -2623,9 +2767,15 @@
       <c r="C11" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="3">
+        <v>4580181852811</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
@@ -2634,9 +2784,13 @@
       <c r="C12" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3">
@@ -2645,9 +2799,15 @@
       <c r="C13" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
@@ -2656,9 +2816,15 @@
       <c r="C14" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="3">
+        <v>48003705119367</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
@@ -2667,9 +2833,15 @@
       <c r="C15" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
@@ -2678,9 +2850,15 @@
       <c r="C16" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="3">
+        <v>2.05390660192029E+18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3">
@@ -2689,9 +2867,11 @@
       <c r="C17" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3">
@@ -2700,9 +2880,11 @@
       <c r="C18" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3">
@@ -2711,9 +2893,15 @@
       <c r="C19" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="3">
+        <v>48003705121704</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3">
@@ -2722,9 +2910,13 @@
       <c r="C20" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3">
@@ -2733,9 +2925,15 @@
       <c r="C21" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="3">
+        <v>48003705119381</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3">
@@ -2744,9 +2942,15 @@
       <c r="C22" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="3">
+        <v>42005204076</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3">
@@ -2755,9 +2959,15 @@
       <c r="C23" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="D23" s="3">
+        <v>28003705121724</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3">
@@ -2766,9 +2976,15 @@
       <c r="C24" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="3">
+        <v>28003705118137</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
@@ -2777,9 +2993,13 @@
       <c r="C25" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3">
@@ -2788,9 +3008,15 @@
       <c r="C26" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="3">
@@ -2799,9 +3025,15 @@
       <c r="C27" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="3">
+        <v>4961310101763</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3">
@@ -2810,9 +3042,15 @@
       <c r="C28" s="4" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="3">
+        <v>4961310155940</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="3">
@@ -2821,9 +3059,15 @@
       <c r="C29" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="3">
+        <v>28003705121731</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3">
@@ -2832,9 +3076,15 @@
       <c r="C30" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="3">
+        <v>28003705118151</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="3">
@@ -2843,9 +3093,15 @@
       <c r="C31" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="3">
+        <v>68003705121661</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="3">
@@ -2854,9 +3110,15 @@
       <c r="C32" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="3">
+        <v>68003705115165</v>
+      </c>
+      <c r="E32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="3">
@@ -2865,9 +3127,15 @@
       <c r="C33" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="3">
+        <v>68003705121678</v>
+      </c>
+      <c r="E33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3">
@@ -2876,9 +3144,15 @@
       <c r="C34" s="4" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="3">
+        <v>68003705115189</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="3">
@@ -2887,9 +3161,15 @@
       <c r="C35" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="3">
+        <v>48003705121643</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="3">
@@ -2898,9 +3178,15 @@
       <c r="C36" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="3">
+        <v>48003705114904</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="3">
@@ -2909,9 +3195,15 @@
       <c r="C37" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="3">
+        <v>48003705121650</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="3">
@@ -2920,9 +3212,13 @@
       <c r="C38" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3">
@@ -2931,9 +3227,13 @@
       <c r="C39" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3">
@@ -2942,9 +3242,15 @@
       <c r="C40" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="3">
+        <v>48003705114928</v>
+      </c>
+      <c r="E40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="3">
@@ -2953,9 +3259,13 @@
       <c r="C41" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="3">
@@ -2964,9 +3274,13 @@
       <c r="C42" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="3">
@@ -2975,9 +3289,13 @@
       <c r="C43" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="3">
@@ -2986,9 +3304,15 @@
       <c r="C44" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="D44" s="3">
+        <v>48003705121773</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="3">
@@ -2997,9 +3321,13 @@
       <c r="C45" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="3">
@@ -3008,9 +3336,15 @@
       <c r="C46" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="D46" s="3">
+        <v>48003705120110</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="3">
@@ -3019,9 +3353,15 @@
       <c r="C47" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="D47" s="3">
+        <v>8003705121683</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="3">
@@ -3030,9 +3370,15 @@
       <c r="C48" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="D48" s="3">
+        <v>28003705121588</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="3">
@@ -3041,9 +3387,15 @@
       <c r="C49" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="D49" s="3">
+        <v>42005206957</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="3">
@@ -3052,9 +3404,15 @@
       <c r="C50" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="D50" s="3">
+        <v>28003705116706</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="3">
@@ -3063,9 +3421,15 @@
       <c r="C51" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="D51" s="3">
+        <v>28003705121595</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="3">
@@ -3074,9 +3438,15 @@
       <c r="C52" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="D52" s="3">
+        <v>28003705120673</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="3">
@@ -3085,9 +3455,15 @@
       <c r="C53" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="D53" s="3">
+        <v>48003705121742</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3">
@@ -3096,9 +3472,15 @@
       <c r="C54" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="D54" s="3">
+        <v>48003705119749</v>
+      </c>
+      <c r="E54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="3">
@@ -3107,9 +3489,15 @@
       <c r="C55" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="3">
+        <v>48003705121759</v>
+      </c>
+      <c r="E55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="3">
@@ -3118,9 +3506,15 @@
       <c r="C56" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="D56" s="3">
+        <v>48003705119022</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="3">
@@ -3129,9 +3523,11 @@
       <c r="C57" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="3">
@@ -3140,9 +3536,15 @@
       <c r="C58" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="3">
+        <v>48003705121810</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="3">
@@ -3151,9 +3553,15 @@
       <c r="C59" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="D59" s="3">
+        <v>48003705119299</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="3">
@@ -3162,9 +3570,15 @@
       <c r="C60" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="D60" s="3">
+        <v>8003705121386</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="3">
@@ -3173,9 +3587,15 @@
       <c r="C61" s="4" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="3">
+        <v>48003705121766</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3">
@@ -3184,9 +3604,15 @@
       <c r="C62" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="D62" s="3">
+        <v>48003705117509</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="3">
@@ -3195,9 +3621,15 @@
       <c r="C63" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="D63" s="3">
+        <v>48003705121780</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="3">
@@ -3206,9 +3638,15 @@
       <c r="C64" s="4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="D64" s="3">
+        <v>48003705121803</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="3">
@@ -3217,9 +3655,15 @@
       <c r="C65" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="D65" s="3">
+        <v>48003705115116</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="3">
@@ -3228,9 +3672,15 @@
       <c r="C66" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="D66" s="3">
+        <v>8003705122147</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="3">
@@ -3239,9 +3689,15 @@
       <c r="C67" s="4" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="D67" s="3">
+        <v>68003705115233</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="3">
@@ -3250,9 +3706,15 @@
       <c r="C68" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="3">
+        <v>68003705121715</v>
+      </c>
+      <c r="E68" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="3">
@@ -3261,9 +3723,15 @@
       <c r="C69" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="D69" s="3">
+        <v>28003705122363</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="3">
@@ -3272,9 +3740,15 @@
       <c r="C70" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="3">
+        <v>280037051223</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="3">
@@ -3283,9 +3757,15 @@
       <c r="C71" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="D71" s="3">
+        <v>28003705123018</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="3">
@@ -3294,9 +3774,15 @@
       <c r="C72" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="D72" s="3">
+        <v>28003705118144</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3">
@@ -3305,20 +3791,32 @@
       <c r="C73" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="D73" s="3">
+        <v>48003705119374</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="3">
-        <v>8243705123021</v>
+        <v>8003705123021</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="D74" s="3">
+        <v>48003705123029</v>
+      </c>
+      <c r="E74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="3">
@@ -3327,9 +3825,15 @@
       <c r="C75" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="D75" s="3">
+        <v>48003705123005</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="3">
@@ -3338,9 +3842,15 @@
       <c r="C76" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="3">
+        <v>48003705114911</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="3">
@@ -3349,2931 +3859,4243 @@
       <c r="C77" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="3">
+        <v>68003705122996</v>
+      </c>
+      <c r="E77" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B78" s="3">
+        <v>8003705115170</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D78" s="3">
+        <v>68003705115172</v>
+      </c>
+      <c r="E78" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B79" s="3">
         <v>8003705121638</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="D79" s="3">
+        <v>8003705121638</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B80" s="3">
         <v>8003705122284</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="D80" s="3">
+        <v>480037051222</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B81" s="3">
         <v>8003705120716</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="D81" s="3">
+        <v>48003705120714</v>
+      </c>
+      <c r="E81" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B82" s="3">
         <v>8003705117976</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="D82" s="3">
+        <v>48003705117974</v>
+      </c>
+      <c r="E82" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B83" s="3">
         <v>8003705121317</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="D83" s="3">
+        <v>48003705</v>
+      </c>
+      <c r="E83" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B84" s="3">
         <v>8003705119017</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="D84" s="3">
+        <v>48003705119015</v>
+      </c>
+      <c r="E84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>8003705121287</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="D85" s="3">
+        <v>48003705121285</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B86" s="3">
         <v>8003705122673</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="D86" s="3">
+        <v>28003705122677</v>
+      </c>
+      <c r="E86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B87" s="3">
         <v>8003705116788</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="D87" s="3">
+        <v>48003705116786</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>8003705123359</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="D88" s="3">
+        <v>48003705123357</v>
+      </c>
+      <c r="E88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B89" s="3">
         <v>8003705123458</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="D89" s="3">
+        <v>68003705123450</v>
+      </c>
+      <c r="E89" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B90" s="3">
         <v>8003705123441</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="D90" s="3">
+        <v>68003705123443</v>
+      </c>
+      <c r="E90" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B91" s="3">
         <v>8003705120082</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="D91" s="3">
+        <v>68003705120084</v>
+      </c>
+      <c r="E91" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B92" s="3">
         <v>8003705120105</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="D92" s="3">
+        <v>68003705120107</v>
+      </c>
+      <c r="E92" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B93" s="3">
         <v>8003705123465</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="D93" s="3">
+        <v>68003705123467</v>
+      </c>
+      <c r="E93" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B94" s="3">
         <v>8003705123366</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="D94" s="3">
+        <v>8003705123366</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B95" s="3">
         <v>8003705123373</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="D95" s="3">
+        <v>8003705123373</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B96" s="3">
         <v>8003705122031</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="D96" s="3">
+        <v>8003705122031</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B97" s="3">
         <v>8003705123472</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="D97" s="3">
+        <v>48003705123470</v>
+      </c>
+      <c r="E97" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B98" s="3">
         <v>8003705123496</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="D98" s="3">
+        <v>8003705123496</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B99" s="3">
         <v>8003705116009</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="D99" s="3">
+        <v>8003705116009</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B100" s="3">
         <v>8003705123434</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="D100" s="3">
+        <v>28003705123438</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B101" s="3">
         <v>8003705117945</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="D101" s="3">
+        <v>48003705117943</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B102" s="3">
         <v>8003705123540</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="D102" s="3">
+        <v>48003705123548</v>
+      </c>
+      <c r="E102" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B103" s="3">
         <v>8003705123618</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="D103" s="3">
+        <v>48003705123616</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B104" s="3">
         <v>8003705122291</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="D104" s="3">
+        <v>48003705122299</v>
+      </c>
+      <c r="E104" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B105" s="3">
         <v>8003705123861</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="D105" s="3">
+        <v>48003705123869</v>
+      </c>
+      <c r="E105" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B106" s="3">
         <v>8003705123878</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="D106" s="3">
+        <v>48003705123876</v>
+      </c>
+      <c r="E106" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B107" s="3">
         <v>8003705118980</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="D107" s="3">
+        <v>48003705118988</v>
+      </c>
+      <c r="E107" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B108" s="3">
         <v>8003705123519</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="D108" s="3">
+        <v>48003705123517</v>
+      </c>
+      <c r="E108" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B109" s="3">
         <v>8003705120730</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="D109" s="3">
+        <v>48003705120738</v>
+      </c>
+      <c r="E109" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B110" s="3">
         <v>8003705123625</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="D110" s="3">
+        <v>48003705123623</v>
+      </c>
+      <c r="E110" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B111" s="3">
         <v>8003705123533</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="D111" s="3">
+        <v>48003705123531</v>
+      </c>
+      <c r="E111" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B112" s="3">
         <v>8003705119000</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="D112" s="3">
+        <v>48003705119008</v>
+      </c>
+      <c r="E112" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B113" s="3">
         <v>8003705123601</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="D113" s="3">
+        <v>48003705123609</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B114" s="3">
         <v>8003705123342</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="D114" s="3">
+        <v>48003705123340</v>
+      </c>
+      <c r="E114" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B115" s="3">
         <v>8003705123397</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="D115" s="3">
+        <v>8003705123397</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B116" s="3">
         <v>8003705122451</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="D116" s="3">
+        <v>8003705122451</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B117" s="3">
         <v>8003705123403</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="D117" s="3">
+        <v>8003705123403</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B118" s="3">
         <v>8003705121386</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="D118" s="3">
+        <v>8003705121386</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B119" s="3">
         <v>8003705122017</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="D119" s="3">
+        <v>8003705122017</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B120" s="3">
+        <v>8003705119376</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D120" s="3">
+        <v>48003705119374</v>
+      </c>
+      <c r="E120" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B121" s="3">
         <v>8004399324893</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B122" s="3">
         <v>8004399324794</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B123" s="3">
         <v>8004399321847</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B124" s="3">
         <v>8004399321847</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B125" s="3">
         <v>8004399324787</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B126" s="3">
         <v>8004399325050</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="D126" s="3">
+        <v>8004399325050</v>
+      </c>
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B127" s="3">
         <v>7899980101158</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="D127" s="3">
+        <v>7899980101158</v>
+      </c>
+      <c r="E127" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B128" s="3">
         <v>7899980100151</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B129" s="3">
         <v>7899980100175</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="D129" s="3"/>
+      <c r="E129" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B130" s="3">
         <v>8004399331051</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="D130" s="3"/>
+      <c r="E130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B131" s="3">
         <v>7899980100854</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="D131" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E131" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B132" s="3">
         <v>7899980101066</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="D132" s="3">
+        <v>17899980101063</v>
+      </c>
+      <c r="E132" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B133" s="3">
         <v>7899980100915</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="D133" s="3">
+        <v>7899980100915</v>
+      </c>
+      <c r="E133" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="D134" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E134" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B135" s="3">
         <v>7899980101455</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="D135" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E135" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B136" s="3">
         <v>7899980101776</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="D136" s="3">
+        <v>17899980101773</v>
+      </c>
+      <c r="E136" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B137" s="3">
         <v>7899980101806</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="D137" s="3">
+        <v>17899980101803</v>
+      </c>
+      <c r="E137" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B138" s="3">
         <v>7899980101738</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="D138" s="3">
+        <v>17899980101735</v>
+      </c>
+      <c r="E138" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B139" s="3">
         <v>7899980101769</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="D139" s="3">
+        <v>7899980101769</v>
+      </c>
+      <c r="E139" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B140" s="3">
         <v>7899980101714</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="D140" s="3">
+        <v>1789998010</v>
+      </c>
+      <c r="E140" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B141" s="3">
         <v>7899980101677</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="D141" s="3">
+        <v>17899980101674</v>
+      </c>
+      <c r="E141" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B142" s="3">
         <v>7899980101684</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="D142" s="3">
+        <v>17899980101681</v>
+      </c>
+      <c r="E142" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B143" s="3">
         <v>7899980101943</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="D143" s="3">
+        <v>7899980101943</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B144" s="3">
         <v>6971636401490</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="D144" s="3"/>
+      <c r="E144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B145" s="3">
         <v>6971636408017</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B146" s="3">
         <v>6971636408185</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B147" s="3">
         <v>6971636402855</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="D147" s="3"/>
+      <c r="E147" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B148" s="3">
         <v>6971636402671</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="D148" s="3"/>
+      <c r="E148" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B149" s="3">
         <v>6971636408154</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B150" s="3">
         <v>6971636408406</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B151" s="3">
         <v>6971636408161</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="D151" s="3"/>
+      <c r="E151" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B152" s="3">
         <v>6971636402916</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="D152" s="3"/>
+      <c r="E152" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B153" s="3">
         <v>6971636403128</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+      <c r="D153" s="3"/>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B154" s="3">
         <v>6971636403425</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+      <c r="D154" s="3"/>
+      <c r="E154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B155" s="3">
         <v>6971636403449</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B156" s="3">
         <v>6971636403456</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="D156" s="3"/>
+      <c r="E156" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B157" s="3">
         <v>6971636404637</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+      <c r="D157" s="3"/>
+      <c r="E157" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B158" s="3">
         <v>6971636404569</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+      <c r="D158" s="3"/>
+      <c r="E158" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B159" s="3">
         <v>6971636404699</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+      <c r="D159" s="3"/>
+      <c r="E159" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B160" s="3">
         <v>6971636404170</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+      <c r="D160" s="3"/>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B161" s="3">
         <v>6971636403579</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+      <c r="D161" s="3"/>
+      <c r="E161" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B162" s="3">
         <v>6971636400981</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+      <c r="D162" s="3"/>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B163" s="3">
         <v>6971636403296</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+      <c r="D163" s="3"/>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B164" s="3">
         <v>6971636402923</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+      <c r="D164" s="3">
+        <v>6971636402923</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B165" s="3">
         <v>6971636402701</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+      <c r="D165" s="3">
+        <v>6971636402701</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B166" s="3">
         <v>6971636403142</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+      <c r="D166" s="3"/>
+      <c r="E166" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B167" s="3">
         <v>6971636403388</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B168" s="3">
         <v>6971636403487</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="D168" s="3"/>
+      <c r="E168" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B169" s="3">
         <v>6971636403418</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B170" s="3">
         <v>6971636403043</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+      <c r="D170" s="3"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B171" s="3">
         <v>6971636403180</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B172" s="3">
         <v>6971636403241</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+      <c r="D172" s="3"/>
+      <c r="E172" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B173" s="3">
         <v>6971636405627</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+      <c r="D173" s="3"/>
+      <c r="E173" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B174" s="3">
         <v>6971636405801</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+      <c r="D174" s="3"/>
+      <c r="E174" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B175" s="3">
         <v>6971636401797</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
+      <c r="D175" s="3"/>
+      <c r="E175" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B176" s="3">
         <v>6971636402954</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+      <c r="D176" s="3"/>
+      <c r="E176" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B177" s="3">
         <v>6971636403678</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+      <c r="D177" s="3"/>
+      <c r="E177" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B178" s="3">
         <v>6971636403111</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+      <c r="D178" s="3"/>
+      <c r="E178" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B179" s="3">
         <v>6971636403005</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+      <c r="D179" s="3"/>
+      <c r="E179" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B180" s="3">
         <v>6971636403104</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C180" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="D180" s="3"/>
+      <c r="E180" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B181" s="3">
         <v>6971636403654</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C181" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+      <c r="D181" s="3"/>
+      <c r="E181" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B182" s="3">
         <v>6971636405832</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B183" s="3">
         <v>6971636408901</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C183" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+      <c r="D183" s="3"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B184" s="3">
         <v>6971636405733</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+      <c r="D184" s="3"/>
+      <c r="E184" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B185" s="3">
         <v>6971636405382</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+      <c r="D185" s="3"/>
+      <c r="E185" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B186" s="3">
         <v>6971636405481</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
+      <c r="D186" s="3"/>
+      <c r="E186" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B187" s="3">
         <v>6971636405559</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+      <c r="D187" s="3"/>
+      <c r="E187" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B188" s="3">
         <v>6971636405504</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C188" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
+      <c r="D188" s="3"/>
+      <c r="E188" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B189" s="3">
         <v>6971636403920</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+      <c r="D189" s="3"/>
+      <c r="E189" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B190" s="3">
         <v>6971636403210</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C190" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+      <c r="D190" s="3"/>
+      <c r="E190" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B191" s="3">
         <v>6971636402152</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+      <c r="D191" s="3"/>
+      <c r="E191" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B192" s="3">
         <v>6971636402084</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C192" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+      <c r="D192" s="3"/>
+      <c r="E192" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B193" s="3">
         <v>6971636402060</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+      <c r="D193" s="3"/>
+      <c r="E193" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B194" s="3">
         <v>6971636402077</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+      <c r="D194" s="3"/>
+      <c r="E194" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B195" s="3">
         <v>6971636402206</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+      <c r="D195" s="3"/>
+      <c r="E195" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B196" s="3">
         <v>6971636402114</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C196" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+      <c r="D196" s="3"/>
+      <c r="E196" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B197" s="3">
         <v>6971636402121</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C197" s="4" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+      <c r="D197" s="3"/>
+      <c r="E197" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B198" s="3">
         <v>6971636402107</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C198" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+      <c r="D198" s="3"/>
+      <c r="E198" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B199" s="3">
         <v>6971636404590</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C199" s="4" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+      <c r="D199" s="3"/>
+      <c r="E199" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B200" s="3">
         <v>6971636401698</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C200" s="4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+      <c r="D200" s="3"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B201" s="3">
         <v>6971636405474</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C201" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+      <c r="D201" s="3"/>
+      <c r="E201" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B202" s="3">
         <v>5060301695010</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C202" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+      <c r="D202" s="3"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B203" s="3">
         <v>6971636408499</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C203" s="4" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+      <c r="D203" s="3"/>
+      <c r="E203" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B204" s="3">
         <v>6971636407331</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C204" s="4" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+      <c r="D204" s="3"/>
+      <c r="E204" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B205" s="3">
         <v>6971636407621</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C205" s="4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+      <c r="D205" s="3"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B206" s="3">
         <v>6971636404293</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+      <c r="D206" s="3"/>
+      <c r="E206" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B207" s="3">
         <v>6971636402633</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+      <c r="D207" s="3"/>
+      <c r="E207" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B208" s="3">
         <v>6971636403081</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C208" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+      <c r="D208" s="3"/>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B209" s="3">
         <v>6971636402527</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+      <c r="D209" s="3"/>
+      <c r="E209" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B210" s="3">
         <v>6971636403166</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C210" s="4" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+      <c r="D210" s="3"/>
+      <c r="E210" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B211" s="3">
         <v>6977905740109</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C211" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+      <c r="D211" s="3"/>
+      <c r="E211" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B212" s="3">
         <v>6971636405719</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+      <c r="D212" s="3">
+        <v>6971636405719</v>
+      </c>
+      <c r="E212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B213" s="3">
         <v>6977905740093</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+      <c r="D213" s="3"/>
+      <c r="E213" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B214" s="3">
         <v>6977905740116</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+      <c r="D214" s="3">
+        <v>6977905740116</v>
+      </c>
+      <c r="E214" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B215" s="3">
         <v>6977905741021</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C215" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+      <c r="D215" s="3"/>
+      <c r="E215" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B216" s="3">
         <v>6977905741014</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C216" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+      <c r="D216" s="3"/>
+      <c r="E216" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B217" s="3">
         <v>6977905741069</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+      <c r="D217" s="3"/>
+      <c r="E217" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B218" s="3">
         <v>6977905741076</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+      <c r="D218" s="3"/>
+      <c r="E218" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B219" s="3">
         <v>6977905741083</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+      <c r="D219" s="3"/>
+      <c r="E219" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B220" s="3">
         <v>6977905741052</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+      <c r="D220" s="3"/>
+      <c r="E220" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B221" s="3">
         <v>6977905741038</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+      <c r="D221" s="3"/>
+      <c r="E221" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B222" s="3">
         <v>6977905741045</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+      <c r="D222" s="3"/>
+      <c r="E222" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B223" s="3">
         <v>5056547205519</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+      <c r="D223" s="3">
+        <v>5056547205519</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B224" s="3">
         <v>5060301697021</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+      <c r="D224" s="3">
+        <v>5060301697021</v>
+      </c>
+      <c r="E224" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B225" s="3">
         <v>5056547202440</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+      <c r="D225" s="3">
+        <v>5056547202440</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B226" s="3">
         <v>5056547204062</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+      <c r="D226" s="3">
+        <v>5056547204062</v>
+      </c>
+      <c r="E226" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B227" s="3">
         <v>5056547205519</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C227" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+      <c r="D227" s="3">
+        <v>5056547205519</v>
+      </c>
+      <c r="E227" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B228" s="3">
         <v>5056547202686</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+      <c r="D228" s="3">
+        <v>5056547202686</v>
+      </c>
+      <c r="E228" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B229" s="3">
         <v>5056547202273</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C229" s="4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+      <c r="D229" s="3">
+        <v>5056547202273</v>
+      </c>
+      <c r="E229" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B230" s="3">
         <v>5056547202266</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+      <c r="D230" s="3">
+        <v>5056547202266</v>
+      </c>
+      <c r="E230" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B231" s="3">
         <v>42005175604</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C231" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+      <c r="D231" s="3"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B232" s="3">
         <v>4961310157364</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+      <c r="D232" s="3"/>
+      <c r="E232" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B233" s="3">
         <v>4961310128548</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="D233" s="3"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B234" s="3">
         <v>4961310128579</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C234" s="4" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
+      <c r="D234" s="3"/>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B235" s="3">
         <v>4961310133597</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
+      <c r="D235" s="3">
+        <v>4961310133597</v>
+      </c>
+      <c r="E235" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B236" s="3">
         <v>4961310133603</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C236" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+      <c r="D236" s="3"/>
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B237" s="3">
         <v>4961310128555</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C237" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="D237" s="3"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B238" s="3">
         <v>4961310133634</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C238" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+      <c r="D238" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E238" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B239" s="3">
         <v>4961310157302</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C239" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+      <c r="D239" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E239" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B240" s="3">
         <v>42005206988</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C240" s="4" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+      <c r="D240" s="3">
+        <v>42005206988</v>
+      </c>
+      <c r="E240" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B241" s="3">
         <v>42005206971</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C241" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
+      <c r="D241" s="3"/>
+      <c r="E241" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B242" s="3">
         <v>42005207015</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C242" s="4" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+      <c r="D242" s="3">
+        <v>42005207015</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B243" s="3">
         <v>420052070088</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C243" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+      <c r="D243" s="3">
+        <v>420052070088</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B244" s="3">
         <v>4961310143725</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C244" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
+      <c r="D244" s="3">
+        <v>42005203918</v>
+      </c>
+      <c r="E244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B245" s="3">
         <v>42005204892</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C245" s="4" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+      <c r="D245" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E245" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B246" s="3">
         <v>42005204922</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C246" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+      <c r="D246" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E246" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B247" s="3">
         <v>42005208272</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C247" s="4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
+      <c r="D247" s="3">
+        <v>42005208272</v>
+      </c>
+      <c r="E247" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B248" s="3">
         <v>42005134311</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C248" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
+      <c r="D248" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E248" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B249" s="3">
         <v>42005204823</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C249" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
+      <c r="D249" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E249" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B250" s="3">
         <v>4961310156497</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C250" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
+      <c r="D250" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E250" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B251" s="3">
         <v>4961310156510</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C251" s="4" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
+      <c r="D251" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E251" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B252" s="3">
         <v>4961310156527</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C252" s="4" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
+      <c r="D252" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E252" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B253" s="3">
         <v>4961310156992</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
+      <c r="D253" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E253" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B254" s="3">
         <v>4961310156985</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C254" s="4" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
+      <c r="D254" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E254" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B255" s="3">
         <v>42005166312</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C255" s="4" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
+      <c r="D255" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E255" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B256" s="3">
         <v>4961310147075</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C256" s="4" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="D256" s="3"/>
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B257" s="3">
         <v>4961310157319</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C257" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
+      <c r="D257" s="3"/>
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B258" s="3">
         <v>4961310137663</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C258" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
+      <c r="D258" s="3"/>
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B259" s="3">
         <v>42005175154</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C259" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
+      <c r="D259" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E259" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B260" s="3">
         <v>4961310137557</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
+      <c r="D260" s="3"/>
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B261" s="3">
         <v>4961310137533</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
+      <c r="D261" s="3"/>
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B262" s="3">
         <v>4961310158170</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C262" s="4" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="2" t="s">
+      <c r="D262" s="3"/>
+      <c r="E262" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B263" s="3">
         <v>4961310156169</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C263" s="4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="2" t="s">
+      <c r="D263" s="3">
+        <v>42005209927</v>
+      </c>
+      <c r="E263" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B264" s="3">
         <v>4961310136765</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C264" s="4" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
+      <c r="D264" s="3">
+        <v>42005192328</v>
+      </c>
+      <c r="E264" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B265" s="3">
         <v>4961310156978</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C265" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="2" t="s">
+      <c r="D265" s="3"/>
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B266" s="3">
         <v>42005197088</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C266" s="4" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
+      <c r="D266" s="3">
+        <v>42005197088</v>
+      </c>
+      <c r="E266" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B267" s="3">
         <v>4961310081348</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C267" s="4" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
+      <c r="D267" s="3">
+        <v>42005134953</v>
+      </c>
+      <c r="E267" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B268" s="3">
         <v>4961310125400</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C268" s="4" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
+      <c r="D268" s="3">
+        <v>4961310125400</v>
+      </c>
+      <c r="E268" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B269" s="3">
         <v>4961310125417</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C269" s="4" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
+      <c r="D269" s="3">
+        <v>42005183524</v>
+      </c>
+      <c r="E269" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B270" s="3">
         <v>4961310125424</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C270" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
+      <c r="D270" s="3">
+        <v>42005183531</v>
+      </c>
+      <c r="E270" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B271" s="3">
         <v>4961310125431</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C271" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
+      <c r="D271" s="3">
+        <v>4961310125431</v>
+      </c>
+      <c r="E271" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B272" s="3">
         <v>4961310144333</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C272" s="4" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
+      <c r="D272" s="3"/>
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B273" s="3">
         <v>4961310125462</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C273" s="4" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="2" t="s">
+      <c r="D273" s="3">
+        <v>4961310125462</v>
+      </c>
+      <c r="E273" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B274" s="3">
         <v>42005204953</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C274" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
+      <c r="D274" s="3">
+        <v>42005204953</v>
+      </c>
+      <c r="E274" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B275" s="3">
         <v>4961310145620</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C275" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
+      <c r="D275" s="3"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B276" s="3">
         <v>4961310157357</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C276" s="4" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
+      <c r="D276" s="3">
+        <v>42005201365</v>
+      </c>
+      <c r="E276" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B277" s="3">
         <v>4961310146627</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C277" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+      <c r="D277" s="3">
+        <v>42005202430</v>
+      </c>
+      <c r="E277" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B278" s="3">
         <v>4961310118617</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C278" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
+      <c r="D278" s="3">
+        <v>42005177219</v>
+      </c>
+      <c r="E278" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B279" s="3">
         <v>4961310118631</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C279" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
+      <c r="D279" s="3">
+        <v>42005179367</v>
+      </c>
+      <c r="E279" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B280" s="3">
         <v>4961310147068</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C280" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
+      <c r="D280" s="3"/>
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B281" s="3">
         <v>4961310137656</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C281" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
+      <c r="D281" s="3"/>
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B282" s="3">
         <v>4961310116323</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C282" s="4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
+      <c r="D282" s="3">
+        <v>42005178124</v>
+      </c>
+      <c r="E282" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B283" s="3">
         <v>42005197118</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C283" s="4" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
+      <c r="D283" s="3">
+        <v>42005197118</v>
+      </c>
+      <c r="E283" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B284" s="3">
         <v>4961310146009</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C284" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
+      <c r="D284" s="3"/>
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B285" s="3">
         <v>4961310158491</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C285" s="4" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
+      <c r="D285" s="3">
+        <v>4961310158491</v>
+      </c>
+      <c r="E285" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B286" s="3">
         <v>4961310130770</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C286" s="4" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
+      <c r="D286" s="3">
+        <v>42005187232</v>
+      </c>
+      <c r="E286" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B287" s="3">
         <v>4961310137793</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C287" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
+      <c r="D287" s="3">
+        <v>42005127955</v>
+      </c>
+      <c r="E287" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B288" s="3">
         <v>4961310132750</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C288" s="4" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
+      <c r="D288" s="3">
+        <v>42005187782</v>
+      </c>
+      <c r="E288" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B289" s="3">
         <v>42005204830</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C289" s="4" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
+      <c r="D289" s="3">
+        <v>42005204830</v>
+      </c>
+      <c r="E289" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B290" s="3">
         <v>4961310132767</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C290" s="4" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
+      <c r="D290" s="3">
+        <v>42005187799</v>
+      </c>
+      <c r="E290" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B291" s="3">
         <v>4961310137564</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C291" s="4" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
+      <c r="D291" s="3"/>
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B292" s="3">
         <v>4961310157418</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
+      <c r="D292" s="3">
+        <v>42005195800</v>
+      </c>
+      <c r="E292" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B293" s="3">
         <v>4961310135171</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C293" s="4" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
+      <c r="D293" s="3"/>
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B294" s="3">
         <v>4961310158095</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
+      <c r="D294" s="3"/>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B295" s="3">
         <v>4961310130954</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C295" s="4" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="2" t="s">
+      <c r="D295" s="3"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B296" s="3">
         <v>4961310137816</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
+      <c r="D296" s="3">
+        <v>42005195305</v>
+      </c>
+      <c r="E296" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B297" s="3">
         <v>4961310137854</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
+      <c r="D297" s="3"/>
+      <c r="E297" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B298" s="3">
         <v>4961310137830</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C298" s="4" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
+      <c r="D298" s="3"/>
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B299" s="3">
         <v>4961310125400</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C299" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="2" t="s">
+      <c r="D299" s="3">
+        <v>42005183517</v>
+      </c>
+      <c r="E299" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B300" s="3">
         <v>4961310155858</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C300" s="4" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="2" t="s">
+      <c r="D300" s="3">
+        <v>42005210688</v>
+      </c>
+      <c r="E300" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B301" s="3">
         <v>42005197101</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C301" s="4" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
+      <c r="D301" s="3"/>
+      <c r="E301" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B302" s="3">
         <v>42005197118</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C302" s="4" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
+      <c r="D302" s="3">
+        <v>42005197118</v>
+      </c>
+      <c r="E302" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B303" s="3">
         <v>4961310064211</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C303" s="4" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="2" t="s">
+      <c r="D303" s="3">
+        <v>42005125159</v>
+      </c>
+      <c r="E303" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B304" s="3">
         <v>4961310089054</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C304" s="4" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
+      <c r="D304" s="3">
+        <v>42005144716</v>
+      </c>
+      <c r="E304" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B305" s="3">
         <v>4961310113438</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C305" s="4" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
+      <c r="D305" s="3">
+        <v>42005173501</v>
+      </c>
+      <c r="E305" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B306" s="3">
         <v>4961310113445</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C306" s="4" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+      <c r="D306" s="3">
+        <v>42005173495</v>
+      </c>
+      <c r="E306" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B307" s="3">
         <v>4961310089023</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C307" s="4" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+      <c r="D307" s="3">
+        <v>42005144686</v>
+      </c>
+      <c r="E307" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B308" s="3">
         <v>42005197057</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C308" s="4" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+      <c r="D308" s="3"/>
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B309" s="3">
         <v>4961310089016</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C309" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
+      <c r="D309" s="3">
+        <v>42005144679</v>
+      </c>
+      <c r="E309" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B310" s="3">
         <v>4961310143480</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C310" s="4" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
+      <c r="D310" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E310" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B311" s="3">
         <v>42005204847</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C311" s="4" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+      <c r="D311" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E311" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B312" s="3">
         <v>42005204854</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C312" s="4" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+      <c r="D312" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E312" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B313" s="3">
         <v>4961310118594</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C313" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+      <c r="D313" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E313" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B314" s="3">
         <v>42005211227</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C314" s="4" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+      <c r="D314" s="3">
+        <v>42005211227</v>
+      </c>
+      <c r="E314" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B315" s="3">
         <v>240207931713</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C315" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+      <c r="D315" s="3"/>
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B316" s="3">
         <v>4961310153250</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C316" s="4" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+      <c r="D316" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E316" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B317" s="3">
         <v>4961310160012</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C317" s="4" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
+      <c r="D317" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E317" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B318" s="3">
         <v>4961310159658</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C318" s="4" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
+      <c r="D318" s="3">
+        <v>1.94961310159658E+21</v>
+      </c>
+      <c r="E318" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B319" s="3">
         <v>4961310154981</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C319" s="4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
+      <c r="D319" s="3">
+        <v>42005207909</v>
+      </c>
+      <c r="E319" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B320" s="3">
         <v>42005213429</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C320" s="4" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+      <c r="D320" s="3">
+        <v>42005213429</v>
+      </c>
+      <c r="E320" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B321" s="3">
         <v>4961310116330</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C321" s="4" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
+      <c r="D321" s="3">
+        <v>1.9496131011633E+21</v>
+      </c>
+      <c r="E321" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B322" s="3">
         <v>42005210619</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C322" s="4" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
+      <c r="D322" s="3">
+        <v>42005210619</v>
+      </c>
+      <c r="E322" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B323" s="3">
         <v>4961310156183</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C323" s="4" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+      <c r="D323" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E323" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B324" s="3">
         <v>4961310088507</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C324" s="4" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+      <c r="D324" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E324" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B325" s="3">
         <v>4961310160029</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C325" s="4" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+      <c r="D325" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E325" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B326" s="3">
         <v>4961310160036</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C326" s="4" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
+      <c r="D326" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E326" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B327" s="3">
         <v>42005208258</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C327" s="4" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+      <c r="D327" s="3">
+        <v>42005208258</v>
+      </c>
+      <c r="E327" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B328" s="3">
         <v>4961310064228</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C328" s="4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
+      <c r="D328" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E328" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B329" s="3">
         <v>4961310163440</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C329" s="4" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
+      <c r="D329" s="3">
+        <v>4961310163440</v>
+      </c>
+      <c r="E329" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B330" s="3">
         <v>4961310163501</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C330" s="4" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+      <c r="D330" s="3">
+        <v>4961310163501</v>
+      </c>
+      <c r="E330" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B331" s="3">
         <v>4961310161934</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C331" s="4" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
+      <c r="D331" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E331" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B332" s="3">
         <v>4961310162009</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C332" s="4" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="D332" s="3"/>
+      <c r="E332" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B333" s="3">
         <v>4961310162542</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C333" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="D333" s="3"/>
+      <c r="E333" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B334" s="3">
         <v>42005214969</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C334" s="4" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="D334" s="3"/>
+      <c r="E334" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B335" s="3">
         <v>4961310136734</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C335" s="4" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+      <c r="D335" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E335" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B336" s="3">
         <v>42005198993</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="C336" s="4" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+      <c r="D336" s="3"/>
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B337" s="3">
         <v>4961310141776</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="C337" s="4" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
+      <c r="D337" s="3"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B338" s="3">
         <v>4961310143428</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C338" s="4" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+      <c r="D338" s="3"/>
+      <c r="E338" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B339" s="3">
         <v>42005196920</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C339" s="4" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
+      <c r="D339" s="3"/>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B340" s="3">
         <v>42005189830</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="C340" s="4" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+      <c r="D340" s="3"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B341" s="3">
         <v>846504005000</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C341" s="4" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
+      <c r="D341" s="3">
+        <v>846504005000</v>
+      </c>
+      <c r="E341" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B342" s="3">
         <v>4711174724505</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C342" s="4" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
+      <c r="D342" s="3">
+        <v>4711174724505</v>
+      </c>
+      <c r="E342" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B343" s="3">
         <v>846504004911</v>
       </c>
-      <c r="C341" s="4" t="s">
+      <c r="C343" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
+      <c r="D343" s="3">
+        <v>846504004911</v>
+      </c>
+      <c r="E343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B344" s="3">
         <v>846504003693</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C344" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+      <c r="D344" s="3">
+        <v>846504003693</v>
+      </c>
+      <c r="E344" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B345" s="3">
         <v>846504005024</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C345" s="4" t="s">
         <v>685</v>
+      </c>
+      <c r="D345" s="3">
+        <v>846504005024</v>
+      </c>
+      <c r="E345" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CA025-96DF-4FD9-A72D-0AD596D3DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AF3FC-4E5A-4B4E-8C65-B81DE728F683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2213,7 +2213,7 @@
     <t>DUM</t>
   </si>
   <si>
-    <t>REF. CAIXA QUANT.</t>
+    <t>Multiplicador DUM</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AF3FC-4E5A-4B4E-8C65-B81DE728F683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBF292-B1BC-4DEA-A591-56125BBB2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="734">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2214,13 +2214,37 @@
   </si>
   <si>
     <t>Multiplicador DUM</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PLA BRANCO JADE</t>
+  </si>
+  <si>
+    <t>10467-BLB-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PLA MATTE BRC MARFI</t>
+  </si>
+  <si>
+    <t>10441-BLB-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PLA MATTE CHUMBO</t>
+  </si>
+  <si>
+    <t>10426-BLB-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PETG HF BRANCO</t>
+  </si>
+  <si>
+    <t>10335-BLB-I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,6 +2258,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2243,7 +2272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2252,11 +2281,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2264,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2279,6 +2332,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2583,15 +2648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" style="2" customWidth="1"/>
@@ -2618,16 +2684,16 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>8003705121690</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>48003705121698</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2635,14 +2701,14 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>6976058150704</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2650,16 +2716,16 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>5390660192418</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2667,14 +2733,14 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>3760027782101</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6">
         <v>100</v>
       </c>
     </row>
@@ -2682,14 +2748,14 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>6976058150865</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2697,16 +2763,16 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>4580181853047</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2714,14 +2780,14 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>3760027784259</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2729,16 +2795,16 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>5390660194450</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2746,14 +2812,14 @@
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>3760027784297</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2761,16 +2827,16 @@
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>5390660192968</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>4580181852811</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2778,14 +2844,14 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>3760027782606</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2793,16 +2859,16 @@
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>5390660194375</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2810,16 +2876,16 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>8003705119369</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>48003705119367</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2827,16 +2893,16 @@
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>5390660192456</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2844,16 +2910,16 @@
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>5390660192029</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>2.05390660192029E+18</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2861,42 +2927,42 @@
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>3760027784303</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>3760027784310</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>8003705121706</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>48003705121704</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2904,14 +2970,14 @@
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>3760027782408</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
         <v>60</v>
       </c>
     </row>
@@ -2919,16 +2985,16 @@
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>8003705119383</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>48003705119381</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2936,16 +3002,16 @@
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>4961310146160</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>42005204076</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2953,16 +3019,16 @@
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>8003705121720</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>28003705121724</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2970,16 +3036,16 @@
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>8003705118133</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>28003705118137</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2987,14 +3053,14 @@
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>4961310146894</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="D25" s="7"/>
+      <c r="E25" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3002,16 +3068,16 @@
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>4961310151522</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3019,16 +3085,16 @@
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>6940548419640</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>4961310101763</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3036,16 +3102,16 @@
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="7">
         <v>4961310155940</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>4961310155940</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3053,16 +3119,16 @@
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="7">
         <v>8003705121737</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>28003705121731</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3070,16 +3136,16 @@
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="7">
         <v>8003705118157</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>28003705118151</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3087,16 +3153,16 @@
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="7">
         <v>8003705121669</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>68003705121661</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3104,16 +3170,16 @@
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="7">
         <v>8003705115163</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>68003705115165</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3121,16 +3187,16 @@
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="7">
         <v>8003705121676</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>68003705121678</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3138,16 +3204,16 @@
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="7">
         <v>8003705115187</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="7">
         <v>68003705115189</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3155,16 +3221,16 @@
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="7">
         <v>8003705121645</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <v>48003705121643</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3172,16 +3238,16 @@
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="7">
         <v>8003705114906</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="7">
         <v>48003705114904</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3189,16 +3255,16 @@
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="7">
         <v>8003705121652</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="7">
         <v>48003705121650</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3206,14 +3272,14 @@
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="7">
         <v>6975337030980</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4">
+      <c r="D38" s="7"/>
+      <c r="E38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3221,14 +3287,14 @@
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="7">
         <v>6975337030515</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4">
+      <c r="D39" s="7"/>
+      <c r="E39" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3236,16 +3302,16 @@
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="7">
         <v>8003705114920</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="7">
         <v>48003705114928</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3253,14 +3319,14 @@
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="7">
         <v>6975337033134</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4">
+      <c r="D41" s="7"/>
+      <c r="E41" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3268,14 +3334,14 @@
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="7">
         <v>6977252425391</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3283,14 +3349,14 @@
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="7">
         <v>6975337034162</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4">
+      <c r="D43" s="7"/>
+      <c r="E43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3298,16 +3364,16 @@
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="7">
         <v>8003705121775</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="7">
         <v>48003705121773</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3315,14 +3381,14 @@
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="7">
         <v>6975337036173</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4">
+      <c r="D45" s="7"/>
+      <c r="E45" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3330,16 +3396,16 @@
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="7">
         <v>8003705120112</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="7">
         <v>48003705120110</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3347,16 +3413,16 @@
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="7">
         <v>8003705121683</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="7">
         <v>8003705121683</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3364,16 +3430,16 @@
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="7">
         <v>8003705121584</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="7">
         <v>28003705121588</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3381,16 +3447,16 @@
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="7">
         <v>42005206957</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="7">
         <v>42005206957</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3398,16 +3464,16 @@
       <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="7">
         <v>8003705116702</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>28003705116706</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3415,16 +3481,16 @@
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="7">
         <v>8003705121591</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="7">
         <v>28003705121595</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3432,16 +3498,16 @@
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="7">
         <v>8003705120679</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="7">
         <v>28003705120673</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3449,16 +3515,16 @@
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="7">
         <v>8003705121744</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="7">
         <v>48003705121742</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3466,16 +3532,16 @@
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="7">
         <v>8003705119741</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="7">
         <v>48003705119749</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3483,16 +3549,16 @@
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="7">
         <v>8003705121751</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="7">
         <v>48003705121759</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3500,16 +3566,16 @@
       <c r="A56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="7">
         <v>8003705119024</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="7">
         <v>48003705119022</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3517,29 +3583,29 @@
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="7">
         <v>8004399324794</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="7">
         <v>8003705121812</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="7">
         <v>48003705121810</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3547,16 +3613,16 @@
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="7">
         <v>8003705119291</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="7">
         <v>48003705119299</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3564,16 +3630,16 @@
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="7">
         <v>8003705121386</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="7">
         <v>8003705121386</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3581,16 +3647,16 @@
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="7">
         <v>8003705121768</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="7">
         <v>48003705121766</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3598,16 +3664,16 @@
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="7">
         <v>8003705117501</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="7">
         <v>48003705117509</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3615,16 +3681,16 @@
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="7">
         <v>8003705121782</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="7">
         <v>48003705121780</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3632,16 +3698,16 @@
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="7">
         <v>8003705121805</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="7">
         <v>48003705121803</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3649,16 +3715,16 @@
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="7">
         <v>8003705115118</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="7">
         <v>48003705115116</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3666,16 +3732,16 @@
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="7">
         <v>8003705122147</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <v>8003705122147</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3683,16 +3749,16 @@
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="7">
         <v>8003705115231</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="7">
         <v>68003705115233</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3700,16 +3766,16 @@
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="7">
         <v>8003705121713</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="7">
         <v>68003705121715</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3717,16 +3783,16 @@
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="7">
         <v>8003705122369</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="7">
         <v>28003705122363</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3734,16 +3800,16 @@
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="7">
         <v>8003705122352</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="7">
         <v>280037051223</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3751,16 +3817,16 @@
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="7">
         <v>8003705123014</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="7">
         <v>28003705123018</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3768,16 +3834,16 @@
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="7">
         <v>8003705118140</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="7">
         <v>28003705118144</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3785,16 +3851,16 @@
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="7">
         <v>8003705119376</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="7">
         <v>48003705119374</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3802,16 +3868,16 @@
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="7">
         <v>8003705123021</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="7">
         <v>48003705123029</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3819,16 +3885,16 @@
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="7">
         <v>8003705123007</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="7">
         <v>48003705123005</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3836,16 +3902,16 @@
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="7">
         <v>8003705114913</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="7">
         <v>48003705114911</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3853,16 +3919,16 @@
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="7">
         <v>8003705122994</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="7">
         <v>68003705122996</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3870,4231 +3936,4291 @@
       <c r="A78" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="7">
         <v>8003705115170</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="7">
         <v>68003705115172</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="3">
-        <v>8003705121638</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D79" s="3">
-        <v>8003705121638</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
+        <v>733</v>
+      </c>
+      <c r="B79" s="7">
+        <v>6975337038207</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="3">
-        <v>8003705122284</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D80" s="3">
-        <v>480037051222</v>
-      </c>
-      <c r="E80" s="4">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="7">
+        <v>8003705121638</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" s="7">
+        <v>8003705121638</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3">
-        <v>8003705120716</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D81" s="3">
-        <v>48003705120714</v>
-      </c>
-      <c r="E81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7">
+        <v>8003705122284</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="7">
+        <v>480037051222</v>
+      </c>
+      <c r="E81" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="3">
-        <v>8003705117976</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D82" s="3">
-        <v>48003705117974</v>
-      </c>
-      <c r="E82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7">
+        <v>8003705120716</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" s="7">
+        <v>48003705120714</v>
+      </c>
+      <c r="E82" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="3">
-        <v>8003705121317</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D83" s="3">
-        <v>48003705</v>
-      </c>
-      <c r="E83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7">
+        <v>8003705117976</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="7">
+        <v>48003705117974</v>
+      </c>
+      <c r="E83" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="3">
-        <v>8003705119017</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D84" s="3">
-        <v>48003705119015</v>
-      </c>
-      <c r="E84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7">
+        <v>8003705121317</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" s="7">
+        <v>48003705</v>
+      </c>
+      <c r="E84" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="3">
-        <v>8003705121287</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="3">
-        <v>48003705121285</v>
-      </c>
-      <c r="E85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7">
+        <v>8003705119017</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D85" s="7">
+        <v>48003705119015</v>
+      </c>
+      <c r="E85" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="3">
-        <v>8003705122673</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D86" s="3">
-        <v>28003705122677</v>
-      </c>
-      <c r="E86" s="4">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="7">
+        <v>8003705121287</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" s="7">
+        <v>48003705121285</v>
+      </c>
+      <c r="E86" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="3">
-        <v>8003705116788</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D87" s="3">
-        <v>48003705116786</v>
-      </c>
-      <c r="E87" s="4">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="7">
+        <v>8003705122673</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D87" s="7">
+        <v>28003705122677</v>
+      </c>
+      <c r="E87" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="3">
-        <v>8003705123359</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D88" s="3">
-        <v>48003705123357</v>
-      </c>
-      <c r="E88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7">
+        <v>8003705116788</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D88" s="7">
+        <v>48003705116786</v>
+      </c>
+      <c r="E88" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="3">
-        <v>8003705123458</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D89" s="3">
-        <v>68003705123450</v>
-      </c>
-      <c r="E89" s="4">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="B89" s="7">
+        <v>8003705123359</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D89" s="7">
+        <v>48003705123357</v>
+      </c>
+      <c r="E89" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="3">
-        <v>8003705123441</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D90" s="3">
-        <v>68003705123443</v>
-      </c>
-      <c r="E90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7">
+        <v>8003705123458</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D90" s="7">
+        <v>68003705123450</v>
+      </c>
+      <c r="E90" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="3">
-        <v>8003705120082</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D91" s="3">
-        <v>68003705120084</v>
-      </c>
-      <c r="E91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7">
+        <v>8003705123441</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" s="7">
+        <v>68003705123443</v>
+      </c>
+      <c r="E91" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="3">
-        <v>8003705120105</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D92" s="3">
-        <v>68003705120107</v>
-      </c>
-      <c r="E92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>8003705120082</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D92" s="7">
+        <v>68003705120084</v>
+      </c>
+      <c r="E92" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="3">
-        <v>8003705123465</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" s="3">
-        <v>68003705123467</v>
-      </c>
-      <c r="E93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7">
+        <v>8003705120105</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D93" s="7">
+        <v>68003705120107</v>
+      </c>
+      <c r="E93" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="3">
-        <v>8003705123366</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D94" s="3">
-        <v>8003705123366</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="7">
+        <v>8003705123465</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D94" s="7">
+        <v>68003705123467</v>
+      </c>
+      <c r="E94" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="3">
-        <v>8003705123373</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D95" s="3">
-        <v>8003705123373</v>
-      </c>
-      <c r="E95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7">
+        <v>8003705123366</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D95" s="7">
+        <v>8003705123366</v>
+      </c>
+      <c r="E95" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="3">
-        <v>8003705122031</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D96" s="3">
-        <v>8003705122031</v>
-      </c>
-      <c r="E96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7">
+        <v>8003705123373</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="7">
+        <v>8003705123373</v>
+      </c>
+      <c r="E96" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="3">
-        <v>8003705123472</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D97" s="3">
-        <v>48003705123470</v>
-      </c>
-      <c r="E97" s="4">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="B97" s="7">
+        <v>8003705122031</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D97" s="7">
+        <v>8003705122031</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="3">
-        <v>8003705123496</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D98" s="3">
-        <v>8003705123496</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="B98" s="7">
+        <v>8003705123472</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D98" s="7">
+        <v>48003705123470</v>
+      </c>
+      <c r="E98" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="3">
-        <v>8003705116009</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D99" s="3">
-        <v>8003705116009</v>
-      </c>
-      <c r="E99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7">
+        <v>8003705123496</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" s="7">
+        <v>8003705123496</v>
+      </c>
+      <c r="E99" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="3">
-        <v>8003705123434</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D100" s="3">
-        <v>28003705123438</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="B100" s="7">
+        <v>8003705116009</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="7">
+        <v>8003705116009</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="3">
-        <v>8003705117945</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D101" s="3">
-        <v>48003705117943</v>
-      </c>
-      <c r="E101" s="4">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B101" s="7">
+        <v>8003705123434</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D101" s="7">
+        <v>28003705123438</v>
+      </c>
+      <c r="E101" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="3">
-        <v>8003705123540</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D102" s="3">
-        <v>48003705123548</v>
-      </c>
-      <c r="E102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7">
+        <v>8003705117945</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" s="7">
+        <v>48003705117943</v>
+      </c>
+      <c r="E102" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="3">
-        <v>8003705123618</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D103" s="3">
-        <v>48003705123616</v>
-      </c>
-      <c r="E103" s="4">
-        <v>4</v>
+        <v>731</v>
+      </c>
+      <c r="B103" s="7">
+        <v>6975337031338</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="3">
-        <v>8003705122291</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D104" s="3">
-        <v>48003705122299</v>
-      </c>
-      <c r="E104" s="4">
-        <v>4</v>
+        <v>729</v>
+      </c>
+      <c r="B104" s="7">
+        <v>6975337031345</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="3">
-        <v>8003705123861</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D105" s="3">
-        <v>48003705123869</v>
-      </c>
-      <c r="E105" s="4">
-        <v>4</v>
+        <v>727</v>
+      </c>
+      <c r="B105" s="7">
+        <v>6975337031024</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="3">
-        <v>8003705123878</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D106" s="3">
-        <v>48003705123876</v>
-      </c>
-      <c r="E106" s="4">
+        <v>102</v>
+      </c>
+      <c r="B106" s="7">
+        <v>8003705123540</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D106" s="7">
+        <v>48003705123548</v>
+      </c>
+      <c r="E106" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="3">
-        <v>8003705118980</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D107" s="3">
-        <v>48003705118988</v>
-      </c>
-      <c r="E107" s="4">
+        <v>103</v>
+      </c>
+      <c r="B107" s="7">
+        <v>8003705123618</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D107" s="7">
+        <v>48003705123616</v>
+      </c>
+      <c r="E107" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="3">
-        <v>8003705123519</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D108" s="3">
-        <v>48003705123517</v>
-      </c>
-      <c r="E108" s="4">
+        <v>104</v>
+      </c>
+      <c r="B108" s="7">
+        <v>8003705122291</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D108" s="7">
+        <v>48003705122299</v>
+      </c>
+      <c r="E108" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="3">
-        <v>8003705120730</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D109" s="3">
-        <v>48003705120738</v>
-      </c>
-      <c r="E109" s="4">
+        <v>105</v>
+      </c>
+      <c r="B109" s="7">
+        <v>8003705123861</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" s="7">
+        <v>48003705123869</v>
+      </c>
+      <c r="E109" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="3">
-        <v>8003705123625</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" s="3">
-        <v>48003705123623</v>
-      </c>
-      <c r="E110" s="4">
+        <v>106</v>
+      </c>
+      <c r="B110" s="7">
+        <v>8003705123878</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D110" s="7">
+        <v>48003705123876</v>
+      </c>
+      <c r="E110" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="3">
-        <v>8003705123533</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D111" s="3">
-        <v>48003705123531</v>
-      </c>
-      <c r="E111" s="4">
-        <v>5</v>
+        <v>107</v>
+      </c>
+      <c r="B111" s="7">
+        <v>8003705118980</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" s="7">
+        <v>48003705118988</v>
+      </c>
+      <c r="E111" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="3">
-        <v>8003705119000</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D112" s="3">
-        <v>48003705119008</v>
-      </c>
-      <c r="E112" s="4">
+        <v>108</v>
+      </c>
+      <c r="B112" s="7">
+        <v>8003705123519</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="7">
+        <v>48003705123517</v>
+      </c>
+      <c r="E112" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="3">
-        <v>8003705123601</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D113" s="3">
-        <v>48003705123609</v>
-      </c>
-      <c r="E113" s="4">
+        <v>109</v>
+      </c>
+      <c r="B113" s="7">
+        <v>8003705120730</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D113" s="7">
+        <v>48003705120738</v>
+      </c>
+      <c r="E113" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="3">
-        <v>8003705123342</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D114" s="3">
-        <v>48003705123340</v>
-      </c>
-      <c r="E114" s="4">
+        <v>110</v>
+      </c>
+      <c r="B114" s="7">
+        <v>8003705123625</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D114" s="7">
+        <v>48003705123623</v>
+      </c>
+      <c r="E114" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="3">
-        <v>8003705123397</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D115" s="3">
-        <v>8003705123397</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B115" s="7">
+        <v>8003705123533</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D115" s="7">
+        <v>48003705123531</v>
+      </c>
+      <c r="E115" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="3">
-        <v>8003705122451</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D116" s="3">
-        <v>8003705122451</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B116" s="7">
+        <v>8003705119000</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D116" s="7">
+        <v>48003705119008</v>
+      </c>
+      <c r="E116" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="3">
-        <v>8003705123403</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D117" s="3">
-        <v>8003705123403</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B117" s="7">
+        <v>8003705123601</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D117" s="7">
+        <v>48003705123609</v>
+      </c>
+      <c r="E117" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="3">
-        <v>8003705121386</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D118" s="3">
-        <v>8003705121386</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="B118" s="7">
+        <v>8003705123342</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D118" s="7">
+        <v>48003705123340</v>
+      </c>
+      <c r="E118" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="3">
-        <v>8003705122017</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D119" s="3">
-        <v>8003705122017</v>
-      </c>
-      <c r="E119" s="4">
+        <v>115</v>
+      </c>
+      <c r="B119" s="7">
+        <v>8003705123397</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="7">
+        <v>8003705123397</v>
+      </c>
+      <c r="E119" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="B120" s="3">
-        <v>8003705119376</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D120" s="3">
-        <v>48003705119374</v>
-      </c>
-      <c r="E120" s="4">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B120" s="7">
+        <v>8003705122451</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D120" s="7">
+        <v>8003705122451</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3">
-        <v>8004399324893</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B121" s="7">
+        <v>8003705123403</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" s="7">
+        <v>8003705123403</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="3">
-        <v>8004399324794</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="B122" s="7">
+        <v>8003705121386</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D122" s="7">
+        <v>8003705121386</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3">
-        <v>8004399321847</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="B123" s="7">
+        <v>8003705122017</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" s="7">
+        <v>8003705122017</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3">
-        <v>8004399321847</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="4"/>
+        <v>715</v>
+      </c>
+      <c r="B124" s="7">
+        <v>8003705119376</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D124" s="7">
+        <v>48003705119374</v>
+      </c>
+      <c r="E124" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3">
-        <v>8004399324787</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="B125" s="7">
+        <v>8004399324893</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="3">
-        <v>8004399325050</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D126" s="3">
-        <v>8004399325050</v>
-      </c>
-      <c r="E126" s="4">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B126" s="7">
+        <v>8004399324794</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3">
-        <v>7899980101158</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D127" s="3">
-        <v>7899980101158</v>
-      </c>
-      <c r="E127" s="4">
-        <v>10</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B127" s="7">
+        <v>8004399321847</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="3">
-        <v>7899980100151</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="B128" s="7">
+        <v>8004399321847</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" s="3">
-        <v>7899980100175</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="4">
-        <v>10</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B129" s="7">
+        <v>8004399324787</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3">
-        <v>8004399331051</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="4">
+        <v>125</v>
+      </c>
+      <c r="B130" s="7">
+        <v>8004399325050</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D130" s="7">
+        <v>8004399325050</v>
+      </c>
+      <c r="E130" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3">
-        <v>7899980100854</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E131" s="4">
+        <v>126</v>
+      </c>
+      <c r="B131" s="7">
+        <v>7899980101158</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D131" s="7">
+        <v>7899980101158</v>
+      </c>
+      <c r="E131" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3">
-        <v>7899980101066</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D132" s="3">
-        <v>17899980101063</v>
-      </c>
-      <c r="E132" s="4">
-        <v>10</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B132" s="7">
+        <v>7899980100151</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3">
-        <v>7899980100915</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D133" s="3">
-        <v>7899980100915</v>
-      </c>
-      <c r="E133" s="4">
+        <v>128</v>
+      </c>
+      <c r="B133" s="7">
+        <v>7899980100175</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E134" s="4">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="B134" s="7">
+        <v>8004399331051</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="3">
-        <v>7899980101455</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E135" s="4">
-        <v>100</v>
+        <v>130</v>
+      </c>
+      <c r="B135" s="7">
+        <v>7899980100854</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="E135" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" s="3">
-        <v>7899980101776</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D136" s="3">
-        <v>17899980101773</v>
-      </c>
-      <c r="E136" s="4">
+        <v>131</v>
+      </c>
+      <c r="B136" s="7">
+        <v>7899980101066</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D136" s="7">
+        <v>17899980101063</v>
+      </c>
+      <c r="E136" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="3">
-        <v>7899980101806</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D137" s="3">
-        <v>17899980101803</v>
-      </c>
-      <c r="E137" s="4">
+        <v>132</v>
+      </c>
+      <c r="B137" s="7">
+        <v>7899980100915</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D137" s="7">
+        <v>7899980100915</v>
+      </c>
+      <c r="E137" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="3">
-        <v>7899980101738</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D138" s="3">
-        <v>17899980101735</v>
-      </c>
-      <c r="E138" s="4">
+        <v>133</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E138" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3">
-        <v>7899980101769</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D139" s="3">
-        <v>7899980101769</v>
-      </c>
-      <c r="E139" s="4">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="B139" s="7">
+        <v>7899980101455</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="E139" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" s="3">
-        <v>7899980101714</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D140" s="3">
-        <v>1789998010</v>
-      </c>
-      <c r="E140" s="4">
-        <v>100</v>
+        <v>135</v>
+      </c>
+      <c r="B140" s="7">
+        <v>7899980101776</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D140" s="7">
+        <v>17899980101773</v>
+      </c>
+      <c r="E140" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3">
-        <v>7899980101677</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D141" s="3">
-        <v>17899980101674</v>
-      </c>
-      <c r="E141" s="4">
+        <v>136</v>
+      </c>
+      <c r="B141" s="7">
+        <v>7899980101806</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D141" s="7">
+        <v>17899980101803</v>
+      </c>
+      <c r="E141" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="3">
-        <v>7899980101684</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D142" s="3">
-        <v>17899980101681</v>
-      </c>
-      <c r="E142" s="4">
-        <v>10</v>
+        <v>137</v>
+      </c>
+      <c r="B142" s="7">
+        <v>7899980101738</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D142" s="7">
+        <v>17899980101735</v>
+      </c>
+      <c r="E142" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" s="3">
-        <v>7899980101943</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D143" s="3">
-        <v>7899980101943</v>
-      </c>
-      <c r="E143" s="4">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="B143" s="7">
+        <v>7899980101769</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D143" s="7">
+        <v>7899980101769</v>
+      </c>
+      <c r="E143" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="3">
-        <v>6971636401490</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="4">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="B144" s="7">
+        <v>7899980101714</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1789998010</v>
+      </c>
+      <c r="E144" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" s="3">
-        <v>6971636408017</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B145" s="7">
+        <v>7899980101677</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D145" s="7">
+        <v>17899980101674</v>
+      </c>
+      <c r="E145" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" s="3">
-        <v>6971636408185</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="B146" s="7">
+        <v>7899980101684</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D146" s="7">
+        <v>17899980101681</v>
+      </c>
+      <c r="E146" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="3">
-        <v>6971636402855</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4">
-        <v>12</v>
+        <v>142</v>
+      </c>
+      <c r="B147" s="7">
+        <v>7899980101943</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D147" s="7">
+        <v>7899980101943</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" s="3">
-        <v>6971636402671</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="4">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B148" s="7">
+        <v>6971636401490</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="3">
-        <v>6971636408154</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="B149" s="7">
+        <v>6971636408017</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="3">
-        <v>6971636408406</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4">
-        <v>12</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B150" s="7">
+        <v>6971636408185</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" s="3">
-        <v>6971636408161</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="4">
+        <v>146</v>
+      </c>
+      <c r="B151" s="7">
+        <v>6971636402855</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" s="3">
-        <v>6971636402916</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4">
+        <v>147</v>
+      </c>
+      <c r="B152" s="7">
+        <v>6971636402671</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" s="3">
-        <v>6971636403128</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="4">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B153" s="7">
+        <v>6971636408154</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154" s="3">
-        <v>6971636403425</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="4">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B154" s="7">
+        <v>6971636408406</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3">
-        <v>6971636403449</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="4">
-        <v>15</v>
+        <v>150</v>
+      </c>
+      <c r="B155" s="7">
+        <v>6971636408161</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" s="3">
-        <v>6971636403456</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="4">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="B156" s="7">
+        <v>6971636402916</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" s="3">
-        <v>6971636404637</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="4">
-        <v>15</v>
+        <v>152</v>
+      </c>
+      <c r="B157" s="7">
+        <v>6971636403128</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" s="3">
-        <v>6971636404569</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="4">
-        <v>15</v>
+        <v>153</v>
+      </c>
+      <c r="B158" s="7">
+        <v>6971636403425</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="3">
-        <v>6971636404699</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="4">
+        <v>154</v>
+      </c>
+      <c r="B159" s="7">
+        <v>6971636403449</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" s="3">
-        <v>6971636404170</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="B160" s="7">
+        <v>6971636403456</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161" s="3">
-        <v>6971636403579</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="4">
+        <v>156</v>
+      </c>
+      <c r="B161" s="7">
+        <v>6971636404637</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B162" s="3">
-        <v>6971636400981</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="4">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B162" s="7">
+        <v>6971636404569</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163" s="3">
-        <v>6971636403296</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="4">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="B163" s="7">
+        <v>6971636404699</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164" s="3">
-        <v>6971636402923</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D164" s="3">
-        <v>6971636402923</v>
-      </c>
-      <c r="E164" s="4">
+        <v>159</v>
+      </c>
+      <c r="B164" s="7">
+        <v>6971636404170</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B165" s="3">
-        <v>6971636402701</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D165" s="3">
-        <v>6971636402701</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="B165" s="7">
+        <v>6971636403579</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166" s="3">
-        <v>6971636403142</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="4">
-        <v>12</v>
+        <v>161</v>
+      </c>
+      <c r="B166" s="7">
+        <v>6971636400981</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167" s="3">
-        <v>6971636403388</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="4">
-        <v>12</v>
+        <v>162</v>
+      </c>
+      <c r="B167" s="7">
+        <v>6971636403296</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B168" s="3">
-        <v>6971636403487</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="4">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="B168" s="7">
+        <v>6971636402923</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" s="7">
+        <v>6971636402923</v>
+      </c>
+      <c r="E168" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="3">
-        <v>6971636403418</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="B169" s="7">
+        <v>6971636402701</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D169" s="7">
+        <v>6971636402701</v>
+      </c>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B170" s="3">
-        <v>6971636403043</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="B170" s="7">
+        <v>6971636403142</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" s="3">
-        <v>6971636403180</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="4">
+        <v>166</v>
+      </c>
+      <c r="B171" s="7">
+        <v>6971636403388</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172" s="3">
-        <v>6971636403241</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="4">
+        <v>167</v>
+      </c>
+      <c r="B172" s="7">
+        <v>6971636403487</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="3">
-        <v>6971636405627</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="4">
-        <v>12</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B173" s="7">
+        <v>6971636403418</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" s="3">
-        <v>6971636405801</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="4">
-        <v>12</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B174" s="7">
+        <v>6971636403043</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175" s="3">
-        <v>6971636401797</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="4">
+        <v>170</v>
+      </c>
+      <c r="B175" s="7">
+        <v>6971636403180</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176" s="3">
-        <v>6971636402954</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="4">
+        <v>171</v>
+      </c>
+      <c r="B176" s="7">
+        <v>6971636403241</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177" s="3">
-        <v>6971636403678</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="4">
-        <v>6</v>
+        <v>172</v>
+      </c>
+      <c r="B177" s="7">
+        <v>6971636405627</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178" s="3">
-        <v>6971636403111</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="4">
-        <v>6</v>
+        <v>173</v>
+      </c>
+      <c r="B178" s="7">
+        <v>6971636405801</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179" s="3">
-        <v>6971636403005</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D179" s="3"/>
-      <c r="E179" s="4">
-        <v>6</v>
+        <v>174</v>
+      </c>
+      <c r="B179" s="7">
+        <v>6971636401797</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="3">
-        <v>6971636403104</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="4">
-        <v>6</v>
+        <v>175</v>
+      </c>
+      <c r="B180" s="7">
+        <v>6971636402954</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181" s="3">
-        <v>6971636403654</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="4">
-        <v>12</v>
+        <v>176</v>
+      </c>
+      <c r="B181" s="7">
+        <v>6971636403678</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182" s="3">
-        <v>6971636405832</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="4">
-        <v>12</v>
+        <v>177</v>
+      </c>
+      <c r="B182" s="7">
+        <v>6971636403111</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183" s="3">
-        <v>6971636408901</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="B183" s="7">
+        <v>6971636403005</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D183" s="7"/>
+      <c r="E183" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184" s="3">
-        <v>6971636405733</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="4">
-        <v>12</v>
+        <v>179</v>
+      </c>
+      <c r="B184" s="7">
+        <v>6971636403104</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185" s="3">
-        <v>6971636405382</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="4">
+        <v>180</v>
+      </c>
+      <c r="B185" s="7">
+        <v>6971636403654</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D185" s="7"/>
+      <c r="E185" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186" s="3">
-        <v>6971636405481</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="4">
+        <v>181</v>
+      </c>
+      <c r="B186" s="7">
+        <v>6971636405832</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187" s="3">
-        <v>6971636405559</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="4">
-        <v>12</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B187" s="7">
+        <v>6971636408901</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" s="3">
-        <v>6971636405504</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="4">
+        <v>183</v>
+      </c>
+      <c r="B188" s="7">
+        <v>6971636405733</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" s="3">
-        <v>6971636403920</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="4">
-        <v>15</v>
+        <v>184</v>
+      </c>
+      <c r="B189" s="7">
+        <v>6971636405382</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D189" s="7"/>
+      <c r="E189" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" s="3">
-        <v>6971636403210</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="4">
-        <v>15</v>
+        <v>185</v>
+      </c>
+      <c r="B190" s="7">
+        <v>6971636405481</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D190" s="7"/>
+      <c r="E190" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" s="3">
-        <v>6971636402152</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="4">
-        <v>15</v>
+        <v>186</v>
+      </c>
+      <c r="B191" s="7">
+        <v>6971636405559</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D191" s="7"/>
+      <c r="E191" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="3">
-        <v>6971636402084</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="4">
-        <v>15</v>
+        <v>187</v>
+      </c>
+      <c r="B192" s="7">
+        <v>6971636405504</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" s="3">
-        <v>6971636402060</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="4">
+        <v>188</v>
+      </c>
+      <c r="B193" s="7">
+        <v>6971636403920</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" s="3">
-        <v>6971636402077</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="4">
+        <v>189</v>
+      </c>
+      <c r="B194" s="7">
+        <v>6971636403210</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" s="3">
-        <v>6971636402206</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="4">
+        <v>190</v>
+      </c>
+      <c r="B195" s="7">
+        <v>6971636402152</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D195" s="7"/>
+      <c r="E195" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" s="3">
-        <v>6971636402114</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="4">
+        <v>191</v>
+      </c>
+      <c r="B196" s="7">
+        <v>6971636402084</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D196" s="7"/>
+      <c r="E196" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" s="3">
-        <v>6971636402121</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="4">
+        <v>192</v>
+      </c>
+      <c r="B197" s="7">
+        <v>6971636402060</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D197" s="7"/>
+      <c r="E197" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" s="3">
-        <v>6971636402107</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="4">
+        <v>193</v>
+      </c>
+      <c r="B198" s="7">
+        <v>6971636402077</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D198" s="7"/>
+      <c r="E198" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199" s="3">
-        <v>6971636404590</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="4">
+        <v>194</v>
+      </c>
+      <c r="B199" s="7">
+        <v>6971636402206</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D199" s="7"/>
+      <c r="E199" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200" s="3">
-        <v>6971636401698</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="B200" s="7">
+        <v>6971636402114</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="3">
-        <v>6971636405474</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="4">
-        <v>12</v>
+        <v>196</v>
+      </c>
+      <c r="B201" s="7">
+        <v>6971636402121</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B202" s="3">
-        <v>5060301695010</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="B202" s="7">
+        <v>6971636402107</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D202" s="7"/>
+      <c r="E202" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203" s="3">
-        <v>6971636408499</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="4">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="B203" s="7">
+        <v>6971636404590</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D203" s="7"/>
+      <c r="E203" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="3">
-        <v>6971636407331</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="4">
-        <v>12</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B204" s="7">
+        <v>6971636401698</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="6"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" s="3">
-        <v>6971636407621</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="B205" s="7">
+        <v>6971636405474</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" s="3">
-        <v>6971636404293</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="4">
-        <v>12</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B206" s="7">
+        <v>5060301695010</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D206" s="7"/>
+      <c r="E206" s="6"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" s="3">
-        <v>6971636402633</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="4">
+        <v>202</v>
+      </c>
+      <c r="B207" s="7">
+        <v>6971636408499</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D207" s="7"/>
+      <c r="E207" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" s="3">
-        <v>6971636403081</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="B208" s="7">
+        <v>6971636407331</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D208" s="7"/>
+      <c r="E208" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" s="3">
-        <v>6971636402527</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="4">
-        <v>12</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B209" s="7">
+        <v>6971636407621</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D209" s="7"/>
+      <c r="E209" s="6"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" s="3">
-        <v>6971636403166</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D210" s="3"/>
-      <c r="E210" s="4">
+        <v>205</v>
+      </c>
+      <c r="B210" s="7">
+        <v>6971636404293</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D210" s="7"/>
+      <c r="E210" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211" s="3">
-        <v>6977905740109</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="4">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="B211" s="7">
+        <v>6971636402633</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212" s="3">
-        <v>6971636405719</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D212" s="3">
-        <v>6971636405719</v>
-      </c>
-      <c r="E212" s="4">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B212" s="7">
+        <v>6971636403081</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D212" s="7"/>
+      <c r="E212" s="6"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213" s="3">
-        <v>6977905740093</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="4">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="B213" s="7">
+        <v>6971636402527</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D213" s="7"/>
+      <c r="E213" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214" s="3">
-        <v>6977905740116</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D214" s="3">
-        <v>6977905740116</v>
-      </c>
-      <c r="E214" s="4">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="B214" s="7">
+        <v>6971636403166</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D214" s="7"/>
+      <c r="E214" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215" s="3">
-        <v>6977905741021</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="4">
-        <v>6</v>
+        <v>210</v>
+      </c>
+      <c r="B215" s="7">
+        <v>6977905740109</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216" s="3">
-        <v>6977905741014</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="4">
-        <v>12</v>
+        <v>211</v>
+      </c>
+      <c r="B216" s="7">
+        <v>6971636405719</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D216" s="7">
+        <v>6971636405719</v>
+      </c>
+      <c r="E216" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217" s="3">
-        <v>6977905741069</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D217" s="3"/>
-      <c r="E217" s="4">
-        <v>6</v>
+        <v>212</v>
+      </c>
+      <c r="B217" s="7">
+        <v>6977905740093</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D217" s="7"/>
+      <c r="E217" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B218" s="3">
-        <v>6977905741076</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="4">
-        <v>6</v>
+        <v>213</v>
+      </c>
+      <c r="B218" s="7">
+        <v>6977905740116</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D218" s="7">
+        <v>6977905740116</v>
+      </c>
+      <c r="E218" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219" s="3">
-        <v>6977905741083</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="4">
-        <v>12</v>
+        <v>214</v>
+      </c>
+      <c r="B219" s="7">
+        <v>6977905741021</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220" s="3">
-        <v>6977905741052</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="4">
-        <v>6</v>
+        <v>215</v>
+      </c>
+      <c r="B220" s="7">
+        <v>6977905741014</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" s="3">
-        <v>6977905741038</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="4">
+        <v>216</v>
+      </c>
+      <c r="B221" s="7">
+        <v>6977905741069</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222" s="3">
-        <v>6977905741045</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="4">
+        <v>217</v>
+      </c>
+      <c r="B222" s="7">
+        <v>6977905741076</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" s="3">
-        <v>5056547205519</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D223" s="3">
-        <v>5056547205519</v>
-      </c>
-      <c r="E223" s="4">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="B223" s="7">
+        <v>6977905741083</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D223" s="7"/>
+      <c r="E223" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" s="3">
-        <v>5060301697021</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D224" s="3">
-        <v>5060301697021</v>
-      </c>
-      <c r="E224" s="4">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="B224" s="7">
+        <v>6977905741052</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D224" s="7"/>
+      <c r="E224" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225" s="3">
-        <v>5056547202440</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D225" s="3">
-        <v>5056547202440</v>
-      </c>
-      <c r="E225" s="4">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="B225" s="7">
+        <v>6977905741038</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226" s="3">
-        <v>5056547204062</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D226" s="3">
-        <v>5056547204062</v>
-      </c>
-      <c r="E226" s="4">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="B226" s="7">
+        <v>6977905741045</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D226" s="7"/>
+      <c r="E226" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B227" s="3">
+        <v>222</v>
+      </c>
+      <c r="B227" s="7">
         <v>5056547205519</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D227" s="3">
+      <c r="C227" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D227" s="7">
         <v>5056547205519</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228" s="3">
-        <v>5056547202686</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D228" s="3">
-        <v>5056547202686</v>
-      </c>
-      <c r="E228" s="4">
-        <v>6</v>
+        <v>223</v>
+      </c>
+      <c r="B228" s="7">
+        <v>5060301697021</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D228" s="7">
+        <v>5060301697021</v>
+      </c>
+      <c r="E228" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229" s="3">
-        <v>5056547202273</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D229" s="3">
-        <v>5056547202273</v>
-      </c>
-      <c r="E229" s="4">
-        <v>6</v>
+        <v>224</v>
+      </c>
+      <c r="B229" s="7">
+        <v>5056547202440</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D229" s="7">
+        <v>5056547202440</v>
+      </c>
+      <c r="E229" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" s="3">
-        <v>5056547202266</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D230" s="3">
-        <v>5056547202266</v>
-      </c>
-      <c r="E230" s="4">
-        <v>6</v>
+        <v>225</v>
+      </c>
+      <c r="B230" s="7">
+        <v>5056547204062</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D230" s="7">
+        <v>5056547204062</v>
+      </c>
+      <c r="E230" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231" s="3">
-        <v>42005175604</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D231" s="3"/>
-      <c r="E231" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="B231" s="7">
+        <v>5056547205519</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D231" s="7">
+        <v>5056547205519</v>
+      </c>
+      <c r="E231" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232" s="3">
-        <v>4961310157364</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="4">
-        <v>50</v>
+        <v>227</v>
+      </c>
+      <c r="B232" s="7">
+        <v>5056547202686</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D232" s="7">
+        <v>5056547202686</v>
+      </c>
+      <c r="E232" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233" s="3">
-        <v>4961310128548</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="B233" s="7">
+        <v>5056547202273</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D233" s="7">
+        <v>5056547202273</v>
+      </c>
+      <c r="E233" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" s="3">
-        <v>4961310128579</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="B234" s="7">
+        <v>5056547202266</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D234" s="7">
+        <v>5056547202266</v>
+      </c>
+      <c r="E234" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235" s="3">
-        <v>4961310133597</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D235" s="3">
-        <v>4961310133597</v>
-      </c>
-      <c r="E235" s="4">
-        <v>20</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B235" s="7">
+        <v>42005175604</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D235" s="7"/>
+      <c r="E235" s="6"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236" s="3">
-        <v>4961310133603</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D236" s="3"/>
-      <c r="E236" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="B236" s="7">
+        <v>4961310157364</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D236" s="7"/>
+      <c r="E236" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" s="3">
-        <v>4961310128555</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D237" s="3"/>
-      <c r="E237" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="B237" s="7">
+        <v>4961310128548</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D237" s="7"/>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" s="3">
-        <v>4961310133634</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E238" s="4">
-        <v>20</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B238" s="7">
+        <v>4961310128579</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D238" s="7"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" s="3">
-        <v>4961310157302</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E239" s="4">
-        <v>50</v>
+        <v>234</v>
+      </c>
+      <c r="B239" s="7">
+        <v>4961310133597</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D239" s="7">
+        <v>4961310133597</v>
+      </c>
+      <c r="E239" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" s="3">
-        <v>42005206988</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D240" s="3">
-        <v>42005206988</v>
-      </c>
-      <c r="E240" s="4">
-        <v>2</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B240" s="7">
+        <v>4961310133603</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D240" s="7"/>
+      <c r="E240" s="6"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" s="3">
-        <v>42005206971</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D241" s="3"/>
-      <c r="E241" s="4">
-        <v>1</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B241" s="7">
+        <v>4961310128555</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" s="3">
-        <v>42005207015</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D242" s="3">
-        <v>42005207015</v>
-      </c>
-      <c r="E242" s="4">
-        <v>2</v>
+        <v>237</v>
+      </c>
+      <c r="B242" s="7">
+        <v>4961310133634</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E242" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" s="3">
-        <v>420052070088</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D243" s="3">
-        <v>420052070088</v>
-      </c>
-      <c r="E243" s="4">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="B243" s="7">
+        <v>4961310157302</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E243" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" s="3">
-        <v>4961310143725</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D244" s="3">
-        <v>42005203918</v>
-      </c>
-      <c r="E244" s="4">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="B244" s="7">
+        <v>42005206988</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D244" s="7">
+        <v>42005206988</v>
+      </c>
+      <c r="E244" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245" s="3">
-        <v>42005204892</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E245" s="4">
-        <v>20</v>
+        <v>240</v>
+      </c>
+      <c r="B245" s="7">
+        <v>42005206971</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D245" s="7"/>
+      <c r="E245" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246" s="3">
-        <v>42005204922</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E246" s="4">
-        <v>40</v>
+        <v>241</v>
+      </c>
+      <c r="B246" s="7">
+        <v>42005207015</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D246" s="7">
+        <v>42005207015</v>
+      </c>
+      <c r="E246" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247" s="3">
-        <v>42005208272</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D247" s="3">
-        <v>42005208272</v>
-      </c>
-      <c r="E247" s="4">
-        <v>2</v>
+        <v>242</v>
+      </c>
+      <c r="B247" s="7">
+        <v>420052070088</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D247" s="7">
+        <v>420052070088</v>
+      </c>
+      <c r="E247" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248" s="3">
-        <v>42005134311</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E248" s="4">
-        <v>10</v>
+        <v>243</v>
+      </c>
+      <c r="B248" s="7">
+        <v>4961310143725</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D248" s="7">
+        <v>42005203918</v>
+      </c>
+      <c r="E248" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B249" s="3">
-        <v>42005204823</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E249" s="4">
-        <v>10</v>
+        <v>244</v>
+      </c>
+      <c r="B249" s="7">
+        <v>42005204892</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E249" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250" s="3">
-        <v>4961310156497</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E250" s="4">
-        <v>10</v>
+        <v>245</v>
+      </c>
+      <c r="B250" s="7">
+        <v>42005204922</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E250" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251" s="3">
-        <v>4961310156510</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E251" s="4">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="B251" s="7">
+        <v>42005208272</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D251" s="7">
+        <v>42005208272</v>
+      </c>
+      <c r="E251" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B252" s="3">
-        <v>4961310156527</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E252" s="4">
+        <v>247</v>
+      </c>
+      <c r="B252" s="7">
+        <v>42005134311</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="E252" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B253" s="3">
-        <v>4961310156992</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E253" s="4">
+        <v>248</v>
+      </c>
+      <c r="B253" s="7">
+        <v>42005204823</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="E253" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254" s="3">
-        <v>4961310156985</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E254" s="4">
+        <v>249</v>
+      </c>
+      <c r="B254" s="7">
+        <v>4961310156497</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E254" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" s="3">
-        <v>42005166312</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E255" s="4">
-        <v>50</v>
+        <v>250</v>
+      </c>
+      <c r="B255" s="7">
+        <v>4961310156510</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E255" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B256" s="3">
-        <v>4961310147075</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="B256" s="7">
+        <v>4961310156527</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E256" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B257" s="3">
-        <v>4961310157319</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D257" s="3"/>
-      <c r="E257" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="B257" s="7">
+        <v>4961310156992</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E257" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B258" s="3">
-        <v>4961310137663</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D258" s="3"/>
-      <c r="E258" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="B258" s="7">
+        <v>4961310156985</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E258" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" s="3">
-        <v>42005175154</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E259" s="4">
-        <v>20</v>
+        <v>254</v>
+      </c>
+      <c r="B259" s="7">
+        <v>42005166312</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E259" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260" s="3">
-        <v>4961310137557</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D260" s="3"/>
-      <c r="E260" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="B260" s="7">
+        <v>4961310147075</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="6"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261" s="3">
-        <v>4961310137533</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D261" s="3"/>
-      <c r="E261" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="B261" s="7">
+        <v>4961310157319</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D261" s="7"/>
+      <c r="E261" s="6"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B262" s="3">
-        <v>4961310158170</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D262" s="3"/>
-      <c r="E262" s="4">
-        <v>10</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B262" s="7">
+        <v>4961310137663</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D262" s="7"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B263" s="3">
-        <v>4961310156169</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D263" s="3">
-        <v>42005209927</v>
-      </c>
-      <c r="E263" s="4">
+        <v>258</v>
+      </c>
+      <c r="B263" s="7">
+        <v>42005175154</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E263" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264" s="3">
-        <v>4961310136765</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D264" s="3">
-        <v>42005192328</v>
-      </c>
-      <c r="E264" s="4">
-        <v>10</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B264" s="7">
+        <v>4961310137557</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D264" s="7"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265" s="3">
-        <v>4961310156978</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D265" s="3"/>
-      <c r="E265" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="B265" s="7">
+        <v>4961310137533</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D265" s="7"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266" s="3">
-        <v>42005197088</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D266" s="3">
-        <v>42005197088</v>
-      </c>
-      <c r="E266" s="4">
-        <v>5</v>
+        <v>261</v>
+      </c>
+      <c r="B266" s="7">
+        <v>4961310158170</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D266" s="7"/>
+      <c r="E266" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267" s="3">
-        <v>4961310081348</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D267" s="3">
-        <v>42005134953</v>
-      </c>
-      <c r="E267" s="4">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="B267" s="7">
+        <v>4961310156169</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D267" s="7">
+        <v>42005209927</v>
+      </c>
+      <c r="E267" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B268" s="3">
-        <v>4961310125400</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D268" s="3">
-        <v>4961310125400</v>
-      </c>
-      <c r="E268" s="4">
+        <v>263</v>
+      </c>
+      <c r="B268" s="7">
+        <v>4961310136765</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D268" s="7">
+        <v>42005192328</v>
+      </c>
+      <c r="E268" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" s="3">
-        <v>4961310125417</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D269" s="3">
-        <v>42005183524</v>
-      </c>
-      <c r="E269" s="4">
-        <v>10</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B269" s="7">
+        <v>4961310156978</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D269" s="7"/>
+      <c r="E269" s="6"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270" s="3">
-        <v>4961310125424</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D270" s="3">
-        <v>42005183531</v>
-      </c>
-      <c r="E270" s="4">
-        <v>10</v>
+        <v>265</v>
+      </c>
+      <c r="B270" s="7">
+        <v>42005197088</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D270" s="7">
+        <v>42005197088</v>
+      </c>
+      <c r="E270" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271" s="3">
-        <v>4961310125431</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D271" s="3">
-        <v>4961310125431</v>
-      </c>
-      <c r="E271" s="4">
+        <v>266</v>
+      </c>
+      <c r="B271" s="7">
+        <v>4961310081348</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D271" s="7">
+        <v>42005134953</v>
+      </c>
+      <c r="E271" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272" s="3">
-        <v>4961310144333</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D272" s="3"/>
-      <c r="E272" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="B272" s="7">
+        <v>4961310125400</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D272" s="7">
+        <v>4961310125400</v>
+      </c>
+      <c r="E272" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273" s="3">
-        <v>4961310125462</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D273" s="3">
-        <v>4961310125462</v>
-      </c>
-      <c r="E273" s="4">
+        <v>268</v>
+      </c>
+      <c r="B273" s="7">
+        <v>4961310125417</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D273" s="7">
+        <v>42005183524</v>
+      </c>
+      <c r="E273" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274" s="3">
-        <v>42005204953</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D274" s="3">
-        <v>42005204953</v>
-      </c>
-      <c r="E274" s="4">
-        <v>20</v>
+        <v>269</v>
+      </c>
+      <c r="B274" s="7">
+        <v>4961310125424</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D274" s="7">
+        <v>42005183531</v>
+      </c>
+      <c r="E274" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275" s="3">
-        <v>4961310145620</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D275" s="3"/>
-      <c r="E275" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="B275" s="7">
+        <v>4961310125431</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D275" s="7">
+        <v>4961310125431</v>
+      </c>
+      <c r="E275" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276" s="3">
-        <v>4961310157357</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D276" s="3">
-        <v>42005201365</v>
-      </c>
-      <c r="E276" s="4">
-        <v>50</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B276" s="7">
+        <v>4961310144333</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D276" s="7"/>
+      <c r="E276" s="6"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277" s="3">
-        <v>4961310146627</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="D277" s="3">
-        <v>42005202430</v>
-      </c>
-      <c r="E277" s="4">
+        <v>272</v>
+      </c>
+      <c r="B277" s="7">
+        <v>4961310125462</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D277" s="7">
+        <v>4961310125462</v>
+      </c>
+      <c r="E277" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278" s="3">
-        <v>4961310118617</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D278" s="3">
-        <v>42005177219</v>
-      </c>
-      <c r="E278" s="4">
-        <v>10</v>
+        <v>273</v>
+      </c>
+      <c r="B278" s="7">
+        <v>42005204953</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D278" s="7">
+        <v>42005204953</v>
+      </c>
+      <c r="E278" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279" s="3">
-        <v>4961310118631</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D279" s="3">
-        <v>42005179367</v>
-      </c>
-      <c r="E279" s="4">
-        <v>10</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B279" s="7">
+        <v>4961310145620</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D279" s="7"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280" s="3">
-        <v>4961310147068</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D280" s="3"/>
-      <c r="E280" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="B280" s="7">
+        <v>4961310157357</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D280" s="7">
+        <v>42005201365</v>
+      </c>
+      <c r="E280" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281" s="3">
-        <v>4961310137656</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="D281" s="3"/>
-      <c r="E281" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="B281" s="7">
+        <v>4961310146627</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D281" s="7">
+        <v>42005202430</v>
+      </c>
+      <c r="E281" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282" s="3">
-        <v>4961310116323</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="D282" s="3">
-        <v>42005178124</v>
-      </c>
-      <c r="E282" s="4">
+        <v>277</v>
+      </c>
+      <c r="B282" s="7">
+        <v>4961310118617</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D282" s="7">
+        <v>42005177219</v>
+      </c>
+      <c r="E282" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283" s="3">
-        <v>42005197118</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D283" s="3">
-        <v>42005197118</v>
-      </c>
-      <c r="E283" s="4">
-        <v>5</v>
+        <v>278</v>
+      </c>
+      <c r="B283" s="7">
+        <v>4961310118631</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D283" s="7">
+        <v>42005179367</v>
+      </c>
+      <c r="E283" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284" s="3">
-        <v>4961310146009</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="B284" s="7">
+        <v>4961310147068</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D284" s="7"/>
+      <c r="E284" s="6"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285" s="3">
-        <v>4961310158491</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="D285" s="3">
-        <v>4961310158491</v>
-      </c>
-      <c r="E285" s="4">
-        <v>1</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B285" s="7">
+        <v>4961310137656</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D285" s="7"/>
+      <c r="E285" s="6"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286" s="3">
-        <v>4961310130770</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="D286" s="3">
-        <v>42005187232</v>
-      </c>
-      <c r="E286" s="4">
+        <v>281</v>
+      </c>
+      <c r="B286" s="7">
+        <v>4961310116323</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D286" s="7">
+        <v>42005178124</v>
+      </c>
+      <c r="E286" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287" s="3">
-        <v>4961310137793</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D287" s="3">
-        <v>42005127955</v>
-      </c>
-      <c r="E287" s="4">
+        <v>282</v>
+      </c>
+      <c r="B287" s="7">
+        <v>42005197118</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D287" s="7">
+        <v>42005197118</v>
+      </c>
+      <c r="E287" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B288" s="3">
-        <v>4961310132750</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="D288" s="3">
-        <v>42005187782</v>
-      </c>
-      <c r="E288" s="4">
-        <v>10</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B288" s="7">
+        <v>4961310146009</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D288" s="7"/>
+      <c r="E288" s="6"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289" s="3">
-        <v>42005204830</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="D289" s="3">
-        <v>42005204830</v>
-      </c>
-      <c r="E289" s="4">
-        <v>20</v>
+        <v>284</v>
+      </c>
+      <c r="B289" s="7">
+        <v>4961310158491</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D289" s="7">
+        <v>4961310158491</v>
+      </c>
+      <c r="E289" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290" s="3">
-        <v>4961310132767</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D290" s="3">
-        <v>42005187799</v>
-      </c>
-      <c r="E290" s="4">
+        <v>285</v>
+      </c>
+      <c r="B290" s="7">
+        <v>4961310130770</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D290" s="7">
+        <v>42005187232</v>
+      </c>
+      <c r="E290" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291" s="3">
-        <v>4961310137564</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="D291" s="3"/>
-      <c r="E291" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="B291" s="7">
+        <v>4961310137793</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D291" s="7">
+        <v>42005127955</v>
+      </c>
+      <c r="E291" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B292" s="3">
-        <v>4961310157418</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D292" s="3">
-        <v>42005195800</v>
-      </c>
-      <c r="E292" s="4">
-        <v>50</v>
+        <v>287</v>
+      </c>
+      <c r="B292" s="7">
+        <v>4961310132750</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D292" s="7">
+        <v>42005187782</v>
+      </c>
+      <c r="E292" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B293" s="3">
-        <v>4961310135171</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D293" s="3"/>
-      <c r="E293" s="4"/>
+        <v>288</v>
+      </c>
+      <c r="B293" s="7">
+        <v>42005204830</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D293" s="7">
+        <v>42005204830</v>
+      </c>
+      <c r="E293" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B294" s="3">
-        <v>4961310158095</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D294" s="3"/>
-      <c r="E294" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="B294" s="7">
+        <v>4961310132767</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D294" s="7">
+        <v>42005187799</v>
+      </c>
+      <c r="E294" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B295" s="3">
-        <v>4961310130954</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D295" s="3"/>
-      <c r="E295" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="B295" s="7">
+        <v>4961310137564</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D295" s="7"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B296" s="3">
-        <v>4961310137816</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D296" s="3">
-        <v>42005195305</v>
-      </c>
-      <c r="E296" s="4">
-        <v>5</v>
+        <v>291</v>
+      </c>
+      <c r="B296" s="7">
+        <v>4961310157418</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D296" s="7">
+        <v>42005195800</v>
+      </c>
+      <c r="E296" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B297" s="3">
-        <v>4961310137854</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="D297" s="3"/>
-      <c r="E297" s="4">
-        <v>5</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B297" s="7">
+        <v>4961310135171</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D297" s="7"/>
+      <c r="E297" s="6"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B298" s="3">
-        <v>4961310137830</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="D298" s="3"/>
-      <c r="E298" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="B298" s="7">
+        <v>4961310158095</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D298" s="7"/>
+      <c r="E298" s="6"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B299" s="3">
-        <v>4961310125400</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="D299" s="3">
-        <v>42005183517</v>
-      </c>
-      <c r="E299" s="4">
-        <v>10</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B299" s="7">
+        <v>4961310130954</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D299" s="7"/>
+      <c r="E299" s="6"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B300" s="3">
-        <v>4961310155858</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="D300" s="3">
-        <v>42005210688</v>
-      </c>
-      <c r="E300" s="4">
+        <v>295</v>
+      </c>
+      <c r="B300" s="7">
+        <v>4961310137816</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D300" s="7">
+        <v>42005195305</v>
+      </c>
+      <c r="E300" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B301" s="3">
-        <v>42005197101</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="D301" s="3"/>
-      <c r="E301" s="4">
+        <v>296</v>
+      </c>
+      <c r="B301" s="7">
+        <v>4961310137854</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D301" s="7"/>
+      <c r="E301" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B302" s="3">
-        <v>42005197118</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D302" s="3">
-        <v>42005197118</v>
-      </c>
-      <c r="E302" s="4">
-        <v>5</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B302" s="7">
+        <v>4961310137830</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D302" s="7"/>
+      <c r="E302" s="6"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B303" s="3">
-        <v>4961310064211</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="D303" s="3">
-        <v>42005125159</v>
-      </c>
-      <c r="E303" s="4">
+        <v>298</v>
+      </c>
+      <c r="B303" s="7">
+        <v>4961310125400</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D303" s="7">
+        <v>42005183517</v>
+      </c>
+      <c r="E303" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B304" s="3">
-        <v>4961310089054</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D304" s="3">
-        <v>42005144716</v>
-      </c>
-      <c r="E304" s="4">
-        <v>10</v>
+        <v>299</v>
+      </c>
+      <c r="B304" s="7">
+        <v>4961310155858</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D304" s="7">
+        <v>42005210688</v>
+      </c>
+      <c r="E304" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B305" s="3">
-        <v>4961310113438</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D305" s="3">
-        <v>42005173501</v>
-      </c>
-      <c r="E305" s="4">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="B305" s="7">
+        <v>42005197101</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D305" s="7"/>
+      <c r="E305" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B306" s="3">
-        <v>4961310113445</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D306" s="3">
-        <v>42005173495</v>
-      </c>
-      <c r="E306" s="4">
+        <v>301</v>
+      </c>
+      <c r="B306" s="7">
+        <v>42005197118</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D306" s="7">
+        <v>42005197118</v>
+      </c>
+      <c r="E306" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B307" s="3">
-        <v>4961310089023</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D307" s="3">
-        <v>42005144686</v>
-      </c>
-      <c r="E307" s="4">
+        <v>302</v>
+      </c>
+      <c r="B307" s="7">
+        <v>4961310064211</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D307" s="7">
+        <v>42005125159</v>
+      </c>
+      <c r="E307" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B308" s="3">
-        <v>42005197057</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D308" s="3"/>
-      <c r="E308" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="B308" s="7">
+        <v>4961310089054</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D308" s="7">
+        <v>42005144716</v>
+      </c>
+      <c r="E308" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B309" s="3">
-        <v>4961310089016</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D309" s="3">
-        <v>42005144679</v>
-      </c>
-      <c r="E309" s="4">
+        <v>304</v>
+      </c>
+      <c r="B309" s="7">
+        <v>4961310113438</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D309" s="7">
+        <v>42005173501</v>
+      </c>
+      <c r="E309" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B310" s="3">
-        <v>4961310143480</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E310" s="4">
+        <v>305</v>
+      </c>
+      <c r="B310" s="7">
+        <v>4961310113445</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D310" s="7">
+        <v>42005173495</v>
+      </c>
+      <c r="E310" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B311" s="3">
-        <v>42005204847</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E311" s="4">
-        <v>20</v>
+        <v>306</v>
+      </c>
+      <c r="B311" s="7">
+        <v>4961310089023</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D311" s="7">
+        <v>42005144686</v>
+      </c>
+      <c r="E311" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B312" s="3">
-        <v>42005204854</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E312" s="4">
-        <v>20</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B312" s="7">
+        <v>42005197057</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D312" s="7"/>
+      <c r="E312" s="6"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B313" s="3">
-        <v>4961310118594</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E313" s="4">
+        <v>308</v>
+      </c>
+      <c r="B313" s="7">
+        <v>4961310089016</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D313" s="7">
+        <v>42005144679</v>
+      </c>
+      <c r="E313" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B314" s="3">
-        <v>42005211227</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="D314" s="3">
-        <v>42005211227</v>
-      </c>
-      <c r="E314" s="4">
-        <v>2</v>
+        <v>309</v>
+      </c>
+      <c r="B314" s="7">
+        <v>4961310143480</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E314" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B315" s="3">
-        <v>240207931713</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D315" s="3"/>
-      <c r="E315" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="B315" s="7">
+        <v>42005204847</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E315" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B316" s="3">
-        <v>4961310153250</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E316" s="4">
-        <v>10</v>
+        <v>311</v>
+      </c>
+      <c r="B316" s="7">
+        <v>42005204854</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E316" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B317" s="3">
-        <v>4961310160012</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E317" s="4">
-        <v>4</v>
+        <v>312</v>
+      </c>
+      <c r="B317" s="7">
+        <v>4961310118594</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E317" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B318" s="3">
-        <v>4961310159658</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D318" s="3">
-        <v>1.94961310159658E+21</v>
-      </c>
-      <c r="E318" s="4">
-        <v>10</v>
+        <v>313</v>
+      </c>
+      <c r="B318" s="7">
+        <v>42005211227</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D318" s="7">
+        <v>42005211227</v>
+      </c>
+      <c r="E318" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B319" s="3">
-        <v>4961310154981</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D319" s="3">
-        <v>42005207909</v>
-      </c>
-      <c r="E319" s="4">
-        <v>2</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B319" s="7">
+        <v>240207931713</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D319" s="7"/>
+      <c r="E319" s="6"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B320" s="3">
-        <v>42005213429</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D320" s="3">
-        <v>42005213429</v>
-      </c>
-      <c r="E320" s="4">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="B320" s="7">
+        <v>4961310153250</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E320" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B321" s="3">
-        <v>4961310116330</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D321" s="3">
-        <v>1.9496131011633E+21</v>
-      </c>
-      <c r="E321" s="4">
-        <v>10</v>
+        <v>316</v>
+      </c>
+      <c r="B321" s="7">
+        <v>4961310160012</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="E321" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B322" s="3">
-        <v>42005210619</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="D322" s="3">
-        <v>42005210619</v>
-      </c>
-      <c r="E322" s="4">
-        <v>4</v>
+        <v>317</v>
+      </c>
+      <c r="B322" s="7">
+        <v>4961310159658</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D322" s="7">
+        <v>1.94961310159658E+21</v>
+      </c>
+      <c r="E322" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B323" s="3">
-        <v>4961310156183</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E323" s="4">
-        <v>10</v>
+        <v>318</v>
+      </c>
+      <c r="B323" s="7">
+        <v>4961310154981</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D323" s="7">
+        <v>42005207909</v>
+      </c>
+      <c r="E323" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B324" s="3">
-        <v>4961310088507</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="E324" s="4">
-        <v>10</v>
+        <v>319</v>
+      </c>
+      <c r="B324" s="7">
+        <v>42005213429</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D324" s="7">
+        <v>42005213429</v>
+      </c>
+      <c r="E324" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B325" s="3">
-        <v>4961310160029</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E325" s="4">
-        <v>4</v>
+        <v>320</v>
+      </c>
+      <c r="B325" s="7">
+        <v>4961310116330</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D325" s="7">
+        <v>1.9496131011633E+21</v>
+      </c>
+      <c r="E325" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B326" s="3">
-        <v>4961310160036</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E326" s="4">
+        <v>321</v>
+      </c>
+      <c r="B326" s="7">
+        <v>42005210619</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D326" s="7">
+        <v>42005210619</v>
+      </c>
+      <c r="E326" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B327" s="3">
-        <v>42005208258</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D327" s="3">
-        <v>42005208258</v>
-      </c>
-      <c r="E327" s="4">
-        <v>4</v>
+        <v>322</v>
+      </c>
+      <c r="B327" s="7">
+        <v>4961310156183</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E327" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B328" s="3">
-        <v>4961310064228</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E328" s="4">
+        <v>323</v>
+      </c>
+      <c r="B328" s="7">
+        <v>4961310088507</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E328" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B329" s="3">
-        <v>4961310163440</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D329" s="3">
-        <v>4961310163440</v>
-      </c>
-      <c r="E329" s="4">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="B329" s="7">
+        <v>4961310160029</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E329" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B330" s="3">
-        <v>4961310163501</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D330" s="3">
-        <v>4961310163501</v>
-      </c>
-      <c r="E330" s="4">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="B330" s="7">
+        <v>4961310160036</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E330" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B331" s="3">
-        <v>4961310161934</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E331" s="4">
-        <v>20</v>
+        <v>326</v>
+      </c>
+      <c r="B331" s="7">
+        <v>42005208258</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D331" s="7">
+        <v>42005208258</v>
+      </c>
+      <c r="E331" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B332" s="3">
-        <v>4961310162009</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="D332" s="3"/>
-      <c r="E332" s="4">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="B332" s="7">
+        <v>4961310064228</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E332" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B333" s="3">
-        <v>4961310162542</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D333" s="3"/>
-      <c r="E333" s="4">
-        <v>50</v>
+        <v>328</v>
+      </c>
+      <c r="B333" s="7">
+        <v>4961310163440</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D333" s="7">
+        <v>4961310163440</v>
+      </c>
+      <c r="E333" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B334" s="3">
-        <v>42005214969</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D334" s="3"/>
-      <c r="E334" s="4">
-        <v>2</v>
+        <v>329</v>
+      </c>
+      <c r="B334" s="7">
+        <v>4961310163501</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D334" s="7">
+        <v>4961310163501</v>
+      </c>
+      <c r="E334" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B335" s="3">
-        <v>4961310136734</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E335" s="4">
-        <v>10</v>
+        <v>330</v>
+      </c>
+      <c r="B335" s="7">
+        <v>4961310161934</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E335" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B336" s="3">
-        <v>42005198993</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D336" s="3"/>
-      <c r="E336" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="B336" s="7">
+        <v>4961310162009</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D336" s="7"/>
+      <c r="E336" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B337" s="3">
-        <v>4961310141776</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="D337" s="3"/>
-      <c r="E337" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="B337" s="7">
+        <v>4961310162542</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D337" s="7"/>
+      <c r="E337" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B338" s="3">
-        <v>4961310143428</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D338" s="3"/>
-      <c r="E338" s="4">
-        <v>5</v>
+        <v>333</v>
+      </c>
+      <c r="B338" s="7">
+        <v>42005214969</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D338" s="7"/>
+      <c r="E338" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B339" s="3">
-        <v>42005196920</v>
-      </c>
-      <c r="C339" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="D339" s="3"/>
-      <c r="E339" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="B339" s="7">
+        <v>4961310136734</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E339" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B340" s="3">
-        <v>42005189830</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D340" s="3"/>
-      <c r="E340" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="B340" s="7">
+        <v>42005198993</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D340" s="7"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B341" s="3">
-        <v>846504005000</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D341" s="3">
-        <v>846504005000</v>
-      </c>
-      <c r="E341" s="4">
-        <v>4</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B341" s="7">
+        <v>4961310141776</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D341" s="7"/>
+      <c r="E341" s="6"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B342" s="3">
-        <v>4711174724505</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D342" s="3">
-        <v>4711174724505</v>
-      </c>
-      <c r="E342" s="4">
-        <v>6</v>
+        <v>337</v>
+      </c>
+      <c r="B342" s="7">
+        <v>4961310143428</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D342" s="7"/>
+      <c r="E342" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B343" s="3">
-        <v>846504004911</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="D343" s="3">
-        <v>846504004911</v>
-      </c>
-      <c r="E343" s="4">
-        <v>4</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B343" s="7">
+        <v>42005196920</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D343" s="7"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B344" s="3">
-        <v>846504003693</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D344" s="3">
-        <v>846504003693</v>
-      </c>
-      <c r="E344" s="4">
-        <v>1</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B344" s="7">
+        <v>42005189830</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D344" s="7"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B345" s="7">
+        <v>846504005000</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D345" s="7">
+        <v>846504005000</v>
+      </c>
+      <c r="E345" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B346" s="7">
+        <v>4711174724505</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D346" s="7">
+        <v>4711174724505</v>
+      </c>
+      <c r="E346" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B347" s="7">
+        <v>846504004911</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D347" s="7">
+        <v>846504004911</v>
+      </c>
+      <c r="E347" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B348" s="7">
+        <v>846504003693</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D348" s="7">
+        <v>846504003693</v>
+      </c>
+      <c r="E348" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B349" s="9">
         <v>846504005024</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C349" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="D345" s="3">
+      <c r="D349" s="9">
         <v>846504005024</v>
       </c>
-      <c r="E345" s="4">
+      <c r="E349" s="8">
         <v>1</v>
       </c>
     </row>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBF292-B1BC-4DEA-A591-56125BBB2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F343818-966A-4B9F-BAA0-0E798150F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$349</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2650,9 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3103,7 +3101,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="7">
-        <v>4961310155940</v>
+        <v>69400548421926</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>371</v>
@@ -8225,6 +8223,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E349" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F343818-966A-4B9F-BAA0-0E798150F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6EC1B-8CF2-41B3-9388-E7B872F16066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2650,7 +2650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6983,7 +6985,7 @@
         <v>609</v>
       </c>
       <c r="D272" s="7">
-        <v>4961310125400</v>
+        <v>6940548415734</v>
       </c>
       <c r="E272" s="6">
         <v>10</v>
@@ -7461,9 +7463,7 @@
       <c r="A303" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B303" s="7">
-        <v>4961310125400</v>
-      </c>
+      <c r="B303" s="7"/>
       <c r="C303" s="6" t="s">
         <v>640</v>
       </c>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C90239-70E9-42A0-A553-9DAC7BA639A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB34B0-BDE5-4FB1-B796-53C62129D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="739">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2240,6 +2240,9 @@
   </si>
   <si>
     <t>FORNO AIRFRYER VTG VERDE 16L 1200W 220V</t>
+  </si>
+  <si>
+    <t>AT-LP120XBT-USB-BK</t>
   </si>
 </sst>
 </file>
@@ -2700,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8308,6 +8311,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B352" s="12">
+        <v>42005208272</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E352" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E349" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB34B0-BDE5-4FB1-B796-53C62129D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584541AA-FF44-44BC-9A63-169D454FCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$354</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="747">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2243,6 +2243,30 @@
   </si>
   <si>
     <t>AT-LP120XBT-USB-BK</t>
+  </si>
+  <si>
+    <t>10638-ARI-I</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL VINTAGE AZUL 127V</t>
+  </si>
+  <si>
+    <t>21477-NZX-I</t>
+  </si>
+  <si>
+    <t>GABINETE H61FB FLOW RGB MID-TOWER PRETO</t>
+  </si>
+  <si>
+    <t>20975-CTY-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PLA AZL MAR FOSCO</t>
+  </si>
+  <si>
+    <t>12003-KRO-I</t>
+  </si>
+  <si>
+    <t>TECLADO C/FIO USB MULTIM PRETO KE-K106V3</t>
   </si>
 </sst>
 </file>
@@ -2703,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A352" sqref="A352"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8325,8 +8349,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B353" s="12">
+        <v>8003705123700</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="E353" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B354" s="12">
+        <v>5056547204079</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="E354" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B355" s="12">
+        <v>6971636408932</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B356" s="12">
+        <v>7899980100854</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E349" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584541AA-FF44-44BC-9A63-169D454FCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76724D1-8CBF-4998-9910-CBF6E50CDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$354</definedName>
   </definedNames>
@@ -2301,7 +2298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2342,24 +2339,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2388,15 +2372,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2412,34 +2387,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Planilha1"/>
-      <sheetName val="Planilha2"/>
-      <sheetName val="Pesquisa"/>
-      <sheetName val="MAPEAMENTO EAN 15.08"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Material</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2727,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I356"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8102,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -8117,7 +8064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -8132,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -8149,7 +8096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>335</v>
       </c>
@@ -8162,7 +8109,7 @@
       <c r="D340" s="7"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -8175,7 +8122,7 @@
       <c r="D341" s="7"/>
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -8190,7 +8137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -8203,7 +8150,7 @@
       <c r="D343" s="7"/>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -8216,7 +8163,7 @@
       <c r="D344" s="7"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -8233,7 +8180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -8250,7 +8197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -8267,7 +8214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -8284,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -8301,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>734</v>
       </c>
@@ -8313,91 +8260,92 @@
       </c>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="8"/>
-      <c r="H350" s="8"/>
-      <c r="I350" s="10" t="str">
-        <f>IFERROR(VLOOKUP([1]!Tabela1[[#This Row],[MATERIAL]],[1]Pesquisa!A:M,10,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" s="11" t="s">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B351" s="12">
+      <c r="B351" s="9">
         <v>8003705122444</v>
       </c>
-      <c r="C351" s="11" t="s">
+      <c r="C351" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="E351" s="2">
+      <c r="D351" s="8"/>
+      <c r="E351" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B352" s="12">
+      <c r="B352" s="9">
         <v>42005208272</v>
       </c>
-      <c r="C352" s="11" t="s">
+      <c r="C352" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="E352" s="2">
+      <c r="D352" s="8"/>
+      <c r="E352" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="11" t="s">
+      <c r="A353" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B353" s="12">
+      <c r="B353" s="9">
         <v>8003705123700</v>
       </c>
-      <c r="C353" s="11" t="s">
+      <c r="C353" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="E353" s="2">
+      <c r="D353" s="8"/>
+      <c r="E353" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="11" t="s">
+      <c r="A354" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B354" s="12">
+      <c r="B354" s="9">
         <v>5056547204079</v>
       </c>
-      <c r="C354" s="11" t="s">
+      <c r="C354" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="E354" s="2">
+      <c r="D354" s="8"/>
+      <c r="E354" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="11" t="s">
+      <c r="A355" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B355" s="12">
+      <c r="B355" s="9">
         <v>6971636408932</v>
       </c>
-      <c r="C355" s="11" t="s">
+      <c r="C355" s="8" t="s">
         <v>744</v>
       </c>
+      <c r="D355" s="8"/>
+      <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="11" t="s">
+      <c r="A356" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B356" s="12">
+      <c r="B356" s="9">
         <v>7899980100854</v>
       </c>
-      <c r="C356" s="11" t="s">
+      <c r="C356" s="8" t="s">
         <v>746</v>
       </c>
+      <c r="D356" s="8"/>
+      <c r="E356" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76724D1-8CBF-4998-9910-CBF6E50CDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1C7E80-2AFE-4727-BFDB-4DB1C958716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="755">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2264,6 +2264,30 @@
   </si>
   <si>
     <t>TECLADO C/FIO USB MULTIM PRETO KE-K106V3</t>
+  </si>
+  <si>
+    <t>10636-ARI-I</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL VINTAGE VERDE 127V</t>
+  </si>
+  <si>
+    <t>21340-NZX-I</t>
+  </si>
+  <si>
+    <t>GABINETE H91FB FLOW MID-TOWER PRETO</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>FORNO AIRFRYER VTG BEGE 16L 1200W 220V</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL VINTAGE BEGE 127V</t>
   </si>
 </sst>
 </file>
@@ -2674,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E362" sqref="E362"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8347,6 +8371,66 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B357" s="9">
+        <v>8003705123694</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="D357" s="8"/>
+      <c r="E357" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B358" s="9">
+        <v>5056547202402</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D358" s="8"/>
+      <c r="E358" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B359" s="9">
+        <v>8003705122437</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D359" s="8"/>
+      <c r="E359" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B360" s="9">
+        <v>8003705123526</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D360" s="8"/>
+      <c r="E360" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1C7E80-2AFE-4727-BFDB-4DB1C958716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94751D1D-BD0D-4D60-BDAC-987F81F960FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="757">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2288,6 +2288,12 @@
   </si>
   <si>
     <t>MAQ CAFÉ MANUAL VINTAGE BEGE 127V</t>
+  </si>
+  <si>
+    <t>10494-ARI-I</t>
+  </si>
+  <si>
+    <t>FORNO AIRFRYER VTG BEGE 16L 1200W 127V</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="E360" sqref="E360"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8423,11 +8429,26 @@
       <c r="B360" s="9">
         <v>8003705123526</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="C360" s="9" t="s">
         <v>754</v>
       </c>
       <c r="D360" s="8"/>
       <c r="E360" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B361" s="9">
+        <v>8003705123380</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D361" s="8"/>
+      <c r="E361" s="8">
         <v>1</v>
       </c>
     </row>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94751D1D-BD0D-4D60-BDAC-987F81F960FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0BC080-2C08-4845-8000-0CC9AF8ED95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="759">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2294,6 +2294,12 @@
   </si>
   <si>
     <t>FORNO AIRFRYER VTG BEGE 16L 1200W 127V</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL VINTAGE VERDE 220V</t>
   </si>
 </sst>
 </file>
@@ -2704,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8452,6 +8458,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B362" s="9">
+        <v>8003705114142</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D362" s="8"/>
+      <c r="E362" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0BC080-2C08-4845-8000-0CC9AF8ED95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59914744-4915-4150-9732-A2931A85B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="760">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2300,6 +2300,9 @@
   </si>
   <si>
     <t>MAQ CAFÉ MANUAL VINTAGE VERDE 220V</t>
+  </si>
+  <si>
+    <t>20941-CTY-I</t>
   </si>
 </sst>
 </file>
@@ -2710,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8473,6 +8476,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B363" s="9">
+        <v>6971636407492</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D363" s="8"/>
+      <c r="E363" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59914744-4915-4150-9732-A2931A85B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7B0EC-799B-4688-AB5B-E424675B37D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$363</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="762">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2303,6 +2303,12 @@
   </si>
   <si>
     <t>20941-CTY-I</t>
+  </si>
+  <si>
+    <t>21475-NZX-I</t>
+  </si>
+  <si>
+    <t>GABINETE H61FB FLOW MID-TOWER PRETO</t>
   </si>
 </sst>
 </file>
@@ -2713,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363:E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6601,12 +6607,8 @@
       <c r="C244" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D244" s="7">
-        <v>42005206988</v>
-      </c>
-      <c r="E244" s="6">
-        <v>2</v>
-      </c>
+      <c r="D244" s="7"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
@@ -8491,8 +8493,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B364" s="9">
+        <v>5056547204055</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E354" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E363" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7B0EC-799B-4688-AB5B-E424675B37D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF442B8C-4B07-4AD3-A669-1C9BC10D3510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="764">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2309,6 +2309,12 @@
   </si>
   <si>
     <t>GABINETE H61FB FLOW MID-TOWER PRETO</t>
+  </si>
+  <si>
+    <t>33664-ATE-I</t>
+  </si>
+  <si>
+    <t>TOCA DISCOS AUTOMATICO AT-LP70X-BZ-C</t>
   </si>
 </sst>
 </file>
@@ -2328,11 +2334,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2719,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="E363" sqref="E363:E364"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="E364" sqref="E364:E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8508,6 +8516,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B365" s="9">
+        <v>4961310163440</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E363" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF442B8C-4B07-4AD3-A669-1C9BC10D3510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0C3AF-76CE-48E3-AA44-799607DC6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="765">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2315,6 +2315,9 @@
   </si>
   <si>
     <t>TOCA DISCOS AUTOMATICO AT-LP70X-BZ-C</t>
+  </si>
+  <si>
+    <t>10662-BLB-I</t>
   </si>
 </sst>
 </file>
@@ -2727,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364:E365"/>
+      <selection activeCell="E365" sqref="E365:E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8531,6 +8534,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B366" s="9">
+        <v>6977252425452</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D366" s="8"/>
+      <c r="E366" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E363" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0C3AF-76CE-48E3-AA44-799607DC6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE86EF-D2C3-43C4-BD44-C438DA337209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="776">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2318,6 +2318,39 @@
   </si>
   <si>
     <t>10662-BLB-I</t>
+  </si>
+  <si>
+    <t>10359-ARI-I</t>
+  </si>
+  <si>
+    <t>TRITURADOR VINTAGE VERDE 400W 220V</t>
+  </si>
+  <si>
+    <t>10540-ARI-I</t>
+  </si>
+  <si>
+    <t>TORRADEIRA ELETR POSITANO 750W 220V</t>
+  </si>
+  <si>
+    <t>10547-ARI-I</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET POSITANO 220V 1850W</t>
+  </si>
+  <si>
+    <t>10637-ARI-I</t>
+  </si>
+  <si>
+    <t>MAQ CAFÉ MANUAL VINTAGE AZUL 220V</t>
+  </si>
+  <si>
+    <t>10652-ARI-I</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR POSITANO 220V</t>
+  </si>
+  <si>
+    <t>10661-BLB-I</t>
   </si>
 </sst>
 </file>
@@ -2730,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="E365" sqref="E365:E366"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F373" sqref="F373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8549,6 +8582,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B367" s="9">
+        <v>8003705120099</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B368" s="9">
+        <v>8003705122802</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D368" s="8"/>
+      <c r="E368" s="8"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B369" s="9">
+        <v>8003705122833</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D369" s="8"/>
+      <c r="E369" s="8"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B370" s="9">
+        <v>8003705114159</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D370" s="8"/>
+      <c r="E370" s="8"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B371" s="9">
+        <v>8003705122796</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B372" s="9">
+        <v>6975337034155</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D372" s="8"/>
+      <c r="E372" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E363" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE86EF-D2C3-43C4-BD44-C438DA337209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AC4B08-94A5-480F-96E1-C9D822EA40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$372</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -2763,10 +2763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F373" sqref="F373"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2796,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3051,7 +3052,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>58</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>717</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>733</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>731</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>729</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>727</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>103</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>104</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>106</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>107</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>108</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>109</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>110</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>111</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>113</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>114</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>116</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>117</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>119</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>715</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>120</v>
       </c>
@@ -4851,7 +4852,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>121</v>
       </c>
@@ -4864,7 +4865,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>122</v>
       </c>
@@ -4877,7 +4878,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>123</v>
       </c>
@@ -4890,7 +4891,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>124</v>
       </c>
@@ -4903,7 +4904,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>125</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>126</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>127</v>
       </c>
@@ -4950,7 +4951,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>128</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>129</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>130</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>131</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>132</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>133</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>134</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>135</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>136</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>137</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>138</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>139</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>140</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>141</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>142</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>143</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>144</v>
       </c>
@@ -5229,7 +5230,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>145</v>
       </c>
@@ -5242,7 +5243,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>146</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>147</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>148</v>
       </c>
@@ -5285,7 +5286,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>149</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>150</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>151</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>152</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>153</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>154</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>155</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>156</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>157</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>158</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>159</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>160</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>161</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>162</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>163</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>164</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>165</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>166</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>167</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>168</v>
       </c>
@@ -5587,7 +5588,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>169</v>
       </c>
@@ -5600,7 +5601,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>170</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>171</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>172</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>173</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>174</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>175</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>176</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>177</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>178</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>179</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>180</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>181</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>182</v>
       </c>
@@ -5793,7 +5794,7 @@
       <c r="D187" s="7"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>183</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>184</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>185</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>186</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>187</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>188</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>189</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>190</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>191</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>192</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>193</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>194</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>195</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>196</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>197</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>198</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>199</v>
       </c>
@@ -6046,7 +6047,7 @@
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>200</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>201</v>
       </c>
@@ -6074,7 +6075,7 @@
       <c r="D206" s="7"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>202</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>203</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>204</v>
       </c>
@@ -6117,7 +6118,7 @@
       <c r="D209" s="7"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>205</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>206</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>207</v>
       </c>
@@ -6160,7 +6161,7 @@
       <c r="D212" s="7"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>208</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>209</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>210</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>211</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>212</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>213</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>214</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>215</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>216</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>217</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>218</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>219</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>220</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>221</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>222</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>223</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>224</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>225</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>226</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>227</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>228</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>229</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>230</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="D235" s="7"/>
       <c r="E235" s="6"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>231</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>232</v>
       </c>
@@ -6551,7 +6552,7 @@
       <c r="D237" s="7"/>
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>233</v>
       </c>
@@ -6564,7 +6565,7 @@
       <c r="D238" s="7"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>234</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>235</v>
       </c>
@@ -6594,7 +6595,7 @@
       <c r="D240" s="7"/>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>236</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="D241" s="7"/>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>237</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>238</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>239</v>
       </c>
@@ -6654,7 +6655,7 @@
       <c r="D244" s="7"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>240</v>
       </c>
@@ -6679,14 +6680,12 @@
       <c r="C246" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D246" s="7">
-        <v>42005207015</v>
-      </c>
+      <c r="D246" s="7"/>
       <c r="E246" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>242</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>243</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>244</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>245</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>246</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>247</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>248</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>249</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>250</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>251</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>252</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>253</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>254</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>255</v>
       </c>
@@ -6920,7 +6919,7 @@
       <c r="D260" s="7"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>256</v>
       </c>
@@ -6933,7 +6932,7 @@
       <c r="D261" s="7"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>257</v>
       </c>
@@ -6946,7 +6945,7 @@
       <c r="D262" s="7"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>258</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>259</v>
       </c>
@@ -6976,7 +6975,7 @@
       <c r="D264" s="7"/>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>260</v>
       </c>
@@ -6989,7 +6988,7 @@
       <c r="D265" s="7"/>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>261</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>262</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>263</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>264</v>
       </c>
@@ -7051,7 +7050,7 @@
       <c r="D269" s="7"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>265</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>266</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>267</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>268</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>269</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>270</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>271</v>
       </c>
@@ -7166,7 +7165,7 @@
       <c r="D276" s="7"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>272</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>273</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>274</v>
       </c>
@@ -7213,7 +7212,7 @@
       <c r="D279" s="7"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>275</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>276</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>277</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>278</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>279</v>
       </c>
@@ -7294,7 +7293,7 @@
       <c r="D284" s="7"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>280</v>
       </c>
@@ -7307,7 +7306,7 @@
       <c r="D285" s="7"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>281</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>282</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>283</v>
       </c>
@@ -7354,7 +7353,7 @@
       <c r="D288" s="7"/>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>284</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>285</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>286</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>287</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>288</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>289</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>290</v>
       </c>
@@ -7469,7 +7468,7 @@
       <c r="D295" s="7"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>291</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>292</v>
       </c>
@@ -7499,7 +7498,7 @@
       <c r="D297" s="7"/>
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>293</v>
       </c>
@@ -7512,7 +7511,7 @@
       <c r="D298" s="7"/>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>294</v>
       </c>
@@ -7525,7 +7524,7 @@
       <c r="D299" s="7"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>295</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>296</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>297</v>
       </c>
@@ -7570,7 +7569,7 @@
       <c r="D302" s="7"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>298</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>299</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>300</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>301</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>302</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>303</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>304</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>305</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>306</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>307</v>
       </c>
@@ -7732,7 +7731,7 @@
       <c r="D312" s="7"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>308</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>309</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>310</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>311</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>312</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>313</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>314</v>
       </c>
@@ -7847,7 +7846,7 @@
       <c r="D319" s="7"/>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>315</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>316</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>317</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>318</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>319</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>320</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>321</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>322</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>323</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>324</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>325</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>326</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>327</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>328</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>329</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>330</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>331</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>335</v>
       </c>
@@ -8194,7 +8193,7 @@
       <c r="D340" s="7"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="D341" s="7"/>
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="D343" s="7"/>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -8248,7 +8247,7 @@
       <c r="D344" s="7"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -8299,7 +8298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>734</v>
       </c>
@@ -8346,7 +8345,7 @@
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>736</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>246</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>739</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>741</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>743</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>745</v>
       </c>
@@ -8432,7 +8431,7 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>747</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>749</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>751</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>753</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>755</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>757</v>
       </c>
@@ -8522,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>759</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>760</v>
       </c>
@@ -8552,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>762</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>764</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>765</v>
       </c>
@@ -8595,7 +8594,7 @@
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>767</v>
       </c>
@@ -8608,7 +8607,7 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>769</v>
       </c>
@@ -8621,7 +8620,7 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>771</v>
       </c>
@@ -8634,7 +8633,7 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>773</v>
       </c>
@@ -8647,7 +8646,7 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>775</v>
       </c>
@@ -8661,7 +8660,13 @@
       <c r="E372" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E363" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E372" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="23364-ATE-I"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AC4B08-94A5-480F-96E1-C9D822EA40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AB9718-CBAD-48B0-94BE-214E05472558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materiais!$A$1:$E$377</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="800">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2351,6 +2351,90 @@
   </si>
   <si>
     <t>10661-BLB-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10071-BLB-I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF001-E+SA001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10072-BLB-I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF001-P+SA001-EU </t>
+  </si>
+  <si>
+    <t>10074-BLB-I</t>
+  </si>
+  <si>
+    <t>PF001-S-EU1</t>
+  </si>
+  <si>
+    <t>10075-BLB-I</t>
+  </si>
+  <si>
+    <t>PF001-U+SA001-EU</t>
+  </si>
+  <si>
+    <t>10078-BLB-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF002-A-EU2                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10661-BLB-I                   </t>
+  </si>
+  <si>
+    <t>PF002-M+SA005-US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10662-BLB-I                   </t>
+  </si>
+  <si>
+    <t>PF002-A+SA005-US2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10663-BLB-I                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF001-U+SA001-US                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10664-BLB-I                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF003-M+SA007-US                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10652-BLB-I                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF003-D+SA007-LV                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10651-BLB-I                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF003-D+SA007-EU                      </t>
+  </si>
+  <si>
+    <r>
+      <t>10645-BLB-I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PF003-D+SA007-US                      </t>
   </si>
 </sst>
 </file>
@@ -2763,11 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2796,7 +2879,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2860,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2892,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2907,7 +2990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2924,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2939,7 +3022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2971,7 +3054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2988,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3005,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3039,7 +3122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3052,7 +3135,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3065,7 +3148,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3082,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3114,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -3131,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -3148,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -3180,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -3214,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -3231,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -3248,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -3265,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -3282,7 +3365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -3299,7 +3382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -3316,7 +3399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -3367,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -3384,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -3399,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -3414,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -3431,7 +3514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -3446,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -3461,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -3476,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -3493,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -3508,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
@@ -3525,7 +3608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -3542,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
@@ -3559,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
@@ -3593,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
@@ -3610,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
@@ -3627,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
@@ -3644,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
@@ -3661,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
@@ -3678,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>58</v>
       </c>
@@ -3695,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -3708,7 +3791,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -3725,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -3742,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -3759,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -3776,7 +3859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -3793,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -3810,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -3827,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -3844,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
@@ -3861,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -3878,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -3895,7 +3978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -3912,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
@@ -3929,7 +4012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -3946,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -3963,7 +4046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -3997,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -4014,7 +4097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -4031,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
@@ -4048,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>717</v>
       </c>
@@ -4065,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>733</v>
       </c>
@@ -4080,7 +4163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
@@ -4097,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
@@ -4114,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
@@ -4131,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
@@ -4148,7 +4231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -4165,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
@@ -4182,7 +4265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
@@ -4199,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
@@ -4216,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
@@ -4233,7 +4316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
@@ -4250,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
@@ -4267,7 +4350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -4284,7 +4367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
@@ -4301,7 +4384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
@@ -4318,7 +4401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -4335,7 +4418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
@@ -4352,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
@@ -4369,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
@@ -4386,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
@@ -4403,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
@@ -4420,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
@@ -4437,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
@@ -4454,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
@@ -4471,7 +4554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>731</v>
       </c>
@@ -4486,7 +4569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>729</v>
       </c>
@@ -4501,7 +4584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>727</v>
       </c>
@@ -4516,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -4533,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>103</v>
       </c>
@@ -4550,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>104</v>
       </c>
@@ -4567,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
@@ -4584,7 +4667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>106</v>
       </c>
@@ -4601,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>107</v>
       </c>
@@ -4618,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>109</v>
       </c>
@@ -4652,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>110</v>
       </c>
@@ -4669,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>111</v>
       </c>
@@ -4686,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -4703,7 +4786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>113</v>
       </c>
@@ -4720,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>114</v>
       </c>
@@ -4737,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
@@ -4754,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>116</v>
       </c>
@@ -4771,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>117</v>
       </c>
@@ -4788,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
@@ -4805,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>119</v>
       </c>
@@ -4822,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>715</v>
       </c>
@@ -4839,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>120</v>
       </c>
@@ -4852,7 +4935,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>121</v>
       </c>
@@ -4865,7 +4948,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>122</v>
       </c>
@@ -4878,7 +4961,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>123</v>
       </c>
@@ -4891,7 +4974,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>124</v>
       </c>
@@ -4904,7 +4987,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>125</v>
       </c>
@@ -4921,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>126</v>
       </c>
@@ -4938,7 +5021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>127</v>
       </c>
@@ -4951,7 +5034,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>128</v>
       </c>
@@ -4966,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>129</v>
       </c>
@@ -4981,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>130</v>
       </c>
@@ -4998,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>131</v>
       </c>
@@ -5015,7 +5098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>132</v>
       </c>
@@ -5032,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>133</v>
       </c>
@@ -5049,7 +5132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>134</v>
       </c>
@@ -5066,7 +5149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>135</v>
       </c>
@@ -5083,7 +5166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>136</v>
       </c>
@@ -5100,7 +5183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>137</v>
       </c>
@@ -5117,7 +5200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>138</v>
       </c>
@@ -5134,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>139</v>
       </c>
@@ -5151,7 +5234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>140</v>
       </c>
@@ -5168,7 +5251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>141</v>
       </c>
@@ -5185,7 +5268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>142</v>
       </c>
@@ -5202,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>143</v>
       </c>
@@ -5217,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>144</v>
       </c>
@@ -5230,7 +5313,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>145</v>
       </c>
@@ -5243,7 +5326,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>146</v>
       </c>
@@ -5258,7 +5341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>147</v>
       </c>
@@ -5273,7 +5356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>148</v>
       </c>
@@ -5286,7 +5369,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>149</v>
       </c>
@@ -5301,7 +5384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>150</v>
       </c>
@@ -5316,7 +5399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>151</v>
       </c>
@@ -5331,7 +5414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>152</v>
       </c>
@@ -5346,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>153</v>
       </c>
@@ -5361,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>154</v>
       </c>
@@ -5376,7 +5459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>155</v>
       </c>
@@ -5391,7 +5474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>156</v>
       </c>
@@ -5406,7 +5489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>157</v>
       </c>
@@ -5421,7 +5504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>158</v>
       </c>
@@ -5436,7 +5519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>159</v>
       </c>
@@ -5451,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>160</v>
       </c>
@@ -5466,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>161</v>
       </c>
@@ -5481,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>162</v>
       </c>
@@ -5496,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>163</v>
       </c>
@@ -5513,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>164</v>
       </c>
@@ -5530,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>165</v>
       </c>
@@ -5545,7 +5628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>166</v>
       </c>
@@ -5560,7 +5643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>167</v>
       </c>
@@ -5575,7 +5658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>168</v>
       </c>
@@ -5588,7 +5671,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>169</v>
       </c>
@@ -5601,7 +5684,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>170</v>
       </c>
@@ -5616,7 +5699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>171</v>
       </c>
@@ -5631,7 +5714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>172</v>
       </c>
@@ -5646,7 +5729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>173</v>
       </c>
@@ -5661,7 +5744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>174</v>
       </c>
@@ -5676,7 +5759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>175</v>
       </c>
@@ -5691,7 +5774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>176</v>
       </c>
@@ -5706,7 +5789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>177</v>
       </c>
@@ -5721,7 +5804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>178</v>
       </c>
@@ -5736,7 +5819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>179</v>
       </c>
@@ -5751,7 +5834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>180</v>
       </c>
@@ -5766,7 +5849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>181</v>
       </c>
@@ -5781,7 +5864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>182</v>
       </c>
@@ -5794,7 +5877,7 @@
       <c r="D187" s="7"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>183</v>
       </c>
@@ -5809,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>184</v>
       </c>
@@ -5824,7 +5907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>185</v>
       </c>
@@ -5839,7 +5922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>186</v>
       </c>
@@ -5854,7 +5937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>187</v>
       </c>
@@ -5869,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>188</v>
       </c>
@@ -5884,7 +5967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>189</v>
       </c>
@@ -5899,7 +5982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>190</v>
       </c>
@@ -5914,7 +5997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>191</v>
       </c>
@@ -5929,7 +6012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>192</v>
       </c>
@@ -5944,7 +6027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>193</v>
       </c>
@@ -5959,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>194</v>
       </c>
@@ -5974,7 +6057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>195</v>
       </c>
@@ -5989,7 +6072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>196</v>
       </c>
@@ -6004,7 +6087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>197</v>
       </c>
@@ -6019,7 +6102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>198</v>
       </c>
@@ -6034,7 +6117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>199</v>
       </c>
@@ -6047,7 +6130,7 @@
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>200</v>
       </c>
@@ -6062,7 +6145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>201</v>
       </c>
@@ -6075,7 +6158,7 @@
       <c r="D206" s="7"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>202</v>
       </c>
@@ -6090,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>203</v>
       </c>
@@ -6105,7 +6188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>204</v>
       </c>
@@ -6118,7 +6201,7 @@
       <c r="D209" s="7"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>205</v>
       </c>
@@ -6133,7 +6216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>206</v>
       </c>
@@ -6148,7 +6231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>207</v>
       </c>
@@ -6161,7 +6244,7 @@
       <c r="D212" s="7"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>208</v>
       </c>
@@ -6176,7 +6259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>209</v>
       </c>
@@ -6191,7 +6274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>210</v>
       </c>
@@ -6206,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>211</v>
       </c>
@@ -6223,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>212</v>
       </c>
@@ -6238,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>213</v>
       </c>
@@ -6255,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>214</v>
       </c>
@@ -6270,7 +6353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>215</v>
       </c>
@@ -6285,7 +6368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>216</v>
       </c>
@@ -6300,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>217</v>
       </c>
@@ -6315,7 +6398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>218</v>
       </c>
@@ -6330,7 +6413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>219</v>
       </c>
@@ -6345,7 +6428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>220</v>
       </c>
@@ -6360,7 +6443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>221</v>
       </c>
@@ -6375,7 +6458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>222</v>
       </c>
@@ -6392,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>223</v>
       </c>
@@ -6409,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>224</v>
       </c>
@@ -6426,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>225</v>
       </c>
@@ -6443,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>226</v>
       </c>
@@ -6460,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>227</v>
       </c>
@@ -6477,7 +6560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>228</v>
       </c>
@@ -6494,7 +6577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>229</v>
       </c>
@@ -6511,7 +6594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>230</v>
       </c>
@@ -6524,7 +6607,7 @@
       <c r="D235" s="7"/>
       <c r="E235" s="6"/>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>231</v>
       </c>
@@ -6539,7 +6622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>232</v>
       </c>
@@ -6552,7 +6635,7 @@
       <c r="D237" s="7"/>
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>233</v>
       </c>
@@ -6565,7 +6648,7 @@
       <c r="D238" s="7"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>234</v>
       </c>
@@ -6582,7 +6665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>235</v>
       </c>
@@ -6595,7 +6678,7 @@
       <c r="D240" s="7"/>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>236</v>
       </c>
@@ -6608,7 +6691,7 @@
       <c r="D241" s="7"/>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>237</v>
       </c>
@@ -6625,7 +6708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>238</v>
       </c>
@@ -6642,7 +6725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>239</v>
       </c>
@@ -6655,7 +6738,7 @@
       <c r="D244" s="7"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>240</v>
       </c>
@@ -6685,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>242</v>
       </c>
@@ -6702,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>243</v>
       </c>
@@ -6719,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>244</v>
       </c>
@@ -6736,7 +6819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>245</v>
       </c>
@@ -6753,7 +6836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>246</v>
       </c>
@@ -6770,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>247</v>
       </c>
@@ -6787,7 +6870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>248</v>
       </c>
@@ -6804,7 +6887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>249</v>
       </c>
@@ -6821,7 +6904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>250</v>
       </c>
@@ -6838,7 +6921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>251</v>
       </c>
@@ -6855,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>252</v>
       </c>
@@ -6872,7 +6955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>253</v>
       </c>
@@ -6889,7 +6972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>254</v>
       </c>
@@ -6906,7 +6989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>255</v>
       </c>
@@ -6919,7 +7002,7 @@
       <c r="D260" s="7"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>256</v>
       </c>
@@ -6932,7 +7015,7 @@
       <c r="D261" s="7"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>257</v>
       </c>
@@ -6945,7 +7028,7 @@
       <c r="D262" s="7"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>258</v>
       </c>
@@ -6962,7 +7045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>259</v>
       </c>
@@ -6975,7 +7058,7 @@
       <c r="D264" s="7"/>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>260</v>
       </c>
@@ -6988,7 +7071,7 @@
       <c r="D265" s="7"/>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>261</v>
       </c>
@@ -7003,7 +7086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>262</v>
       </c>
@@ -7020,7 +7103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>263</v>
       </c>
@@ -7037,7 +7120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>264</v>
       </c>
@@ -7050,7 +7133,7 @@
       <c r="D269" s="7"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>265</v>
       </c>
@@ -7067,7 +7150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>266</v>
       </c>
@@ -7084,7 +7167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>267</v>
       </c>
@@ -7101,7 +7184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>268</v>
       </c>
@@ -7118,7 +7201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>269</v>
       </c>
@@ -7135,7 +7218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>270</v>
       </c>
@@ -7152,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>271</v>
       </c>
@@ -7165,7 +7248,7 @@
       <c r="D276" s="7"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>272</v>
       </c>
@@ -7182,7 +7265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>273</v>
       </c>
@@ -7199,7 +7282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>274</v>
       </c>
@@ -7212,7 +7295,7 @@
       <c r="D279" s="7"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>275</v>
       </c>
@@ -7229,7 +7312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>276</v>
       </c>
@@ -7246,7 +7329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>277</v>
       </c>
@@ -7263,7 +7346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>278</v>
       </c>
@@ -7280,7 +7363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>279</v>
       </c>
@@ -7293,7 +7376,7 @@
       <c r="D284" s="7"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>280</v>
       </c>
@@ -7306,7 +7389,7 @@
       <c r="D285" s="7"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>281</v>
       </c>
@@ -7323,7 +7406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>282</v>
       </c>
@@ -7340,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>283</v>
       </c>
@@ -7353,7 +7436,7 @@
       <c r="D288" s="7"/>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>284</v>
       </c>
@@ -7370,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>285</v>
       </c>
@@ -7387,7 +7470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>286</v>
       </c>
@@ -7404,7 +7487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>287</v>
       </c>
@@ -7421,7 +7504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>288</v>
       </c>
@@ -7438,7 +7521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>289</v>
       </c>
@@ -7455,7 +7538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>290</v>
       </c>
@@ -7468,7 +7551,7 @@
       <c r="D295" s="7"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>291</v>
       </c>
@@ -7485,7 +7568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>292</v>
       </c>
@@ -7498,7 +7581,7 @@
       <c r="D297" s="7"/>
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>293</v>
       </c>
@@ -7511,7 +7594,7 @@
       <c r="D298" s="7"/>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>294</v>
       </c>
@@ -7524,7 +7607,7 @@
       <c r="D299" s="7"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>295</v>
       </c>
@@ -7541,7 +7624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>296</v>
       </c>
@@ -7556,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>297</v>
       </c>
@@ -7569,7 +7652,7 @@
       <c r="D302" s="7"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>298</v>
       </c>
@@ -7584,7 +7667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>299</v>
       </c>
@@ -7601,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>300</v>
       </c>
@@ -7616,7 +7699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>301</v>
       </c>
@@ -7633,7 +7716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>302</v>
       </c>
@@ -7650,7 +7733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>303</v>
       </c>
@@ -7667,7 +7750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>304</v>
       </c>
@@ -7684,7 +7767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>305</v>
       </c>
@@ -7701,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>306</v>
       </c>
@@ -7718,7 +7801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>307</v>
       </c>
@@ -7731,7 +7814,7 @@
       <c r="D312" s="7"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>308</v>
       </c>
@@ -7748,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>309</v>
       </c>
@@ -7765,7 +7848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>310</v>
       </c>
@@ -7782,7 +7865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>311</v>
       </c>
@@ -7799,7 +7882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>312</v>
       </c>
@@ -7816,7 +7899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>313</v>
       </c>
@@ -7833,7 +7916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>314</v>
       </c>
@@ -7846,7 +7929,7 @@
       <c r="D319" s="7"/>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>315</v>
       </c>
@@ -7863,7 +7946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>316</v>
       </c>
@@ -7880,7 +7963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>317</v>
       </c>
@@ -7897,7 +7980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>318</v>
       </c>
@@ -7914,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>319</v>
       </c>
@@ -7931,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>320</v>
       </c>
@@ -7948,7 +8031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>321</v>
       </c>
@@ -7965,7 +8048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>322</v>
       </c>
@@ -7982,7 +8065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>323</v>
       </c>
@@ -7999,7 +8082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>324</v>
       </c>
@@ -8016,7 +8099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>325</v>
       </c>
@@ -8033,7 +8116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>326</v>
       </c>
@@ -8050,7 +8133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>327</v>
       </c>
@@ -8067,7 +8150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>328</v>
       </c>
@@ -8084,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>329</v>
       </c>
@@ -8101,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>330</v>
       </c>
@@ -8118,7 +8201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>331</v>
       </c>
@@ -8133,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -8148,7 +8231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -8163,7 +8246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -8180,7 +8263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>335</v>
       </c>
@@ -8193,7 +8276,7 @@
       <c r="D340" s="7"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -8206,7 +8289,7 @@
       <c r="D341" s="7"/>
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -8221,7 +8304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -8234,7 +8317,7 @@
       <c r="D343" s="7"/>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -8247,7 +8330,7 @@
       <c r="D344" s="7"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -8264,7 +8347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -8281,7 +8364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -8298,7 +8381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -8315,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -8332,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>734</v>
       </c>
@@ -8345,7 +8428,7 @@
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>736</v>
       </c>
@@ -8360,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>246</v>
       </c>
@@ -8375,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>739</v>
       </c>
@@ -8390,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>741</v>
       </c>
@@ -8405,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>743</v>
       </c>
@@ -8418,7 +8501,7 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>745</v>
       </c>
@@ -8431,7 +8514,7 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>747</v>
       </c>
@@ -8446,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>749</v>
       </c>
@@ -8461,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>751</v>
       </c>
@@ -8476,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>753</v>
       </c>
@@ -8491,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>755</v>
       </c>
@@ -8506,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>757</v>
       </c>
@@ -8521,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>759</v>
       </c>
@@ -8536,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>760</v>
       </c>
@@ -8551,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>762</v>
       </c>
@@ -8566,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>764</v>
       </c>
@@ -8581,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>765</v>
       </c>
@@ -8594,7 +8677,7 @@
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>767</v>
       </c>
@@ -8607,7 +8690,7 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>769</v>
       </c>
@@ -8620,7 +8703,7 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>771</v>
       </c>
@@ -8633,7 +8716,7 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>773</v>
       </c>
@@ -8646,7 +8729,7 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>775</v>
       </c>
@@ -8659,14 +8742,188 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
     </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B373" s="9">
+        <v>6975337034230</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B374" s="9">
+        <v>6975337030980</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B375" s="9">
+        <v>6975337031703</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="D375" s="8"/>
+      <c r="E375" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B376" s="9">
+        <v>6975337033165</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D376" s="8"/>
+      <c r="E376" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B377" s="9">
+        <v>6977252425360</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D377" s="8"/>
+      <c r="E377" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B378" s="9">
+        <v>6975337034155</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D378" s="8"/>
+      <c r="E378" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B379" s="9">
+        <v>6977252425452</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D379" s="8"/>
+      <c r="E379" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B380" s="9">
+        <v>6975337033196</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D380" s="8"/>
+      <c r="E380" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B381" s="9">
+        <v>6937285501271</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B382" s="9">
+        <v>6937285504258</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B383" s="9">
+        <v>6937285501134</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B384" s="9">
+        <v>6937285501165</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D384" s="8"/>
+      <c r="E384" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E372" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="23364-ATE-I"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E377" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AB9718-CBAD-48B0-94BE-214E05472558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D935941-40C8-486E-8ACB-7C458E36B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="798">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2383,37 +2383,19 @@
     <t xml:space="preserve">PF002-A-EU2                               </t>
   </si>
   <si>
-    <t xml:space="preserve">10661-BLB-I                   </t>
-  </si>
-  <si>
     <t>PF002-M+SA005-US</t>
   </si>
   <si>
-    <t xml:space="preserve">10662-BLB-I                   </t>
-  </si>
-  <si>
     <t>PF002-A+SA005-US2</t>
   </si>
   <si>
-    <t xml:space="preserve">10663-BLB-I                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">PF001-U+SA001-US                      </t>
   </si>
   <si>
-    <t xml:space="preserve">10664-BLB-I                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">PF003-M+SA007-US                     </t>
   </si>
   <si>
-    <t xml:space="preserve">10652-BLB-I                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">PF003-D+SA007-LV                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10651-BLB-I                   </t>
   </si>
   <si>
     <t xml:space="preserve">PF003-D+SA007-EU                      </t>
@@ -2435,6 +2417,18 @@
   </si>
   <si>
     <t xml:space="preserve">PF003-D+SA007-US                      </t>
+  </si>
+  <si>
+    <t>10663-BLB-I</t>
+  </si>
+  <si>
+    <t>10664-BLB-I</t>
+  </si>
+  <si>
+    <t>10652-BLB-I</t>
+  </si>
+  <si>
+    <t>10651-BLB-I</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2545,11 +2539,35 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2560,6 +2578,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7BB695F6-A444-4701-86B4-C18167CFAF15}" name="MATERIAL" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F072572C-4FA7-4565-B818-D4558F021BD3}" name="EAN" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3FF40273-636E-4335-A063-9FAB4D4E8F86}" name="DESCRIÇÃO" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{230A83F4-C1AC-4EE0-A938-284D740D8D31}" name="DUM" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AAA115A2-5AFB-4998-9C10-1BD1E7B5C9C3}" name="Multiplicador DUM" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2847,15 +2879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:H384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
@@ -8690,7 +8722,7 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>769</v>
       </c>
@@ -8703,7 +8735,7 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>771</v>
       </c>
@@ -8716,7 +8748,7 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>773</v>
       </c>
@@ -8729,7 +8761,7 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>775</v>
       </c>
@@ -8742,7 +8774,7 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>776</v>
       </c>
@@ -8757,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>778</v>
       </c>
@@ -8772,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>780</v>
       </c>
@@ -8787,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>782</v>
       </c>
@@ -8802,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>784</v>
       </c>
@@ -8817,105 +8849,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B378" s="9">
         <v>6975337034155</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D378" s="8"/>
       <c r="E378" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H378" s="5"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="B379" s="9">
         <v>6977252425452</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D379" s="8"/>
       <c r="E379" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H379" s="5"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B380" s="9">
         <v>6975337033196</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D380" s="8"/>
       <c r="E380" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H380" s="5"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B381" s="9">
         <v>6937285501271</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D381" s="8"/>
       <c r="E381" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H381" s="5"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B382" s="9">
         <v>6937285504258</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D382" s="8"/>
       <c r="E382" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H382" s="5"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B383" s="9">
         <v>6937285501134</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D383" s="8"/>
       <c r="E383" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H383" s="5"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B384" s="9">
         <v>6937285501165</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D384" s="8"/>
       <c r="E384" s="8">
@@ -8923,7 +8961,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E377" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D935941-40C8-486E-8ACB-7C458E36B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDC1A7C-804D-429A-87BD-BF753B072DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="800">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2429,6 +2429,12 @@
   </si>
   <si>
     <t>10651-BLB-I</t>
+  </si>
+  <si>
+    <t>10376-ARI-I</t>
+  </si>
+  <si>
+    <t>PANELA ELET VINTAGE BEGE 3,5L 700W 127V</t>
   </si>
 </sst>
 </file>
@@ -2548,9 +2554,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2567,6 +2570,9 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2581,14 +2587,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E1048576" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BB695F6-A444-4701-86B4-C18167CFAF15}" name="MATERIAL" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F072572C-4FA7-4565-B818-D4558F021BD3}" name="EAN" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3FF40273-636E-4335-A063-9FAB4D4E8F86}" name="DESCRIÇÃO" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{230A83F4-C1AC-4EE0-A938-284D740D8D31}" name="DUM" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AAA115A2-5AFB-4998-9C10-1BD1E7B5C9C3}" name="Multiplicador DUM" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7BB695F6-A444-4701-86B4-C18167CFAF15}" name="MATERIAL" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F072572C-4FA7-4565-B818-D4558F021BD3}" name="EAN" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3FF40273-636E-4335-A063-9FAB4D4E8F86}" name="DESCRIÇÃO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{230A83F4-C1AC-4EE0-A938-284D740D8D31}" name="DUM" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AAA115A2-5AFB-4998-9C10-1BD1E7B5C9C3}" name="Multiplicador DUM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2879,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H384"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C385" sqref="C385"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="E385" sqref="E385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8960,6 +8966,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B385" s="9">
+        <v>8003705123229</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D385" s="8"/>
+      <c r="E385" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDC1A7C-804D-429A-87BD-BF753B072DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D577F2-44C9-462A-875E-91E5F816436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="802">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2435,6 +2435,12 @@
   </si>
   <si>
     <t>PANELA ELET VINTAGE BEGE 3,5L 700W 127V</t>
+  </si>
+  <si>
+    <t>10542-ARI-I</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO POSITANO 220V 60W</t>
   </si>
 </sst>
 </file>
@@ -2885,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="E385" sqref="E385"/>
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8979,6 +8985,23 @@
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B386" s="9">
+        <v>8003705122840</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D386" s="9">
+        <v>28003705122844</v>
+      </c>
+      <c r="E386" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D577F2-44C9-462A-875E-91E5F816436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52037CF4-0E15-494D-A009-F11BE615E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="808">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2144,9 +2144,6 @@
   </si>
   <si>
     <t>[C10110042005204820</t>
-  </si>
-  <si>
-    <t>[C10120042005134315</t>
   </si>
   <si>
     <t>[C10120042005204926</t>
@@ -2441,6 +2438,27 @@
   </si>
   <si>
     <t>ESPREMEDOR PRO POSITANO 220V 60W</t>
+  </si>
+  <si>
+    <t>23422-GPB-I</t>
+  </si>
+  <si>
+    <t>BATERIA DE LITIO 3V 220MAH CR2032-BL</t>
+  </si>
+  <si>
+    <t>042005210619</t>
+  </si>
+  <si>
+    <t>21509-NZX-I</t>
+  </si>
+  <si>
+    <t>FAN RF-U36HF-W1 RGB 360MM BRANCO</t>
+  </si>
+  <si>
+    <t>23432-GPB-I</t>
+  </si>
+  <si>
+    <t>BATERIA DE LITIO 3V CR2-C1</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2553,6 +2571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2891,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="E387" sqref="E387:E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2966,7 +2987,7 @@
         <v>347</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
@@ -3013,7 +3034,7 @@
         <v>350</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E7" s="6">
         <v>10</v>
@@ -3045,7 +3066,7 @@
         <v>352</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
@@ -3109,7 +3130,7 @@
         <v>356</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -3143,7 +3164,7 @@
         <v>358</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -3318,7 +3339,7 @@
         <v>369</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
@@ -4177,13 +4198,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B78" s="7">
         <v>8003705115170</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D78" s="7">
         <v>68003705115172</v>
@@ -4194,13 +4215,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B79" s="7">
         <v>6975337038207</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="6">
@@ -4600,13 +4621,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B103" s="7">
         <v>6975337031338</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="6">
@@ -4615,13 +4636,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B104" s="7">
         <v>6975337031345</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="6">
@@ -4630,13 +4651,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B105" s="7">
         <v>6975337031024</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="6">
@@ -4951,7 +4972,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B124" s="7">
         <v>8003705119376</v>
@@ -5119,7 +5140,7 @@
         <v>471</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E135" s="6">
         <v>10</v>
@@ -5170,7 +5191,7 @@
         <v>475</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E138" s="6">
         <v>100</v>
@@ -5187,7 +5208,7 @@
         <v>476</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E139" s="6">
         <v>100</v>
@@ -6746,7 +6767,7 @@
         <v>579</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E242" s="6">
         <v>20</v>
@@ -6763,7 +6784,7 @@
         <v>580</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E243" s="6">
         <v>50</v>
@@ -6857,7 +6878,7 @@
         <v>586</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E249" s="6">
         <v>20</v>
@@ -6874,7 +6895,7 @@
         <v>587</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E250" s="6">
         <v>40</v>
@@ -6907,9 +6928,7 @@
       <c r="C252" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D252" s="7" t="s">
-        <v>707</v>
-      </c>
+      <c r="D252" s="7"/>
       <c r="E252" s="6">
         <v>10</v>
       </c>
@@ -8079,15 +8098,13 @@
       <c r="A326" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B326" s="7">
-        <v>42005210619</v>
+      <c r="B326" s="11" t="s">
+        <v>803</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D326" s="7">
-        <v>42005210619</v>
-      </c>
+      <c r="D326" s="7"/>
       <c r="E326" s="6">
         <v>4</v>
       </c>
@@ -8461,26 +8478,26 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B350" s="9">
         <v>4961310157326</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B351" s="9">
         <v>8003705122444</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D351" s="8"/>
       <c r="E351" s="8">
@@ -8495,7 +8512,7 @@
         <v>42005208272</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D352" s="8"/>
       <c r="E352" s="8">
@@ -8504,13 +8521,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B353" s="9">
         <v>8003705123700</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D353" s="8"/>
       <c r="E353" s="8">
@@ -8519,13 +8536,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B354" s="9">
         <v>5056547204079</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D354" s="8"/>
       <c r="E354" s="8">
@@ -8534,39 +8551,39 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B355" s="9">
         <v>6971636408932</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B356" s="9">
         <v>7899980100854</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B357" s="9">
         <v>8003705123694</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D357" s="8"/>
       <c r="E357" s="8">
@@ -8575,13 +8592,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B358" s="9">
         <v>5056547202402</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D358" s="8"/>
       <c r="E358" s="8">
@@ -8590,13 +8607,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B359" s="9">
         <v>8003705122437</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D359" s="8"/>
       <c r="E359" s="8">
@@ -8605,13 +8622,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B360" s="9">
         <v>8003705123526</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D360" s="8"/>
       <c r="E360" s="8">
@@ -8620,13 +8637,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B361" s="9">
         <v>8003705123380</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D361" s="8"/>
       <c r="E361" s="8">
@@ -8635,13 +8652,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B362" s="9">
         <v>8003705114142</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D362" s="8"/>
       <c r="E362" s="8">
@@ -8650,7 +8667,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B363" s="9">
         <v>6971636407492</v>
@@ -8665,13 +8682,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B364" s="9">
         <v>5056547204055</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D364" s="8"/>
       <c r="E364" s="8">
@@ -8680,13 +8697,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B365" s="9">
         <v>4961310163440</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D365" s="8"/>
       <c r="E365" s="8">
@@ -8695,7 +8712,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B366" s="9">
         <v>6977252425452</v>
@@ -8710,72 +8727,76 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B367" s="9">
         <v>8003705120099</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B368" s="9">
         <v>8003705122802</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
+        <v>767</v>
+      </c>
+      <c r="D368" s="8">
+        <v>48003705122800</v>
+      </c>
+      <c r="E368" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B369" s="9">
         <v>8003705122833</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B370" s="9">
         <v>8003705114159</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B371" s="9">
         <v>8003705122796</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B372" s="9">
         <v>6975337034155</v>
@@ -8788,13 +8809,13 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B373" s="9">
         <v>6975337034230</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D373" s="8"/>
       <c r="E373" s="8">
@@ -8803,13 +8824,13 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B374" s="9">
         <v>6975337030980</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D374" s="8"/>
       <c r="E374" s="8">
@@ -8818,13 +8839,13 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B375" s="9">
         <v>6975337031703</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D375" s="8"/>
       <c r="E375" s="8">
@@ -8833,13 +8854,13 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B376" s="9">
         <v>6975337033165</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D376" s="8"/>
       <c r="E376" s="8">
@@ -8848,13 +8869,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B377" s="9">
         <v>6977252425360</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D377" s="8"/>
       <c r="E377" s="8">
@@ -8863,13 +8884,13 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B378" s="9">
         <v>6975337034155</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D378" s="8"/>
       <c r="E378" s="8">
@@ -8879,13 +8900,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B379" s="9">
         <v>6977252425452</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D379" s="8"/>
       <c r="E379" s="8">
@@ -8895,13 +8916,13 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B380" s="9">
         <v>6975337033196</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D380" s="8"/>
       <c r="E380" s="8">
@@ -8911,13 +8932,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B381" s="9">
         <v>6937285501271</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D381" s="8"/>
       <c r="E381" s="8">
@@ -8927,13 +8948,13 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B382" s="9">
         <v>6937285504258</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D382" s="8"/>
       <c r="E382" s="8">
@@ -8943,13 +8964,13 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B383" s="9">
         <v>6937285501134</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D383" s="8"/>
       <c r="E383" s="8">
@@ -8959,13 +8980,13 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B384" s="9">
         <v>6937285501165</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D384" s="8"/>
       <c r="E384" s="8">
@@ -8974,32 +8995,90 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B385" s="9">
         <v>8003705123229</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B386" s="9">
         <v>8003705122840</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D386" s="9">
         <v>28003705122844</v>
       </c>
       <c r="E386" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B387" s="9">
+        <v>4891199001147</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="D387" s="9"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B388" s="9">
+        <v>5056547204444</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="D388" s="9"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B389" s="9">
+        <v>4891199006999</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D389" s="9">
+        <v>4891199007002</v>
+      </c>
+      <c r="E389" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B390" s="9">
+        <v>4891199001147</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="D390" s="9">
+        <v>4891199026430</v>
+      </c>
+      <c r="E390" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52037CF4-0E15-494D-A009-F11BE615E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74B105-ACD4-4767-8972-60700F43506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="812">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2459,6 +2459,18 @@
   </si>
   <si>
     <t>BATERIA DE LITIO 3V CR2-C1</t>
+  </si>
+  <si>
+    <t>10497-ARI-I</t>
+  </si>
+  <si>
+    <t>FOGAO POR INDUÇAO 1200W 127V 1 BOCA</t>
+  </si>
+  <si>
+    <t>10651-ARI-I</t>
+  </si>
+  <si>
+    <t>LIQUIDIFICADOR POSITANO 127V</t>
   </si>
 </sst>
 </file>
@@ -2912,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H390"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="E387" sqref="E387:E390"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9081,6 +9093,36 @@
         <v>20</v>
       </c>
     </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B391" s="9">
+        <v>8003705123427</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D391" s="9"/>
+      <c r="E391" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B392" s="9">
+        <v>8003705124110</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D392" s="9"/>
+      <c r="E392" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\APP WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74B105-ACD4-4767-8972-60700F43506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0202EA-3179-46C5-B0FD-D050834D27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="830">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -2472,12 +2472,69 @@
   <si>
     <t>LIQUIDIFICADOR POSITANO 127V</t>
   </si>
+  <si>
+    <t>21004-CTY-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D CR-PLA VERM FLUORE</t>
+  </si>
+  <si>
+    <t>10217-BLB-I</t>
+  </si>
+  <si>
+    <t>BICO DE FERRO P/ IMP 3D A1/ A1 MINI</t>
+  </si>
+  <si>
+    <t>10381-BLB-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PLA MATTE VERDE ESC</t>
+  </si>
+  <si>
+    <t>10378-BLB-I</t>
+  </si>
+  <si>
+    <t>FILAMENTO P/ IMP 3D  PLA MATTE MRM ESC</t>
+  </si>
+  <si>
+    <t>042005166312</t>
+  </si>
+  <si>
+    <t>23495-GPB-I</t>
+  </si>
+  <si>
+    <t>BATERIA ALCALINA BOTAO 189 1,5V 5UN</t>
+  </si>
+  <si>
+    <t>042005211227</t>
+  </si>
+  <si>
+    <t>10543-ARI-I</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR PRO POSITANO 127V 85W</t>
+  </si>
+  <si>
+    <t>10548-ARI-I</t>
+  </si>
+  <si>
+    <t>CHALEIRA ELET POSITANO 127V 1500W</t>
+  </si>
+  <si>
+    <t>042005204854</t>
+  </si>
+  <si>
+    <t>042005204847</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2497,6 +2554,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2549,10 +2613,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2587,9 +2652,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2626,8 +2695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E1048576" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}" name="Tabela1" displayName="Tabela1" ref="A1:E1048574" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E1048574" xr:uid="{20A62CBE-AD09-442E-A460-C4C4B2C80581}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7BB695F6-A444-4701-86B4-C18167CFAF15}" name="MATERIAL" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F072572C-4FA7-4565-B818-D4558F021BD3}" name="EAN" dataDxfId="3"/>
@@ -2924,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H392"/>
+  <dimension ref="A1:H400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D394" sqref="D394"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1048576" sqref="A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4268,7 +4337,7 @@
         <v>422</v>
       </c>
       <c r="D81" s="7">
-        <v>480037051222</v>
+        <v>48003705122282</v>
       </c>
       <c r="E81" s="6">
         <v>4</v>
@@ -4843,7 +4912,7 @@
         <v>48003705123531</v>
       </c>
       <c r="E115" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -6664,9 +6733,7 @@
       <c r="C234" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D234" s="7">
-        <v>5056547202266</v>
-      </c>
+      <c r="D234" s="7"/>
       <c r="E234" s="6">
         <v>6</v>
       </c>
@@ -7051,8 +7118,8 @@
       <c r="A259" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B259" s="7">
-        <v>42005166312</v>
+      <c r="B259" s="11" t="s">
+        <v>820</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>596</v>
@@ -7927,8 +7994,8 @@
       <c r="A315" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B315" s="7">
-        <v>42005204847</v>
+      <c r="B315" s="11" t="s">
+        <v>829</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>652</v>
@@ -7944,8 +8011,8 @@
       <c r="A316" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B316" s="7">
-        <v>42005204854</v>
+      <c r="B316" s="11" t="s">
+        <v>828</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>653</v>
@@ -7978,15 +8045,13 @@
       <c r="A318" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B318" s="7">
-        <v>42005211227</v>
+      <c r="B318" s="11" t="s">
+        <v>823</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D318" s="7">
-        <v>42005211227</v>
-      </c>
+      <c r="D318" s="7"/>
       <c r="E318" s="6">
         <v>2</v>
       </c>
@@ -8228,7 +8293,7 @@
         <v>328</v>
       </c>
       <c r="B333" s="7">
-        <v>4961310163440</v>
+        <v>4961310163426</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>670</v>
@@ -8747,8 +8812,12 @@
       <c r="C367" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
+      <c r="D367" s="12">
+        <v>68003705120091</v>
+      </c>
+      <c r="E367" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
@@ -8777,8 +8846,12 @@
       <c r="C369" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
+      <c r="D369" s="8">
+        <v>68003705122835</v>
+      </c>
+      <c r="E369" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
@@ -8803,8 +8876,12 @@
       <c r="C371" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D371" s="8"/>
-      <c r="E371" s="8"/>
+      <c r="D371" s="9">
+        <v>48003705122794</v>
+      </c>
+      <c r="E371" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
@@ -9046,6 +9123,7 @@
         <v>802</v>
       </c>
       <c r="D387" s="9"/>
+      <c r="E387" s="8"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
@@ -9058,6 +9136,7 @@
         <v>805</v>
       </c>
       <c r="D388" s="9"/>
+      <c r="E388" s="8"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
@@ -9072,7 +9151,7 @@
       <c r="D389" s="9">
         <v>4891199007002</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389" s="8">
         <v>10</v>
       </c>
     </row>
@@ -9089,7 +9168,7 @@
       <c r="D390" s="9">
         <v>4891199026430</v>
       </c>
-      <c r="E390" s="2">
+      <c r="E390" s="8">
         <v>20</v>
       </c>
     </row>
@@ -9104,7 +9183,7 @@
         <v>809</v>
       </c>
       <c r="D391" s="9"/>
-      <c r="E391" s="2">
+      <c r="E391" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9119,12 +9198,129 @@
         <v>811</v>
       </c>
       <c r="D392" s="9"/>
-      <c r="E392" s="2">
+      <c r="E392" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B393" s="9">
+        <v>6971636409120</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D393" s="9"/>
+      <c r="E393" s="8"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B394" s="9">
+        <v>6975337037330</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="D394" s="9"/>
+      <c r="E394" s="8"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B395" s="9">
+        <v>6975337034995</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D395" s="9"/>
+      <c r="E395" s="8"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B396" s="9">
+        <v>6975337037316</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D396" s="9"/>
+      <c r="E396" s="8"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B397" s="9">
+        <v>4891199015519</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="D397" s="9"/>
+      <c r="E397" s="8"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B398" s="9">
+        <v>8003705124134</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D398" s="9">
+        <v>28003705124138</v>
+      </c>
+      <c r="E398" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D399" s="9">
+        <v>680037505124174</v>
+      </c>
+      <c r="E399" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B400" s="9">
+        <v>8003705122796</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D400" s="9">
+        <v>48003705122794</v>
+      </c>
+      <c r="E400" s="8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="B259 B318 B315:B316" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
